--- a/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
+++ b/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\experiment_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\src\nomadic\start\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D6BD7-4F14-47FE-877F-AAE5AECC640C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9097A9-A585-4C14-AAFF-E2264193C1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17532" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="2" r:id="rId1"/>
     <sheet name="nomadic" sheetId="6" state="hidden" r:id="rId2"/>
+    <sheet name="options" sheetId="7" state="hidden" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="Post_PCR_DNA_threshold_ngul">options!$B$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Date:</t>
   </si>
@@ -673,6 +677,12 @@
   </si>
   <si>
     <t>post_pcr_dna_conc_ngul</t>
+  </si>
+  <si>
+    <t>(save this as the filename)</t>
+  </si>
+  <si>
+    <t>Post PCR DNA threshold (ng / µl)</t>
   </si>
 </sst>
 </file>
@@ -906,33 +916,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -948,6 +931,33 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -991,6 +1001,32 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="none">
@@ -1004,23 +1040,6 @@
         </left>
         <right style="thin">
           <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
@@ -1049,15 +1068,6 @@
         </bottom>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1204,9 +1214,9 @@
   <tableColumns count="5">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode#" dataDxfId="5"/>
+    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode#" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1217,13 +1227,13 @@
   <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="sample_id"/>
-    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="6">
       <calculatedColumnFormula>IF(LEN(Library!C10)=0,"",Library!C10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="5">
       <calculatedColumnFormula>IF(ISBLANK(Library!B10),"",CONCATENATE("barcode",Library!E10))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="4">
       <calculatedColumnFormula>IF(LEN(Library!D10)=0,"",Library!D10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1414,7 +1424,7 @@
   <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1428,56 +1438,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="11" t="s">
         <v>3</v>
       </c>
@@ -1487,9 +1497,9 @@
         <v>210</v>
       </c>
       <c r="B6" s="26"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="10" t="s">
         <v>209</v>
       </c>
@@ -1499,13 +1509,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="27"/>
-      <c r="C7" s="29" t="str">
+      <c r="C7" s="30" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,C5,"_",C4,"_Batch",C6))</f>
         <v/>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="13"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="10" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" s="12"/>
@@ -1534,7 +1546,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="30"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1545,7 +1557,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1557,7 +1569,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="31"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1568,7 +1580,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="31"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1579,7 +1591,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="31"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1590,7 +1602,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="31"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="3" t="s">
         <v>19</v>
       </c>
@@ -1601,7 +1613,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="31"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1612,7 +1624,7 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="32"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
@@ -1623,7 +1635,7 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
@@ -1634,7 +1646,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="31"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
@@ -1645,7 +1657,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="31"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1656,7 +1668,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="31"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1667,7 +1679,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="31"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="3" t="s">
         <v>33</v>
       </c>
@@ -1678,7 +1690,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="31"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="3" t="s">
         <v>35</v>
       </c>
@@ -1689,7 +1701,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="31"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1700,7 +1712,7 @@
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="33"/>
+      <c r="D25" s="25"/>
       <c r="E25" s="9" t="s">
         <v>39</v>
       </c>
@@ -1711,7 +1723,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="30"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="5" t="s">
         <v>41</v>
       </c>
@@ -1722,7 +1734,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="31"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="3" t="s">
         <v>43</v>
       </c>
@@ -1733,7 +1745,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="31"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="3" t="s">
         <v>45</v>
       </c>
@@ -1744,7 +1756,7 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="31"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="3" t="s">
         <v>47</v>
       </c>
@@ -1755,7 +1767,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="31"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="3" t="s">
         <v>49</v>
       </c>
@@ -1766,7 +1778,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="31"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="3" t="s">
         <v>51</v>
       </c>
@@ -1777,7 +1789,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="31"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="3" t="s">
         <v>53</v>
       </c>
@@ -1788,7 +1800,7 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="7" t="s">
         <v>55</v>
       </c>
@@ -1799,7 +1811,7 @@
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="30"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="5" t="s">
         <v>57</v>
       </c>
@@ -1810,7 +1822,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="31"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="3" t="s">
         <v>59</v>
       </c>
@@ -1821,7 +1833,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="31"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="3" t="s">
         <v>61</v>
       </c>
@@ -1832,7 +1844,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="31"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="3" t="s">
         <v>63</v>
       </c>
@@ -1843,7 +1855,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="31"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="3" t="s">
         <v>65</v>
       </c>
@@ -1854,7 +1866,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="31"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="3" t="s">
         <v>67</v>
       </c>
@@ -1865,7 +1877,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="31"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="3" t="s">
         <v>69</v>
       </c>
@@ -1876,7 +1888,7 @@
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="32"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="7" t="s">
         <v>71</v>
       </c>
@@ -1887,7 +1899,7 @@
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="30"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="5" t="s">
         <v>73</v>
       </c>
@@ -1898,7 +1910,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="31"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="3" t="s">
         <v>75</v>
       </c>
@@ -1909,7 +1921,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="31"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="3" t="s">
         <v>77</v>
       </c>
@@ -1920,7 +1932,7 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="31"/>
+      <c r="D45" s="23"/>
       <c r="E45" s="3" t="s">
         <v>79</v>
       </c>
@@ -1931,7 +1943,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="31"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="3" t="s">
         <v>81</v>
       </c>
@@ -1942,7 +1954,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="31"/>
+      <c r="D47" s="23"/>
       <c r="E47" s="3" t="s">
         <v>83</v>
       </c>
@@ -1953,7 +1965,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="31"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="3" t="s">
         <v>85</v>
       </c>
@@ -1964,7 +1976,7 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
-      <c r="D49" s="32"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="7" t="s">
         <v>87</v>
       </c>
@@ -1975,7 +1987,7 @@
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="30"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="5" t="s">
         <v>89</v>
       </c>
@@ -1986,7 +1998,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="31"/>
+      <c r="D51" s="23"/>
       <c r="E51" s="3" t="s">
         <v>91</v>
       </c>
@@ -1997,7 +2009,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="31"/>
+      <c r="D52" s="23"/>
       <c r="E52" s="3" t="s">
         <v>93</v>
       </c>
@@ -2008,7 +2020,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="31"/>
+      <c r="D53" s="23"/>
       <c r="E53" s="3" t="s">
         <v>95</v>
       </c>
@@ -2019,7 +2031,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="31"/>
+      <c r="D54" s="23"/>
       <c r="E54" s="3" t="s">
         <v>97</v>
       </c>
@@ -2030,7 +2042,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="31"/>
+      <c r="D55" s="23"/>
       <c r="E55" s="3" t="s">
         <v>99</v>
       </c>
@@ -2041,7 +2053,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="31"/>
+      <c r="D56" s="23"/>
       <c r="E56" s="3" t="s">
         <v>101</v>
       </c>
@@ -2052,7 +2064,7 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
-      <c r="D57" s="32"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="7" t="s">
         <v>103</v>
       </c>
@@ -2063,7 +2075,7 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="30"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="5" t="s">
         <v>105</v>
       </c>
@@ -2074,7 +2086,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="31"/>
+      <c r="D59" s="23"/>
       <c r="E59" s="3" t="s">
         <v>107</v>
       </c>
@@ -2085,7 +2097,7 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="31"/>
+      <c r="D60" s="23"/>
       <c r="E60" s="3" t="s">
         <v>109</v>
       </c>
@@ -2096,7 +2108,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="31"/>
+      <c r="D61" s="23"/>
       <c r="E61" s="3" t="s">
         <v>111</v>
       </c>
@@ -2107,7 +2119,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="31"/>
+      <c r="D62" s="23"/>
       <c r="E62" s="3" t="s">
         <v>113</v>
       </c>
@@ -2118,7 +2130,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="31"/>
+      <c r="D63" s="23"/>
       <c r="E63" s="3" t="s">
         <v>115</v>
       </c>
@@ -2129,7 +2141,7 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="31"/>
+      <c r="D64" s="23"/>
       <c r="E64" s="3" t="s">
         <v>117</v>
       </c>
@@ -2140,7 +2152,7 @@
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="32"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="7" t="s">
         <v>119</v>
       </c>
@@ -2151,7 +2163,7 @@
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="30"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="5" t="s">
         <v>121</v>
       </c>
@@ -2162,7 +2174,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="31"/>
+      <c r="D67" s="23"/>
       <c r="E67" s="3" t="s">
         <v>123</v>
       </c>
@@ -2173,7 +2185,7 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="31"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="3" t="s">
         <v>125</v>
       </c>
@@ -2184,7 +2196,7 @@
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="31"/>
+      <c r="D69" s="23"/>
       <c r="E69" s="3" t="s">
         <v>127</v>
       </c>
@@ -2195,7 +2207,7 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="31"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="3" t="s">
         <v>129</v>
       </c>
@@ -2206,7 +2218,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="31"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="3" t="s">
         <v>131</v>
       </c>
@@ -2217,7 +2229,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="31"/>
+      <c r="D72" s="23"/>
       <c r="E72" s="3" t="s">
         <v>133</v>
       </c>
@@ -2228,7 +2240,7 @@
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
-      <c r="D73" s="32"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="7" t="s">
         <v>135</v>
       </c>
@@ -2239,7 +2251,7 @@
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="30"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="5" t="s">
         <v>137</v>
       </c>
@@ -2250,7 +2262,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="31"/>
+      <c r="D75" s="23"/>
       <c r="E75" s="3" t="s">
         <v>139</v>
       </c>
@@ -2261,7 +2273,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="31"/>
+      <c r="D76" s="23"/>
       <c r="E76" s="3" t="s">
         <v>141</v>
       </c>
@@ -2272,7 +2284,7 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="31"/>
+      <c r="D77" s="23"/>
       <c r="E77" s="3" t="s">
         <v>143</v>
       </c>
@@ -2283,7 +2295,7 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="31"/>
+      <c r="D78" s="23"/>
       <c r="E78" s="3" t="s">
         <v>145</v>
       </c>
@@ -2294,7 +2306,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="31"/>
+      <c r="D79" s="23"/>
       <c r="E79" s="3" t="s">
         <v>147</v>
       </c>
@@ -2305,7 +2317,7 @@
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="31"/>
+      <c r="D80" s="23"/>
       <c r="E80" s="3" t="s">
         <v>149</v>
       </c>
@@ -2316,7 +2328,7 @@
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
-      <c r="D81" s="32"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="7" t="s">
         <v>151</v>
       </c>
@@ -2327,7 +2339,7 @@
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="30"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="5" t="s">
         <v>153</v>
       </c>
@@ -2338,7 +2350,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="31"/>
+      <c r="D83" s="23"/>
       <c r="E83" s="3" t="s">
         <v>155</v>
       </c>
@@ -2349,7 +2361,7 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="31"/>
+      <c r="D84" s="23"/>
       <c r="E84" s="3" t="s">
         <v>157</v>
       </c>
@@ -2360,7 +2372,7 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="31"/>
+      <c r="D85" s="23"/>
       <c r="E85" s="3" t="s">
         <v>159</v>
       </c>
@@ -2371,7 +2383,7 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="31"/>
+      <c r="D86" s="23"/>
       <c r="E86" s="3" t="s">
         <v>161</v>
       </c>
@@ -2382,7 +2394,7 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="31"/>
+      <c r="D87" s="23"/>
       <c r="E87" s="3" t="s">
         <v>163</v>
       </c>
@@ -2393,7 +2405,7 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="31"/>
+      <c r="D88" s="23"/>
       <c r="E88" s="3" t="s">
         <v>165</v>
       </c>
@@ -2404,7 +2416,7 @@
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
-      <c r="D89" s="32"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="7" t="s">
         <v>167</v>
       </c>
@@ -2415,7 +2427,7 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="30"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="5" t="s">
         <v>169</v>
       </c>
@@ -2426,7 +2438,7 @@
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="31"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="3" t="s">
         <v>171</v>
       </c>
@@ -2437,7 +2449,7 @@
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="31"/>
+      <c r="D92" s="23"/>
       <c r="E92" s="3" t="s">
         <v>173</v>
       </c>
@@ -2448,7 +2460,7 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="31"/>
+      <c r="D93" s="23"/>
       <c r="E93" s="3" t="s">
         <v>175</v>
       </c>
@@ -2459,7 +2471,7 @@
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="31"/>
+      <c r="D94" s="23"/>
       <c r="E94" s="3" t="s">
         <v>177</v>
       </c>
@@ -2470,7 +2482,7 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="31"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="3" t="s">
         <v>179</v>
       </c>
@@ -2481,7 +2493,7 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="31"/>
+      <c r="D96" s="23"/>
       <c r="E96" s="3" t="s">
         <v>181</v>
       </c>
@@ -2492,7 +2504,7 @@
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
-      <c r="D97" s="32"/>
+      <c r="D97" s="24"/>
       <c r="E97" s="7" t="s">
         <v>183</v>
       </c>
@@ -2503,7 +2515,7 @@
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="30"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="5" t="s">
         <v>185</v>
       </c>
@@ -2514,7 +2526,7 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="31"/>
+      <c r="D99" s="23"/>
       <c r="E99" s="3" t="s">
         <v>187</v>
       </c>
@@ -2525,7 +2537,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="31"/>
+      <c r="D100" s="23"/>
       <c r="E100" s="3" t="s">
         <v>189</v>
       </c>
@@ -2536,7 +2548,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="31"/>
+      <c r="D101" s="23"/>
       <c r="E101" s="3" t="s">
         <v>191</v>
       </c>
@@ -2547,7 +2559,7 @@
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="31"/>
+      <c r="D102" s="23"/>
       <c r="E102" s="3" t="s">
         <v>193</v>
       </c>
@@ -2558,7 +2570,7 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="31"/>
+      <c r="D103" s="23"/>
       <c r="E103" s="3" t="s">
         <v>195</v>
       </c>
@@ -2569,7 +2581,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="31"/>
+      <c r="D104" s="23"/>
       <c r="E104" s="3" t="s">
         <v>197</v>
       </c>
@@ -2580,7 +2592,7 @@
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="32"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="7" t="s">
         <v>199</v>
       </c>
@@ -2666,13 +2678,8 @@
       <c r="F115" s="13"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:E3"/>
@@ -2680,6 +2687,12 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B10:E105">
@@ -2695,10 +2708,10 @@
   <conditionalFormatting sqref="D10:D105">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
       <formula>0</formula>
-      <formula>15</formula>
+      <formula>Post_PCR_DNA_threshold_ngul</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThanOrEqual">
-      <formula>15</formula>
+      <formula>Post_PCR_DNA_threshold_ngul</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
@@ -2721,9 +2734,8 @@
       <formula1>0.0000000000000001</formula1>
       <formula2>9999999999</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Date" error="Please check your entry and ensure it is a date in the format YYY-MM-DD e.g. 2024-10-28" sqref="C2:E2" xr:uid="{6948A87B-14F5-4864-A3CB-3A5971E46210}">
-      <formula1>43831</formula1>
-      <formula2>TODAY()</formula2>
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Date" error="Please check your entry and ensure it is a date in the format YYYY-MM-DD e.g. 2024-10-28" sqref="C2:E2" xr:uid="{6948A87B-14F5-4864-A3CB-3A5971E46210}">
+      <formula1>10</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Number of initials" error="Please just enter the first and last name initials e.g. John Smith = JS" sqref="C3:E3" xr:uid="{6E22CD84-505D-440D-BC75-9483B6185E39}">
       <formula1>2</formula1>
@@ -4505,4 +4517,33 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5817B840-46A1-4DBD-A947-D1215FFA570B}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
+++ b/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\src\nomadic\start\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9097A9-A585-4C14-AAFF-E2264193C1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D0D839-F76C-4A4E-8712-FCF79450F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17532" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23244" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="2" r:id="rId1"/>
-    <sheet name="nomadic" sheetId="6" state="hidden" r:id="rId2"/>
-    <sheet name="options" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="Gel" sheetId="8" r:id="rId2"/>
+    <sheet name="nomadic" sheetId="6" r:id="rId3"/>
+    <sheet name="options" sheetId="7" state="hidden" r:id="rId4"/>
+    <sheet name="Instructions" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Post_PCR_DNA_threshold_ngul">options!$B$1</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>Date:</t>
   </si>
@@ -52,9 +54,6 @@
     <t>Exp Number:</t>
   </si>
   <si>
-    <t>(user created three digit ID)</t>
-  </si>
-  <si>
     <t>Exp Name:</t>
   </si>
   <si>
@@ -64,585 +63,294 @@
     <t>PCR [DNA] (ng / µl)</t>
   </si>
   <si>
-    <t>Barcode#</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
-    <t>03</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
-    <t>04</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
-    <t>05</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
-    <t>07</t>
-  </si>
-  <si>
     <t>H1</t>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
-    <t>09</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>E2</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>G2</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>B3</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>E3</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>F3</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>G3</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>B4</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>E4</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>F4</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
     <t>G4</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>H4</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>B5</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>D5</t>
   </si>
   <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>E5</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>F5</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>G5</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>H5</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>B6</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>D6</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>E6</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>G6</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>H6</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>A7</t>
   </si>
   <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>B7</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>C7</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>D7</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>E7</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>F7</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>G7</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>H7</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>A8</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>B8</t>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>C8</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>D8</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>E8</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>F8</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>G8</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>H8</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <t>A9</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>B9</t>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>C9</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>D9</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>E9</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>F9</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>G9</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>H9</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
     <t>A10</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
     <t>B10</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
-    <t>76</t>
-  </si>
-  <si>
     <t>E10</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>F10</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>G10</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>H10</t>
   </si>
   <si>
-    <t>80</t>
-  </si>
-  <si>
     <t>A11</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>B11</t>
   </si>
   <si>
-    <t>82</t>
-  </si>
-  <si>
     <t>C11</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
     <t>D11</t>
   </si>
   <si>
-    <t>84</t>
-  </si>
-  <si>
     <t>E11</t>
   </si>
   <si>
-    <t>85</t>
-  </si>
-  <si>
     <t>F11</t>
   </si>
   <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>G11</t>
   </si>
   <si>
-    <t>87</t>
-  </si>
-  <si>
     <t>H11</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>A12</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
     <t>B12</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>C12</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
     <t>D12</t>
   </si>
   <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>E12</t>
   </si>
   <si>
-    <t>93</t>
-  </si>
-  <si>
     <t>F12</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
     <t>G12</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>H12</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>sample_id</t>
   </si>
   <si>
@@ -670,9 +378,6 @@
     <t>NOMADS Library Worksheet</t>
   </si>
   <si>
-    <t>(e.g. A, B or C etc)</t>
-  </si>
-  <si>
     <t>Batch:</t>
   </si>
   <si>
@@ -683,6 +388,57 @@
   </si>
   <si>
     <t>Post PCR DNA threshold (ng / µl)</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>(user defined experiment number)</t>
+  </si>
+  <si>
+    <t>(e.g. A, B, C etc)</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - when copying from another worksheet, always right-click and paste VALUES:</t>
+  </si>
+  <si>
+    <t>2. Paste gel picture into the 'Gel' tab and label lanes</t>
+  </si>
+  <si>
+    <t>1. Enter all details into the 'Library'  tab, ensuring all yellow highlighted cells are complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - Copy sample list from 'Library' tab (Paste Special with Transpose to converting from list to row format):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - Compress the gel picture (Select image &gt; Picture format (ribbon) &gt; Compress Pictures):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - Crop the image to just the relevent areas (Select image &gt; Picture format (ribbon) &gt; Crop):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      - Resize column width to the same as the gel image lane width</t>
+  </si>
+  <si>
+    <t>3. Save workbook with the generated filename</t>
+  </si>
+  <si>
+    <t>This template is used to record experimental details as part of a sequencing run.</t>
+  </si>
+  <si>
+    <t>To prevent inadvertent loss of data, cells are protected from editing, you can only select unlocked cells (use tab to navigate)</t>
   </si>
 </sst>
 </file>
@@ -692,7 +448,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -735,8 +491,42 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -765,6 +555,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -843,7 +639,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -852,15 +648,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -868,15 +656,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -933,14 +713,24 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,15 +739,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -969,6 +780,48 @@
     <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1008,47 +861,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1208,6 +1020,200 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5722197</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>503582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8090452</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1795571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A657486F-13F2-4D15-AF57-5DE80E183C47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5722197" y="4353339"/>
+          <a:ext cx="2368255" cy="1815450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6743280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9481932</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2124505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F1153B-8D15-479B-A170-75DA31400928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743280" y="6272104"/>
+          <a:ext cx="2738652" cy="2094175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5649402</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7268817</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1347467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C620C78F-0A37-4575-8D4F-DC31DE465006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5649402" y="2052100"/>
+          <a:ext cx="1619415" cy="1329576"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5950226</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>26503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6261651</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D34831D-3EFA-3DF6-38DE-55FE6F9FC17C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="-1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5950226" y="3876260"/>
+          <a:ext cx="311425" cy="541536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A9:E105" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A9:E105" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
@@ -1215,8 +1221,8 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="10"/>
     <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode#" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1227,13 +1233,13 @@
   <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="sample_id"/>
-    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="8">
       <calculatedColumnFormula>IF(LEN(Library!C10)=0,"",Library!C10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="7">
       <calculatedColumnFormula>IF(ISBLANK(Library!B10),"",CONCATENATE("barcode",Library!E10))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="6">
       <calculatedColumnFormula>IF(LEN(Library!D10)=0,"",Library!D10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1421,10 +1427,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1437,1249 +1443,1064 @@
     <col min="6" max="6" width="11.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="11" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="str">
+        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,TEXT(C5,"000"),"_",C4,"_Batch",C6))</f>
+        <v/>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="30" t="str">
-        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,C5,"_",C4,"_Batch",C6))</f>
-        <v/>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="B9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="E9" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="39"/>
       <c r="F11"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>12</v>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>14</v>
+      <c r="D12" s="19"/>
+      <c r="E12" s="39"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>16</v>
+      <c r="D13" s="19"/>
+      <c r="E13" s="39"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>18</v>
+      <c r="D14" s="19"/>
+      <c r="E14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>20</v>
+      <c r="D15" s="19"/>
+      <c r="E15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="A17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>26</v>
+      <c r="A19" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
-        <v>28</v>
+      <c r="A20" s="15" t="s">
+        <v>16</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>30</v>
+      <c r="A21" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>32</v>
+      <c r="A22" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>34</v>
+      <c r="A23" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>36</v>
+      <c r="A24" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="A25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>42</v>
+      <c r="A27" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
-        <v>44</v>
+      <c r="A28" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>46</v>
+      <c r="A29" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
-        <v>48</v>
+      <c r="A30" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="3" t="s">
-        <v>49</v>
-      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>50</v>
+      <c r="A31" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="D31" s="19"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
-        <v>52</v>
+      <c r="A32" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="A33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="A34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>58</v>
+      <c r="A35" s="15" t="s">
+        <v>31</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
-        <v>60</v>
+      <c r="A36" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
-        <v>62</v>
+      <c r="A37" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="39"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19" t="s">
-        <v>64</v>
+      <c r="A38" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="3" t="s">
-        <v>65</v>
-      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="39"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19" t="s">
-        <v>66</v>
+      <c r="A39" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="39"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
-        <v>68</v>
+      <c r="A40" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="39"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="A41" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="A42" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
-        <v>74</v>
+      <c r="A43" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="39"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
-        <v>76</v>
+      <c r="A44" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="39"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>78</v>
+      <c r="A45" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="39"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19" t="s">
-        <v>80</v>
+      <c r="A46" s="15" t="s">
+        <v>42</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="39"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>82</v>
+      <c r="A47" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="3" t="s">
-        <v>83</v>
-      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="39"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19" t="s">
-        <v>84</v>
+      <c r="A48" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="7" t="s">
-        <v>87</v>
-      </c>
+      <c r="A49" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="5" t="s">
-        <v>89</v>
-      </c>
+      <c r="A50" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
-        <v>90</v>
+      <c r="A51" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="D51" s="19"/>
+      <c r="E51" s="39"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19" t="s">
-        <v>92</v>
+      <c r="A52" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="39"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>94</v>
+      <c r="A53" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="3" t="s">
-        <v>95</v>
-      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="39"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19" t="s">
-        <v>96</v>
+      <c r="A54" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="D54" s="19"/>
+      <c r="E54" s="39"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19" t="s">
-        <v>98</v>
+      <c r="A55" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="D55" s="19"/>
+      <c r="E55" s="39"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19" t="s">
-        <v>100</v>
+      <c r="A56" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="D56" s="19"/>
+      <c r="E56" s="39"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="7" t="s">
-        <v>103</v>
-      </c>
+      <c r="A57" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="5" t="s">
-        <v>105</v>
-      </c>
+      <c r="A58" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="38"/>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
-        <v>106</v>
+      <c r="A59" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="D59" s="19"/>
+      <c r="E59" s="39"/>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
-        <v>108</v>
+      <c r="A60" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="39"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
-        <v>110</v>
+      <c r="A61" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="39"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
-        <v>112</v>
+      <c r="A62" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="39"/>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
-        <v>114</v>
+      <c r="A63" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="39"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
-        <v>116</v>
+      <c r="A64" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="39"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="A65" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="A66" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="38"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
-        <v>122</v>
+      <c r="A67" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="39"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
-        <v>124</v>
+      <c r="A68" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="D68" s="19"/>
+      <c r="E68" s="39"/>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
-        <v>126</v>
+      <c r="A69" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="39"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
-        <v>128</v>
+      <c r="A70" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="D70" s="19"/>
+      <c r="E70" s="39"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
-        <v>130</v>
+      <c r="A71" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="D71" s="19"/>
+      <c r="E71" s="39"/>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19" t="s">
-        <v>132</v>
+      <c r="A72" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="D72" s="19"/>
+      <c r="E72" s="39"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="7" t="s">
-        <v>135</v>
-      </c>
+      <c r="A73" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="A74" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="38"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19" t="s">
-        <v>138</v>
+      <c r="A75" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="D75" s="19"/>
+      <c r="E75" s="39"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
-        <v>140</v>
+      <c r="A76" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="D76" s="19"/>
+      <c r="E76" s="39"/>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
-        <v>142</v>
+      <c r="A77" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="3" t="s">
-        <v>143</v>
-      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="39"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="19" t="s">
-        <v>144</v>
+      <c r="A78" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="D78" s="19"/>
+      <c r="E78" s="39"/>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19" t="s">
-        <v>146</v>
+      <c r="A79" s="15" t="s">
+        <v>75</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="D79" s="19"/>
+      <c r="E79" s="39"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
-        <v>148</v>
+      <c r="A80" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="39"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="7" t="s">
-        <v>151</v>
-      </c>
+      <c r="A81" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="40"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="A82" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="38"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="19" t="s">
-        <v>154</v>
+      <c r="A83" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="D83" s="19"/>
+      <c r="E83" s="39"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="19" t="s">
-        <v>156</v>
+      <c r="A84" s="15" t="s">
+        <v>80</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="3" t="s">
-        <v>157</v>
-      </c>
+      <c r="D84" s="19"/>
+      <c r="E84" s="39"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19" t="s">
-        <v>158</v>
+      <c r="A85" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="39"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="19" t="s">
-        <v>160</v>
+      <c r="A86" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="D86" s="19"/>
+      <c r="E86" s="39"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19" t="s">
-        <v>162</v>
+      <c r="A87" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="3" t="s">
-        <v>163</v>
-      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="39"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="19" t="s">
-        <v>164</v>
+      <c r="A88" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="39"/>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="7" t="s">
-        <v>167</v>
-      </c>
+      <c r="A89" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="40"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="5" t="s">
-        <v>169</v>
-      </c>
+      <c r="A90" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="38"/>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="19" t="s">
-        <v>170</v>
+      <c r="A91" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="D91" s="19"/>
+      <c r="E91" s="39"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="19" t="s">
-        <v>172</v>
+      <c r="A92" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="D92" s="19"/>
+      <c r="E92" s="39"/>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="19" t="s">
-        <v>174</v>
+      <c r="A93" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="3" t="s">
-        <v>175</v>
-      </c>
+      <c r="D93" s="19"/>
+      <c r="E93" s="39"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="19" t="s">
-        <v>176</v>
+      <c r="A94" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="D94" s="19"/>
+      <c r="E94" s="39"/>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="19" t="s">
-        <v>178</v>
+      <c r="A95" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="3" t="s">
-        <v>179</v>
-      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="39"/>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="19" t="s">
-        <v>180</v>
+      <c r="A96" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="D96" s="19"/>
+      <c r="E96" s="39"/>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="7" t="s">
-        <v>183</v>
-      </c>
+      <c r="A97" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="40"/>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="5" t="s">
-        <v>185</v>
-      </c>
+      <c r="A98" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="38"/>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="19" t="s">
-        <v>186</v>
+      <c r="A99" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="39"/>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="19" t="s">
-        <v>188</v>
+      <c r="A100" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="23"/>
-      <c r="E100" s="3" t="s">
-        <v>189</v>
-      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="39"/>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="19" t="s">
-        <v>190</v>
+      <c r="A101" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="23"/>
-      <c r="E101" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="D101" s="19"/>
+      <c r="E101" s="39"/>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="19" t="s">
-        <v>192</v>
+      <c r="A102" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="D102" s="19"/>
+      <c r="E102" s="39"/>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="19" t="s">
-        <v>194</v>
+      <c r="A103" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="3" t="s">
-        <v>195</v>
-      </c>
+      <c r="D103" s="19"/>
+      <c r="E103" s="39"/>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="19" t="s">
-        <v>196</v>
+      <c r="A104" s="15" t="s">
+        <v>100</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="23"/>
-      <c r="E104" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="D104" s="19"/>
+      <c r="E104" s="39"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="7" t="s">
-        <v>199</v>
-      </c>
+      <c r="A105" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="40"/>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
+      <c r="A106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
+      <c r="A107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
+      <c r="A108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:E3"/>
@@ -2687,49 +2508,33 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B10:E105">
-    <cfRule type="expression" dxfId="3" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>COUNTIF(B10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D105">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
       <formula>0</formula>
       <formula>Post_PCR_DNA_threshold_ngul</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThanOrEqual">
       <formula>Post_PCR_DNA_threshold_ngul</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
-    <dataValidation type="textLength" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="B10:B105" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
+  <dataValidations count="8">
+    <dataValidation type="textLength" errorStyle="information" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The sample ID appears to be too short." prompt="Enter the Extraction ID" sqref="B10:B105" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>3</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C6 F7:F8" xr:uid="{7F700A24-FACB-40FF-A73D-3494166CE29A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="C6 F7:F8" xr:uid="{9C75F18E-0FA2-45C4-8859-DF7209A58F83}"/>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C5" xr:uid="{B354E1CA-6CE2-4987-A357-7F5A6832D8D5}">
-      <formula1>LEN(C5)=3</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="C10" xr:uid="{4671ADE5-F535-4830-AEE1-5AAFCDEB7B14}">
-      <formula1>"Field,Positive,Negative"</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="warning" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The Extraction ID cannot be left blank." prompt="Enter the Extraction ID" sqref="C11:C105" xr:uid="{90263FD8-A258-4500-8E21-E385F84EA53B}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Number" error="Please enter a number (decimal or whole) for the post-PCR DNA concentration" sqref="D10:D105" xr:uid="{10D485B7-FF0F-4E67-AF1B-44C96547CAC9}">
       <formula1>0.0000000000000001</formula1>
       <formula2>9999999999</formula2>
@@ -2740,16 +2545,48 @@
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Number of initials" error="Please just enter the first and last name initials e.g. John Smith = JS" sqref="C3:E3" xr:uid="{6E22CD84-505D-440D-BC75-9483B6185E39}">
       <formula1>2</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C5:E5" xr:uid="{49447D3F-5D0C-48FC-AED3-44147C220519}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown Barcode" error="Barcode must be within the range of 1 to 96" sqref="E10:E105" xr:uid="{75260D73-B8AD-4061-93E2-00233DEB0C03}">
+      <formula1>1</formula1>
+      <formula2>96</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" operator="greaterThan" allowBlank="1" showErrorMessage="1" errorTitle="Sample Type not recognised" error="Please select a sample type from the dropdown" prompt="Enter the Extraction ID" xr:uid="{7C378280-2A34-4AED-90A6-70A77F7BE943}">
+          <x14:formula1>
+            <xm:f>options!$A$5:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>C10:C105</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7868CDB9-E504-4544-9644-4019292E193B}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -2769,16 +2606,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4519,15 +4356,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5817B840-46A1-4DBD-A947-D1215FFA570B}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4537,13 +4374,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="B1">
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="dUxG8sZFHxMw0NDzxsm+4RagZS4zB7XJW9ODqWY1r6qy6zd7Iuke/o94IqDpwwU1NdNkvme+sj732vKg/zGkSg==" saltValue="+pMpwnpw0cbJIb7UlDcFSg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3BF958-2118-44FE-A2A7-C593F394324C}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="241.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="36"/>
+    </row>
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="168.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
+++ b/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\src\nomadic\start\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D0D839-F76C-4A4E-8712-FCF79450F02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F101C0C-1770-4895-A4F6-CEE10C0C6F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23244" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="27276" windowHeight="15456" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="2" r:id="rId1"/>
     <sheet name="Gel" sheetId="8" r:id="rId2"/>
-    <sheet name="nomadic" sheetId="6" r:id="rId3"/>
+    <sheet name="nomadic" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="options" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Instructions" sheetId="9" r:id="rId5"/>
   </sheets>
@@ -639,7 +639,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -712,38 +712,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -766,8 +735,35 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -779,7 +775,213 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -821,46 +1023,6 @@
         </bottom>
       </border>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1215,14 +1377,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A9:E105" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A9:E105" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A9:E105" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="32"/>
+    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1233,13 +1395,13 @@
   <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="sample_id"/>
-    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="28">
       <calculatedColumnFormula>IF(LEN(Library!C10)=0,"",Library!C10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="7">
-      <calculatedColumnFormula>IF(ISBLANK(Library!B10),"",CONCATENATE("barcode",Library!E10))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="26">
+      <calculatedColumnFormula>IF(OR(ISBLANK(Library!E10),ISBLANK(Library!B10)),"",CONCATENATE("barcode",TEXT(Library!E10,"00")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="27">
       <calculatedColumnFormula>IF(LEN(Library!D10)=0,"",Library!D10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1427,15 +1589,15 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.296875" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" customWidth="1"/>
     <col min="2" max="2" width="30.3984375" customWidth="1"/>
     <col min="3" max="3" width="24.3984375" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
@@ -1443,92 +1605,92 @@
     <col min="6" max="6" width="11.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
       <c r="F3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29" t="str">
+      <c r="B7" s="33"/>
+      <c r="C7" s="36" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,TEXT(C5,"000"),"_",C4,"_Batch",C6))</f>
         <v/>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
       <c r="F7" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1544,793 +1706,1311 @@
       <c r="E9" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="38"/>
-    </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="39"/>
-      <c r="F11"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="30">
+        <v>2</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="19"/>
-      <c r="E12" s="39"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="30">
+        <v>3</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="19"/>
-      <c r="E13" s="39"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="30">
+        <v>4</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="19"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="30">
+        <v>5</v>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="30">
+        <v>6</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="19"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E16" s="30">
+        <v>7</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
       <c r="D17" s="20"/>
-      <c r="E17" s="40"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E17" s="31">
+        <v>8</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="29">
+        <v>9</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="19"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="30">
+        <v>10</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="19"/>
-      <c r="E20" s="39"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="30">
+        <v>11</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="19"/>
-      <c r="E21" s="39"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="30">
+        <v>12</v>
+      </c>
+      <c r="F21" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="19"/>
-      <c r="E22" s="39"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="30">
+        <v>13</v>
+      </c>
+      <c r="F22" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="19"/>
-      <c r="E23" s="39"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="30">
+        <v>14</v>
+      </c>
+      <c r="F23" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="19"/>
-      <c r="E24" s="39"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="30">
+        <v>15</v>
+      </c>
+      <c r="F24" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="21"/>
-      <c r="E25" s="41"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="31">
+        <v>16</v>
+      </c>
+      <c r="F25" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="29">
+        <v>17</v>
+      </c>
+      <c r="F26" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="19"/>
-      <c r="E27" s="39"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E27" s="30">
+        <v>18</v>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="19"/>
-      <c r="E28" s="39"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="30">
+        <v>19</v>
+      </c>
+      <c r="F28" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="39"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="30">
+        <v>20</v>
+      </c>
+      <c r="F29" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="39"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E30" s="30">
+        <v>21</v>
+      </c>
+      <c r="F30" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="39"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E31" s="30">
+        <v>22</v>
+      </c>
+      <c r="F31" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="39"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="30">
+        <v>23</v>
+      </c>
+      <c r="F32" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="20"/>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="31">
+        <v>24</v>
+      </c>
+      <c r="F33" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="18"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="29">
+        <v>25</v>
+      </c>
+      <c r="F34" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="39"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E35" s="30">
+        <v>26</v>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="39"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="30">
+        <v>27</v>
+      </c>
+      <c r="F36" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="19"/>
-      <c r="E37" s="39"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E37" s="30">
+        <v>28</v>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="19"/>
-      <c r="E38" s="39"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="30">
+        <v>29</v>
+      </c>
+      <c r="F38" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="19"/>
-      <c r="E39" s="39"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E39" s="30">
+        <v>30</v>
+      </c>
+      <c r="F39" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="39"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E40" s="30">
+        <v>31</v>
+      </c>
+      <c r="F40" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="40"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="31">
+        <v>32</v>
+      </c>
+      <c r="F41" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="38"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E42" s="29">
+        <v>33</v>
+      </c>
+      <c r="F42" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="39"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E43" s="30">
+        <v>34</v>
+      </c>
+      <c r="F43" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="19"/>
-      <c r="E44" s="39"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="30">
+        <v>35</v>
+      </c>
+      <c r="F44" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="19"/>
-      <c r="E45" s="39"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="30">
+        <v>36</v>
+      </c>
+      <c r="F45" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="19"/>
-      <c r="E46" s="39"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="30">
+        <v>37</v>
+      </c>
+      <c r="F46" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="19"/>
-      <c r="E47" s="39"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="30">
+        <v>38</v>
+      </c>
+      <c r="F47" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="19"/>
-      <c r="E48" s="39"/>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E48" s="30">
+        <v>39</v>
+      </c>
+      <c r="F48" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="20"/>
-      <c r="E49" s="40"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="31">
+        <v>40</v>
+      </c>
+      <c r="F49" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>46</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="38"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="29">
+        <v>41</v>
+      </c>
+      <c r="F50" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="19"/>
-      <c r="E51" s="39"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="30">
+        <v>42</v>
+      </c>
+      <c r="F51" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="39"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="30">
+        <v>43</v>
+      </c>
+      <c r="F52" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="19"/>
-      <c r="E53" s="39"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="30">
+        <v>44</v>
+      </c>
+      <c r="F53" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="19"/>
-      <c r="E54" s="39"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="30">
+        <v>45</v>
+      </c>
+      <c r="F54" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="19"/>
-      <c r="E55" s="39"/>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="30">
+        <v>46</v>
+      </c>
+      <c r="F55" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="19"/>
-      <c r="E56" s="39"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E56" s="30">
+        <v>47</v>
+      </c>
+      <c r="F56" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="20"/>
-      <c r="E57" s="40"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="31">
+        <v>48</v>
+      </c>
+      <c r="F57" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="18"/>
-      <c r="E58" s="38"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="29">
+        <v>49</v>
+      </c>
+      <c r="F58" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="19"/>
-      <c r="E59" s="39"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E59" s="30">
+        <v>50</v>
+      </c>
+      <c r="F59" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="19"/>
-      <c r="E60" s="39"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E60" s="30">
+        <v>51</v>
+      </c>
+      <c r="F60" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="19"/>
-      <c r="E61" s="39"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E61" s="30">
+        <v>52</v>
+      </c>
+      <c r="F61" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="19"/>
-      <c r="E62" s="39"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E62" s="30">
+        <v>53</v>
+      </c>
+      <c r="F62" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="19"/>
-      <c r="E63" s="39"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="30">
+        <v>54</v>
+      </c>
+      <c r="F63" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="39"/>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E64" s="30">
+        <v>55</v>
+      </c>
+      <c r="F64" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="20"/>
-      <c r="E65" s="40"/>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="31">
+        <v>56</v>
+      </c>
+      <c r="F65" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="18"/>
-      <c r="E66" s="38"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E66" s="29">
+        <v>57</v>
+      </c>
+      <c r="F66" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="19"/>
-      <c r="E67" s="39"/>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E67" s="30">
+        <v>58</v>
+      </c>
+      <c r="F67" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="19"/>
-      <c r="E68" s="39"/>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="30">
+        <v>59</v>
+      </c>
+      <c r="F68" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="19"/>
-      <c r="E69" s="39"/>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E69" s="30">
+        <v>60</v>
+      </c>
+      <c r="F69" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="19"/>
-      <c r="E70" s="39"/>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E70" s="30">
+        <v>61</v>
+      </c>
+      <c r="F70" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="19"/>
-      <c r="E71" s="39"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E71" s="30">
+        <v>62</v>
+      </c>
+      <c r="F71" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="19"/>
-      <c r="E72" s="39"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E72" s="30">
+        <v>63</v>
+      </c>
+      <c r="F72" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="16" t="s">
         <v>69</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="20"/>
-      <c r="E73" s="40"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="31">
+        <v>64</v>
+      </c>
+      <c r="F73" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="38"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E74" s="29">
+        <v>65</v>
+      </c>
+      <c r="F74" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="19"/>
-      <c r="E75" s="39"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E75" s="30">
+        <v>66</v>
+      </c>
+      <c r="F75" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="19"/>
-      <c r="E76" s="39"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E76" s="30">
+        <v>67</v>
+      </c>
+      <c r="F76" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="19"/>
-      <c r="E77" s="39"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E77" s="30">
+        <v>68</v>
+      </c>
+      <c r="F77" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="19"/>
-      <c r="E78" s="39"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E78" s="30">
+        <v>69</v>
+      </c>
+      <c r="F78" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="19"/>
-      <c r="E79" s="39"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="30">
+        <v>70</v>
+      </c>
+      <c r="F79" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="19"/>
-      <c r="E80" s="39"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E80" s="30">
+        <v>71</v>
+      </c>
+      <c r="F80" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="20"/>
-      <c r="E81" s="40"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E81" s="31">
+        <v>72</v>
+      </c>
+      <c r="F81" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="18"/>
-      <c r="E82" s="38"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E82" s="29">
+        <v>73</v>
+      </c>
+      <c r="F82" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="19"/>
-      <c r="E83" s="39"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E83" s="30">
+        <v>74</v>
+      </c>
+      <c r="F83" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="19"/>
-      <c r="E84" s="39"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E84" s="30">
+        <v>75</v>
+      </c>
+      <c r="F84" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="19"/>
-      <c r="E85" s="39"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="30">
+        <v>76</v>
+      </c>
+      <c r="F85" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="19"/>
-      <c r="E86" s="39"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="30">
+        <v>77</v>
+      </c>
+      <c r="F86" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="19"/>
-      <c r="E87" s="39"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="30">
+        <v>78</v>
+      </c>
+      <c r="F87" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="19"/>
-      <c r="E88" s="39"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E88" s="30">
+        <v>79</v>
+      </c>
+      <c r="F88" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="20"/>
-      <c r="E89" s="40"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="31">
+        <v>80</v>
+      </c>
+      <c r="F89" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>86</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="38"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="29">
+        <v>81</v>
+      </c>
+      <c r="F90" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="19"/>
-      <c r="E91" s="39"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="30">
+        <v>82</v>
+      </c>
+      <c r="F91" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="19"/>
-      <c r="E92" s="39"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E92" s="30">
+        <v>83</v>
+      </c>
+      <c r="F92" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="19"/>
-      <c r="E93" s="39"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E93" s="30">
+        <v>84</v>
+      </c>
+      <c r="F93" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="19"/>
-      <c r="E94" s="39"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E94" s="30">
+        <v>85</v>
+      </c>
+      <c r="F94" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="19"/>
-      <c r="E95" s="39"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E95" s="30">
+        <v>86</v>
+      </c>
+      <c r="F95" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="19"/>
-      <c r="E96" s="39"/>
+      <c r="E96" s="30">
+        <v>87</v>
+      </c>
+      <c r="F96" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="16" t="s">
@@ -2339,7 +3019,13 @@
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="20"/>
-      <c r="E97" s="40"/>
+      <c r="E97" s="31">
+        <v>88</v>
+      </c>
+      <c r="F97" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
@@ -2348,7 +3034,13 @@
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
       <c r="D98" s="18"/>
-      <c r="E98" s="38"/>
+      <c r="E98" s="29">
+        <v>89</v>
+      </c>
+      <c r="F98" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
@@ -2357,7 +3049,13 @@
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="19"/>
-      <c r="E99" s="39"/>
+      <c r="E99" s="30">
+        <v>90</v>
+      </c>
+      <c r="F99" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
@@ -2366,7 +3064,13 @@
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="19"/>
-      <c r="E100" s="39"/>
+      <c r="E100" s="30">
+        <v>91</v>
+      </c>
+      <c r="F100" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
@@ -2375,7 +3079,13 @@
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="19"/>
-      <c r="E101" s="39"/>
+      <c r="E101" s="30">
+        <v>92</v>
+      </c>
+      <c r="F101" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
@@ -2384,7 +3094,13 @@
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="19"/>
-      <c r="E102" s="39"/>
+      <c r="E102" s="30">
+        <v>93</v>
+      </c>
+      <c r="F102" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
@@ -2393,7 +3109,13 @@
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="19"/>
-      <c r="E103" s="39"/>
+      <c r="E103" s="30">
+        <v>94</v>
+      </c>
+      <c r="F103" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
     </row>
     <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
@@ -2402,7 +3124,13 @@
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="19"/>
-      <c r="E104" s="39"/>
+      <c r="E104" s="30">
+        <v>95</v>
+      </c>
+      <c r="F104" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
     </row>
     <row r="105" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="16" t="s">
@@ -2411,7 +3139,13 @@
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="20"/>
-      <c r="E105" s="40"/>
+      <c r="E105" s="31">
+        <v>96</v>
+      </c>
+      <c r="F105" t="str">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
+        <v/>
+      </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
@@ -2495,12 +3229,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:E3"/>
@@ -2508,25 +3236,39 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B10:E105">
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>COUNTIF(B10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D105">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="between">
       <formula>0</formula>
       <formula>Post_PCR_DNA_threshold_ngul</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThanOrEqual">
       <formula>Post_PCR_DNA_threshold_ngul</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E105">
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F105">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Duplicate">
+      <formula>NOT(ISERROR(SEARCH("Duplicate",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
@@ -2594,7 +3336,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2628,7 +3370,7 @@
         <v/>
       </c>
       <c r="C2" t="str">
-        <f>IF(ISBLANK(Library!B10),"",CONCATENATE("barcode",Library!E10))</f>
+        <f>IF(OR(ISBLANK(Library!E10),ISBLANK(Library!B10)),"",CONCATENATE("barcode",TEXT(Library!E10,"00")))</f>
         <v/>
       </c>
       <c r="D2" t="str">
@@ -2646,7 +3388,7 @@
         <v/>
       </c>
       <c r="C3" t="str">
-        <f>IF(ISBLANK(Library!B11),"",CONCATENATE("barcode",Library!E11))</f>
+        <f>IF(OR(ISBLANK(Library!E11),ISBLANK(Library!B11)),"",CONCATENATE("barcode",TEXT(Library!E11,"00")))</f>
         <v/>
       </c>
       <c r="D3" t="str">
@@ -2664,7 +3406,7 @@
         <v/>
       </c>
       <c r="C4" t="str">
-        <f>IF(ISBLANK(Library!B12),"",CONCATENATE("barcode",Library!E12))</f>
+        <f>IF(OR(ISBLANK(Library!E12),ISBLANK(Library!B12)),"",CONCATENATE("barcode",TEXT(Library!E12,"00")))</f>
         <v/>
       </c>
       <c r="D4" t="str">
@@ -2682,7 +3424,7 @@
         <v/>
       </c>
       <c r="C5" t="str">
-        <f>IF(ISBLANK(Library!B13),"",CONCATENATE("barcode",Library!E13))</f>
+        <f>IF(OR(ISBLANK(Library!E13),ISBLANK(Library!B13)),"",CONCATENATE("barcode",TEXT(Library!E13,"00")))</f>
         <v/>
       </c>
       <c r="D5" t="str">
@@ -2700,7 +3442,7 @@
         <v/>
       </c>
       <c r="C6" t="str">
-        <f>IF(ISBLANK(Library!B14),"",CONCATENATE("barcode",Library!E14))</f>
+        <f>IF(OR(ISBLANK(Library!E14),ISBLANK(Library!B14)),"",CONCATENATE("barcode",TEXT(Library!E14,"00")))</f>
         <v/>
       </c>
       <c r="D6" t="str">
@@ -2718,7 +3460,7 @@
         <v/>
       </c>
       <c r="C7" t="str">
-        <f>IF(ISBLANK(Library!B15),"",CONCATENATE("barcode",Library!E15))</f>
+        <f>IF(OR(ISBLANK(Library!E15),ISBLANK(Library!B15)),"",CONCATENATE("barcode",TEXT(Library!E15,"00")))</f>
         <v/>
       </c>
       <c r="D7" t="str">
@@ -2736,7 +3478,7 @@
         <v/>
       </c>
       <c r="C8" t="str">
-        <f>IF(ISBLANK(Library!B16),"",CONCATENATE("barcode",Library!E16))</f>
+        <f>IF(OR(ISBLANK(Library!E16),ISBLANK(Library!B16)),"",CONCATENATE("barcode",TEXT(Library!E16,"00")))</f>
         <v/>
       </c>
       <c r="D8" t="str">
@@ -2754,7 +3496,7 @@
         <v/>
       </c>
       <c r="C9" t="str">
-        <f>IF(ISBLANK(Library!B17),"",CONCATENATE("barcode",Library!E17))</f>
+        <f>IF(OR(ISBLANK(Library!E17),ISBLANK(Library!B17)),"",CONCATENATE("barcode",TEXT(Library!E17,"00")))</f>
         <v/>
       </c>
       <c r="D9" t="str">
@@ -2772,7 +3514,7 @@
         <v/>
       </c>
       <c r="C10" t="str">
-        <f>IF(ISBLANK(Library!B18),"",CONCATENATE("barcode",Library!E18))</f>
+        <f>IF(OR(ISBLANK(Library!E18),ISBLANK(Library!B18)),"",CONCATENATE("barcode",TEXT(Library!E18,"00")))</f>
         <v/>
       </c>
       <c r="D10" t="str">
@@ -2790,7 +3532,7 @@
         <v/>
       </c>
       <c r="C11" t="str">
-        <f>IF(ISBLANK(Library!B19),"",CONCATENATE("barcode",Library!E19))</f>
+        <f>IF(OR(ISBLANK(Library!E19),ISBLANK(Library!B19)),"",CONCATENATE("barcode",TEXT(Library!E19,"00")))</f>
         <v/>
       </c>
       <c r="D11" t="str">
@@ -2808,7 +3550,7 @@
         <v/>
       </c>
       <c r="C12" t="str">
-        <f>IF(ISBLANK(Library!B20),"",CONCATENATE("barcode",Library!E20))</f>
+        <f>IF(OR(ISBLANK(Library!E20),ISBLANK(Library!B20)),"",CONCATENATE("barcode",TEXT(Library!E20,"00")))</f>
         <v/>
       </c>
       <c r="D12" t="str">
@@ -2826,7 +3568,7 @@
         <v/>
       </c>
       <c r="C13" t="str">
-        <f>IF(ISBLANK(Library!B21),"",CONCATENATE("barcode",Library!E21))</f>
+        <f>IF(OR(ISBLANK(Library!E21),ISBLANK(Library!B21)),"",CONCATENATE("barcode",TEXT(Library!E21,"00")))</f>
         <v/>
       </c>
       <c r="D13" t="str">
@@ -2844,7 +3586,7 @@
         <v/>
       </c>
       <c r="C14" t="str">
-        <f>IF(ISBLANK(Library!B22),"",CONCATENATE("barcode",Library!E22))</f>
+        <f>IF(OR(ISBLANK(Library!E22),ISBLANK(Library!B22)),"",CONCATENATE("barcode",TEXT(Library!E22,"00")))</f>
         <v/>
       </c>
       <c r="D14" t="str">
@@ -2862,7 +3604,7 @@
         <v/>
       </c>
       <c r="C15" t="str">
-        <f>IF(ISBLANK(Library!B23),"",CONCATENATE("barcode",Library!E23))</f>
+        <f>IF(OR(ISBLANK(Library!E23),ISBLANK(Library!B23)),"",CONCATENATE("barcode",TEXT(Library!E23,"00")))</f>
         <v/>
       </c>
       <c r="D15" t="str">
@@ -2880,7 +3622,7 @@
         <v/>
       </c>
       <c r="C16" t="str">
-        <f>IF(ISBLANK(Library!B24),"",CONCATENATE("barcode",Library!E24))</f>
+        <f>IF(OR(ISBLANK(Library!E24),ISBLANK(Library!B24)),"",CONCATENATE("barcode",TEXT(Library!E24,"00")))</f>
         <v/>
       </c>
       <c r="D16" t="str">
@@ -2898,7 +3640,7 @@
         <v/>
       </c>
       <c r="C17" t="str">
-        <f>IF(ISBLANK(Library!B25),"",CONCATENATE("barcode",Library!E25))</f>
+        <f>IF(OR(ISBLANK(Library!E25),ISBLANK(Library!B25)),"",CONCATENATE("barcode",TEXT(Library!E25,"00")))</f>
         <v/>
       </c>
       <c r="D17" t="str">
@@ -2916,7 +3658,7 @@
         <v/>
       </c>
       <c r="C18" t="str">
-        <f>IF(ISBLANK(Library!B26),"",CONCATENATE("barcode",Library!E26))</f>
+        <f>IF(OR(ISBLANK(Library!E26),ISBLANK(Library!B26)),"",CONCATENATE("barcode",TEXT(Library!E26,"00")))</f>
         <v/>
       </c>
       <c r="D18" t="str">
@@ -2934,7 +3676,7 @@
         <v/>
       </c>
       <c r="C19" t="str">
-        <f>IF(ISBLANK(Library!B27),"",CONCATENATE("barcode",Library!E27))</f>
+        <f>IF(OR(ISBLANK(Library!E27),ISBLANK(Library!B27)),"",CONCATENATE("barcode",TEXT(Library!E27,"00")))</f>
         <v/>
       </c>
       <c r="D19" t="str">
@@ -2952,7 +3694,7 @@
         <v/>
       </c>
       <c r="C20" t="str">
-        <f>IF(ISBLANK(Library!B28),"",CONCATENATE("barcode",Library!E28))</f>
+        <f>IF(OR(ISBLANK(Library!E28),ISBLANK(Library!B28)),"",CONCATENATE("barcode",TEXT(Library!E28,"00")))</f>
         <v/>
       </c>
       <c r="D20" t="str">
@@ -2970,7 +3712,7 @@
         <v/>
       </c>
       <c r="C21" t="str">
-        <f>IF(ISBLANK(Library!B29),"",CONCATENATE("barcode",Library!E29))</f>
+        <f>IF(OR(ISBLANK(Library!E29),ISBLANK(Library!B29)),"",CONCATENATE("barcode",TEXT(Library!E29,"00")))</f>
         <v/>
       </c>
       <c r="D21" t="str">
@@ -2988,7 +3730,7 @@
         <v/>
       </c>
       <c r="C22" t="str">
-        <f>IF(ISBLANK(Library!B30),"",CONCATENATE("barcode",Library!E30))</f>
+        <f>IF(OR(ISBLANK(Library!E30),ISBLANK(Library!B30)),"",CONCATENATE("barcode",TEXT(Library!E30,"00")))</f>
         <v/>
       </c>
       <c r="D22" t="str">
@@ -3006,7 +3748,7 @@
         <v/>
       </c>
       <c r="C23" t="str">
-        <f>IF(ISBLANK(Library!B31),"",CONCATENATE("barcode",Library!E31))</f>
+        <f>IF(OR(ISBLANK(Library!E31),ISBLANK(Library!B31)),"",CONCATENATE("barcode",TEXT(Library!E31,"00")))</f>
         <v/>
       </c>
       <c r="D23" t="str">
@@ -3024,7 +3766,7 @@
         <v/>
       </c>
       <c r="C24" t="str">
-        <f>IF(ISBLANK(Library!B32),"",CONCATENATE("barcode",Library!E32))</f>
+        <f>IF(OR(ISBLANK(Library!E32),ISBLANK(Library!B32)),"",CONCATENATE("barcode",TEXT(Library!E32,"00")))</f>
         <v/>
       </c>
       <c r="D24" t="str">
@@ -3042,7 +3784,7 @@
         <v/>
       </c>
       <c r="C25" t="str">
-        <f>IF(ISBLANK(Library!B33),"",CONCATENATE("barcode",Library!E33))</f>
+        <f>IF(OR(ISBLANK(Library!E33),ISBLANK(Library!B33)),"",CONCATENATE("barcode",TEXT(Library!E33,"00")))</f>
         <v/>
       </c>
       <c r="D25" t="str">
@@ -3060,7 +3802,7 @@
         <v/>
       </c>
       <c r="C26" t="str">
-        <f>IF(ISBLANK(Library!B34),"",CONCATENATE("barcode",Library!E34))</f>
+        <f>IF(OR(ISBLANK(Library!E34),ISBLANK(Library!B34)),"",CONCATENATE("barcode",TEXT(Library!E34,"00")))</f>
         <v/>
       </c>
       <c r="D26" t="str">
@@ -3078,7 +3820,7 @@
         <v/>
       </c>
       <c r="C27" t="str">
-        <f>IF(ISBLANK(Library!B35),"",CONCATENATE("barcode",Library!E35))</f>
+        <f>IF(OR(ISBLANK(Library!E35),ISBLANK(Library!B35)),"",CONCATENATE("barcode",TEXT(Library!E35,"00")))</f>
         <v/>
       </c>
       <c r="D27" t="str">
@@ -3096,7 +3838,7 @@
         <v/>
       </c>
       <c r="C28" t="str">
-        <f>IF(ISBLANK(Library!B36),"",CONCATENATE("barcode",Library!E36))</f>
+        <f>IF(OR(ISBLANK(Library!E36),ISBLANK(Library!B36)),"",CONCATENATE("barcode",TEXT(Library!E36,"00")))</f>
         <v/>
       </c>
       <c r="D28" t="str">
@@ -3114,7 +3856,7 @@
         <v/>
       </c>
       <c r="C29" t="str">
-        <f>IF(ISBLANK(Library!B37),"",CONCATENATE("barcode",Library!E37))</f>
+        <f>IF(OR(ISBLANK(Library!E37),ISBLANK(Library!B37)),"",CONCATENATE("barcode",TEXT(Library!E37,"00")))</f>
         <v/>
       </c>
       <c r="D29" t="str">
@@ -3132,7 +3874,7 @@
         <v/>
       </c>
       <c r="C30" t="str">
-        <f>IF(ISBLANK(Library!B38),"",CONCATENATE("barcode",Library!E38))</f>
+        <f>IF(OR(ISBLANK(Library!E38),ISBLANK(Library!B38)),"",CONCATENATE("barcode",TEXT(Library!E38,"00")))</f>
         <v/>
       </c>
       <c r="D30" t="str">
@@ -3150,7 +3892,7 @@
         <v/>
       </c>
       <c r="C31" t="str">
-        <f>IF(ISBLANK(Library!B39),"",CONCATENATE("barcode",Library!E39))</f>
+        <f>IF(OR(ISBLANK(Library!E39),ISBLANK(Library!B39)),"",CONCATENATE("barcode",TEXT(Library!E39,"00")))</f>
         <v/>
       </c>
       <c r="D31" t="str">
@@ -3168,7 +3910,7 @@
         <v/>
       </c>
       <c r="C32" t="str">
-        <f>IF(ISBLANK(Library!B40),"",CONCATENATE("barcode",Library!E40))</f>
+        <f>IF(OR(ISBLANK(Library!E40),ISBLANK(Library!B40)),"",CONCATENATE("barcode",TEXT(Library!E40,"00")))</f>
         <v/>
       </c>
       <c r="D32" t="str">
@@ -3186,7 +3928,7 @@
         <v/>
       </c>
       <c r="C33" t="str">
-        <f>IF(ISBLANK(Library!B41),"",CONCATENATE("barcode",Library!E41))</f>
+        <f>IF(OR(ISBLANK(Library!E41),ISBLANK(Library!B41)),"",CONCATENATE("barcode",TEXT(Library!E41,"00")))</f>
         <v/>
       </c>
       <c r="D33" t="str">
@@ -3204,7 +3946,7 @@
         <v/>
       </c>
       <c r="C34" t="str">
-        <f>IF(ISBLANK(Library!B42),"",CONCATENATE("barcode",Library!E42))</f>
+        <f>IF(OR(ISBLANK(Library!E42),ISBLANK(Library!B42)),"",CONCATENATE("barcode",TEXT(Library!E42,"00")))</f>
         <v/>
       </c>
       <c r="D34" t="str">
@@ -3222,7 +3964,7 @@
         <v/>
       </c>
       <c r="C35" t="str">
-        <f>IF(ISBLANK(Library!B43),"",CONCATENATE("barcode",Library!E43))</f>
+        <f>IF(OR(ISBLANK(Library!E43),ISBLANK(Library!B43)),"",CONCATENATE("barcode",TEXT(Library!E43,"00")))</f>
         <v/>
       </c>
       <c r="D35" t="str">
@@ -3240,7 +3982,7 @@
         <v/>
       </c>
       <c r="C36" t="str">
-        <f>IF(ISBLANK(Library!B44),"",CONCATENATE("barcode",Library!E44))</f>
+        <f>IF(OR(ISBLANK(Library!E44),ISBLANK(Library!B44)),"",CONCATENATE("barcode",TEXT(Library!E44,"00")))</f>
         <v/>
       </c>
       <c r="D36" t="str">
@@ -3258,7 +4000,7 @@
         <v/>
       </c>
       <c r="C37" t="str">
-        <f>IF(ISBLANK(Library!B45),"",CONCATENATE("barcode",Library!E45))</f>
+        <f>IF(OR(ISBLANK(Library!E45),ISBLANK(Library!B45)),"",CONCATENATE("barcode",TEXT(Library!E45,"00")))</f>
         <v/>
       </c>
       <c r="D37" t="str">
@@ -3276,7 +4018,7 @@
         <v/>
       </c>
       <c r="C38" t="str">
-        <f>IF(ISBLANK(Library!B46),"",CONCATENATE("barcode",Library!E46))</f>
+        <f>IF(OR(ISBLANK(Library!E46),ISBLANK(Library!B46)),"",CONCATENATE("barcode",TEXT(Library!E46,"00")))</f>
         <v/>
       </c>
       <c r="D38" t="str">
@@ -3294,7 +4036,7 @@
         <v/>
       </c>
       <c r="C39" t="str">
-        <f>IF(ISBLANK(Library!B47),"",CONCATENATE("barcode",Library!E47))</f>
+        <f>IF(OR(ISBLANK(Library!E47),ISBLANK(Library!B47)),"",CONCATENATE("barcode",TEXT(Library!E47,"00")))</f>
         <v/>
       </c>
       <c r="D39" t="str">
@@ -3312,7 +4054,7 @@
         <v/>
       </c>
       <c r="C40" t="str">
-        <f>IF(ISBLANK(Library!B48),"",CONCATENATE("barcode",Library!E48))</f>
+        <f>IF(OR(ISBLANK(Library!E48),ISBLANK(Library!B48)),"",CONCATENATE("barcode",TEXT(Library!E48,"00")))</f>
         <v/>
       </c>
       <c r="D40" t="str">
@@ -3330,7 +4072,7 @@
         <v/>
       </c>
       <c r="C41" t="str">
-        <f>IF(ISBLANK(Library!B49),"",CONCATENATE("barcode",Library!E49))</f>
+        <f>IF(OR(ISBLANK(Library!E49),ISBLANK(Library!B49)),"",CONCATENATE("barcode",TEXT(Library!E49,"00")))</f>
         <v/>
       </c>
       <c r="D41" t="str">
@@ -3348,7 +4090,7 @@
         <v/>
       </c>
       <c r="C42" t="str">
-        <f>IF(ISBLANK(Library!B50),"",CONCATENATE("barcode",Library!E50))</f>
+        <f>IF(OR(ISBLANK(Library!E50),ISBLANK(Library!B50)),"",CONCATENATE("barcode",TEXT(Library!E50,"00")))</f>
         <v/>
       </c>
       <c r="D42" t="str">
@@ -3366,7 +4108,7 @@
         <v/>
       </c>
       <c r="C43" t="str">
-        <f>IF(ISBLANK(Library!B51),"",CONCATENATE("barcode",Library!E51))</f>
+        <f>IF(OR(ISBLANK(Library!E51),ISBLANK(Library!B51)),"",CONCATENATE("barcode",TEXT(Library!E51,"00")))</f>
         <v/>
       </c>
       <c r="D43" t="str">
@@ -3384,7 +4126,7 @@
         <v/>
       </c>
       <c r="C44" t="str">
-        <f>IF(ISBLANK(Library!B52),"",CONCATENATE("barcode",Library!E52))</f>
+        <f>IF(OR(ISBLANK(Library!E52),ISBLANK(Library!B52)),"",CONCATENATE("barcode",TEXT(Library!E52,"00")))</f>
         <v/>
       </c>
       <c r="D44" t="str">
@@ -3402,7 +4144,7 @@
         <v/>
       </c>
       <c r="C45" t="str">
-        <f>IF(ISBLANK(Library!B53),"",CONCATENATE("barcode",Library!E53))</f>
+        <f>IF(OR(ISBLANK(Library!E53),ISBLANK(Library!B53)),"",CONCATENATE("barcode",TEXT(Library!E53,"00")))</f>
         <v/>
       </c>
       <c r="D45" t="str">
@@ -3420,7 +4162,7 @@
         <v/>
       </c>
       <c r="C46" t="str">
-        <f>IF(ISBLANK(Library!B54),"",CONCATENATE("barcode",Library!E54))</f>
+        <f>IF(OR(ISBLANK(Library!E54),ISBLANK(Library!B54)),"",CONCATENATE("barcode",TEXT(Library!E54,"00")))</f>
         <v/>
       </c>
       <c r="D46" t="str">
@@ -3438,7 +4180,7 @@
         <v/>
       </c>
       <c r="C47" t="str">
-        <f>IF(ISBLANK(Library!B55),"",CONCATENATE("barcode",Library!E55))</f>
+        <f>IF(OR(ISBLANK(Library!E55),ISBLANK(Library!B55)),"",CONCATENATE("barcode",TEXT(Library!E55,"00")))</f>
         <v/>
       </c>
       <c r="D47" t="str">
@@ -3456,7 +4198,7 @@
         <v/>
       </c>
       <c r="C48" t="str">
-        <f>IF(ISBLANK(Library!B56),"",CONCATENATE("barcode",Library!E56))</f>
+        <f>IF(OR(ISBLANK(Library!E56),ISBLANK(Library!B56)),"",CONCATENATE("barcode",TEXT(Library!E56,"00")))</f>
         <v/>
       </c>
       <c r="D48" t="str">
@@ -3474,7 +4216,7 @@
         <v/>
       </c>
       <c r="C49" t="str">
-        <f>IF(ISBLANK(Library!B57),"",CONCATENATE("barcode",Library!E57))</f>
+        <f>IF(OR(ISBLANK(Library!E57),ISBLANK(Library!B57)),"",CONCATENATE("barcode",TEXT(Library!E57,"00")))</f>
         <v/>
       </c>
       <c r="D49" t="str">
@@ -3492,7 +4234,7 @@
         <v/>
       </c>
       <c r="C50" t="str">
-        <f>IF(ISBLANK(Library!B58),"",CONCATENATE("barcode",Library!E58))</f>
+        <f>IF(OR(ISBLANK(Library!E58),ISBLANK(Library!B58)),"",CONCATENATE("barcode",TEXT(Library!E58,"00")))</f>
         <v/>
       </c>
       <c r="D50" t="str">
@@ -3510,7 +4252,7 @@
         <v/>
       </c>
       <c r="C51" t="str">
-        <f>IF(ISBLANK(Library!B59),"",CONCATENATE("barcode",Library!E59))</f>
+        <f>IF(OR(ISBLANK(Library!E59),ISBLANK(Library!B59)),"",CONCATENATE("barcode",TEXT(Library!E59,"00")))</f>
         <v/>
       </c>
       <c r="D51" t="str">
@@ -3528,7 +4270,7 @@
         <v/>
       </c>
       <c r="C52" t="str">
-        <f>IF(ISBLANK(Library!B60),"",CONCATENATE("barcode",Library!E60))</f>
+        <f>IF(OR(ISBLANK(Library!E60),ISBLANK(Library!B60)),"",CONCATENATE("barcode",TEXT(Library!E60,"00")))</f>
         <v/>
       </c>
       <c r="D52" t="str">
@@ -3546,7 +4288,7 @@
         <v/>
       </c>
       <c r="C53" t="str">
-        <f>IF(ISBLANK(Library!B61),"",CONCATENATE("barcode",Library!E61))</f>
+        <f>IF(OR(ISBLANK(Library!E61),ISBLANK(Library!B61)),"",CONCATENATE("barcode",TEXT(Library!E61,"00")))</f>
         <v/>
       </c>
       <c r="D53" t="str">
@@ -3564,7 +4306,7 @@
         <v/>
       </c>
       <c r="C54" t="str">
-        <f>IF(ISBLANK(Library!B62),"",CONCATENATE("barcode",Library!E62))</f>
+        <f>IF(OR(ISBLANK(Library!E62),ISBLANK(Library!B62)),"",CONCATENATE("barcode",TEXT(Library!E62,"00")))</f>
         <v/>
       </c>
       <c r="D54" t="str">
@@ -3582,7 +4324,7 @@
         <v/>
       </c>
       <c r="C55" t="str">
-        <f>IF(ISBLANK(Library!B63),"",CONCATENATE("barcode",Library!E63))</f>
+        <f>IF(OR(ISBLANK(Library!E63),ISBLANK(Library!B63)),"",CONCATENATE("barcode",TEXT(Library!E63,"00")))</f>
         <v/>
       </c>
       <c r="D55" t="str">
@@ -3600,7 +4342,7 @@
         <v/>
       </c>
       <c r="C56" t="str">
-        <f>IF(ISBLANK(Library!B64),"",CONCATENATE("barcode",Library!E64))</f>
+        <f>IF(OR(ISBLANK(Library!E64),ISBLANK(Library!B64)),"",CONCATENATE("barcode",TEXT(Library!E64,"00")))</f>
         <v/>
       </c>
       <c r="D56" t="str">
@@ -3618,7 +4360,7 @@
         <v/>
       </c>
       <c r="C57" t="str">
-        <f>IF(ISBLANK(Library!B65),"",CONCATENATE("barcode",Library!E65))</f>
+        <f>IF(OR(ISBLANK(Library!E65),ISBLANK(Library!B65)),"",CONCATENATE("barcode",TEXT(Library!E65,"00")))</f>
         <v/>
       </c>
       <c r="D57" t="str">
@@ -3636,7 +4378,7 @@
         <v/>
       </c>
       <c r="C58" t="str">
-        <f>IF(ISBLANK(Library!B66),"",CONCATENATE("barcode",Library!E66))</f>
+        <f>IF(OR(ISBLANK(Library!E66),ISBLANK(Library!B66)),"",CONCATENATE("barcode",TEXT(Library!E66,"00")))</f>
         <v/>
       </c>
       <c r="D58" t="str">
@@ -3654,7 +4396,7 @@
         <v/>
       </c>
       <c r="C59" t="str">
-        <f>IF(ISBLANK(Library!B67),"",CONCATENATE("barcode",Library!E67))</f>
+        <f>IF(OR(ISBLANK(Library!E67),ISBLANK(Library!B67)),"",CONCATENATE("barcode",TEXT(Library!E67,"00")))</f>
         <v/>
       </c>
       <c r="D59" t="str">
@@ -3672,7 +4414,7 @@
         <v/>
       </c>
       <c r="C60" t="str">
-        <f>IF(ISBLANK(Library!B68),"",CONCATENATE("barcode",Library!E68))</f>
+        <f>IF(OR(ISBLANK(Library!E68),ISBLANK(Library!B68)),"",CONCATENATE("barcode",TEXT(Library!E68,"00")))</f>
         <v/>
       </c>
       <c r="D60" t="str">
@@ -3690,7 +4432,7 @@
         <v/>
       </c>
       <c r="C61" t="str">
-        <f>IF(ISBLANK(Library!B69),"",CONCATENATE("barcode",Library!E69))</f>
+        <f>IF(OR(ISBLANK(Library!E69),ISBLANK(Library!B69)),"",CONCATENATE("barcode",TEXT(Library!E69,"00")))</f>
         <v/>
       </c>
       <c r="D61" t="str">
@@ -3708,7 +4450,7 @@
         <v/>
       </c>
       <c r="C62" t="str">
-        <f>IF(ISBLANK(Library!B70),"",CONCATENATE("barcode",Library!E70))</f>
+        <f>IF(OR(ISBLANK(Library!E70),ISBLANK(Library!B70)),"",CONCATENATE("barcode",TEXT(Library!E70,"00")))</f>
         <v/>
       </c>
       <c r="D62" t="str">
@@ -3726,7 +4468,7 @@
         <v/>
       </c>
       <c r="C63" t="str">
-        <f>IF(ISBLANK(Library!B71),"",CONCATENATE("barcode",Library!E71))</f>
+        <f>IF(OR(ISBLANK(Library!E71),ISBLANK(Library!B71)),"",CONCATENATE("barcode",TEXT(Library!E71,"00")))</f>
         <v/>
       </c>
       <c r="D63" t="str">
@@ -3744,7 +4486,7 @@
         <v/>
       </c>
       <c r="C64" t="str">
-        <f>IF(ISBLANK(Library!B72),"",CONCATENATE("barcode",Library!E72))</f>
+        <f>IF(OR(ISBLANK(Library!E72),ISBLANK(Library!B72)),"",CONCATENATE("barcode",TEXT(Library!E72,"00")))</f>
         <v/>
       </c>
       <c r="D64" t="str">
@@ -3762,7 +4504,7 @@
         <v/>
       </c>
       <c r="C65" t="str">
-        <f>IF(ISBLANK(Library!B73),"",CONCATENATE("barcode",Library!E73))</f>
+        <f>IF(OR(ISBLANK(Library!E73),ISBLANK(Library!B73)),"",CONCATENATE("barcode",TEXT(Library!E73,"00")))</f>
         <v/>
       </c>
       <c r="D65" t="str">
@@ -3780,7 +4522,7 @@
         <v/>
       </c>
       <c r="C66" t="str">
-        <f>IF(ISBLANK(Library!B74),"",CONCATENATE("barcode",Library!E74))</f>
+        <f>IF(OR(ISBLANK(Library!E74),ISBLANK(Library!B74)),"",CONCATENATE("barcode",TEXT(Library!E74,"00")))</f>
         <v/>
       </c>
       <c r="D66" t="str">
@@ -3798,7 +4540,7 @@
         <v/>
       </c>
       <c r="C67" t="str">
-        <f>IF(ISBLANK(Library!B75),"",CONCATENATE("barcode",Library!E75))</f>
+        <f>IF(OR(ISBLANK(Library!E75),ISBLANK(Library!B75)),"",CONCATENATE("barcode",TEXT(Library!E75,"00")))</f>
         <v/>
       </c>
       <c r="D67" t="str">
@@ -3816,7 +4558,7 @@
         <v/>
       </c>
       <c r="C68" t="str">
-        <f>IF(ISBLANK(Library!B76),"",CONCATENATE("barcode",Library!E76))</f>
+        <f>IF(OR(ISBLANK(Library!E76),ISBLANK(Library!B76)),"",CONCATENATE("barcode",TEXT(Library!E76,"00")))</f>
         <v/>
       </c>
       <c r="D68" t="str">
@@ -3834,7 +4576,7 @@
         <v/>
       </c>
       <c r="C69" t="str">
-        <f>IF(ISBLANK(Library!B77),"",CONCATENATE("barcode",Library!E77))</f>
+        <f>IF(OR(ISBLANK(Library!E77),ISBLANK(Library!B77)),"",CONCATENATE("barcode",TEXT(Library!E77,"00")))</f>
         <v/>
       </c>
       <c r="D69" t="str">
@@ -3852,7 +4594,7 @@
         <v/>
       </c>
       <c r="C70" t="str">
-        <f>IF(ISBLANK(Library!B78),"",CONCATENATE("barcode",Library!E78))</f>
+        <f>IF(OR(ISBLANK(Library!E78),ISBLANK(Library!B78)),"",CONCATENATE("barcode",TEXT(Library!E78,"00")))</f>
         <v/>
       </c>
       <c r="D70" t="str">
@@ -3870,7 +4612,7 @@
         <v/>
       </c>
       <c r="C71" t="str">
-        <f>IF(ISBLANK(Library!B79),"",CONCATENATE("barcode",Library!E79))</f>
+        <f>IF(OR(ISBLANK(Library!E79),ISBLANK(Library!B79)),"",CONCATENATE("barcode",TEXT(Library!E79,"00")))</f>
         <v/>
       </c>
       <c r="D71" t="str">
@@ -3888,7 +4630,7 @@
         <v/>
       </c>
       <c r="C72" t="str">
-        <f>IF(ISBLANK(Library!B80),"",CONCATENATE("barcode",Library!E80))</f>
+        <f>IF(OR(ISBLANK(Library!E80),ISBLANK(Library!B80)),"",CONCATENATE("barcode",TEXT(Library!E80,"00")))</f>
         <v/>
       </c>
       <c r="D72" t="str">
@@ -3906,7 +4648,7 @@
         <v/>
       </c>
       <c r="C73" t="str">
-        <f>IF(ISBLANK(Library!B81),"",CONCATENATE("barcode",Library!E81))</f>
+        <f>IF(OR(ISBLANK(Library!E81),ISBLANK(Library!B81)),"",CONCATENATE("barcode",TEXT(Library!E81,"00")))</f>
         <v/>
       </c>
       <c r="D73" t="str">
@@ -3924,7 +4666,7 @@
         <v/>
       </c>
       <c r="C74" t="str">
-        <f>IF(ISBLANK(Library!B82),"",CONCATENATE("barcode",Library!E82))</f>
+        <f>IF(OR(ISBLANK(Library!E82),ISBLANK(Library!B82)),"",CONCATENATE("barcode",TEXT(Library!E82,"00")))</f>
         <v/>
       </c>
       <c r="D74" t="str">
@@ -3942,7 +4684,7 @@
         <v/>
       </c>
       <c r="C75" t="str">
-        <f>IF(ISBLANK(Library!B83),"",CONCATENATE("barcode",Library!E83))</f>
+        <f>IF(OR(ISBLANK(Library!E83),ISBLANK(Library!B83)),"",CONCATENATE("barcode",TEXT(Library!E83,"00")))</f>
         <v/>
       </c>
       <c r="D75" t="str">
@@ -3960,7 +4702,7 @@
         <v/>
       </c>
       <c r="C76" t="str">
-        <f>IF(ISBLANK(Library!B84),"",CONCATENATE("barcode",Library!E84))</f>
+        <f>IF(OR(ISBLANK(Library!E84),ISBLANK(Library!B84)),"",CONCATENATE("barcode",TEXT(Library!E84,"00")))</f>
         <v/>
       </c>
       <c r="D76" t="str">
@@ -3978,7 +4720,7 @@
         <v/>
       </c>
       <c r="C77" t="str">
-        <f>IF(ISBLANK(Library!B85),"",CONCATENATE("barcode",Library!E85))</f>
+        <f>IF(OR(ISBLANK(Library!E85),ISBLANK(Library!B85)),"",CONCATENATE("barcode",TEXT(Library!E85,"00")))</f>
         <v/>
       </c>
       <c r="D77" t="str">
@@ -3996,7 +4738,7 @@
         <v/>
       </c>
       <c r="C78" t="str">
-        <f>IF(ISBLANK(Library!B86),"",CONCATENATE("barcode",Library!E86))</f>
+        <f>IF(OR(ISBLANK(Library!E86),ISBLANK(Library!B86)),"",CONCATENATE("barcode",TEXT(Library!E86,"00")))</f>
         <v/>
       </c>
       <c r="D78" t="str">
@@ -4014,7 +4756,7 @@
         <v/>
       </c>
       <c r="C79" t="str">
-        <f>IF(ISBLANK(Library!B87),"",CONCATENATE("barcode",Library!E87))</f>
+        <f>IF(OR(ISBLANK(Library!E87),ISBLANK(Library!B87)),"",CONCATENATE("barcode",TEXT(Library!E87,"00")))</f>
         <v/>
       </c>
       <c r="D79" t="str">
@@ -4032,7 +4774,7 @@
         <v/>
       </c>
       <c r="C80" t="str">
-        <f>IF(ISBLANK(Library!B88),"",CONCATENATE("barcode",Library!E88))</f>
+        <f>IF(OR(ISBLANK(Library!E88),ISBLANK(Library!B88)),"",CONCATENATE("barcode",TEXT(Library!E88,"00")))</f>
         <v/>
       </c>
       <c r="D80" t="str">
@@ -4050,7 +4792,7 @@
         <v/>
       </c>
       <c r="C81" t="str">
-        <f>IF(ISBLANK(Library!B89),"",CONCATENATE("barcode",Library!E89))</f>
+        <f>IF(OR(ISBLANK(Library!E89),ISBLANK(Library!B89)),"",CONCATENATE("barcode",TEXT(Library!E89,"00")))</f>
         <v/>
       </c>
       <c r="D81" t="str">
@@ -4068,7 +4810,7 @@
         <v/>
       </c>
       <c r="C82" t="str">
-        <f>IF(ISBLANK(Library!B90),"",CONCATENATE("barcode",Library!E90))</f>
+        <f>IF(OR(ISBLANK(Library!E90),ISBLANK(Library!B90)),"",CONCATENATE("barcode",TEXT(Library!E90,"00")))</f>
         <v/>
       </c>
       <c r="D82" t="str">
@@ -4086,7 +4828,7 @@
         <v/>
       </c>
       <c r="C83" t="str">
-        <f>IF(ISBLANK(Library!B91),"",CONCATENATE("barcode",Library!E91))</f>
+        <f>IF(OR(ISBLANK(Library!E91),ISBLANK(Library!B91)),"",CONCATENATE("barcode",TEXT(Library!E91,"00")))</f>
         <v/>
       </c>
       <c r="D83" t="str">
@@ -4104,7 +4846,7 @@
         <v/>
       </c>
       <c r="C84" t="str">
-        <f>IF(ISBLANK(Library!B92),"",CONCATENATE("barcode",Library!E92))</f>
+        <f>IF(OR(ISBLANK(Library!E92),ISBLANK(Library!B92)),"",CONCATENATE("barcode",TEXT(Library!E92,"00")))</f>
         <v/>
       </c>
       <c r="D84" t="str">
@@ -4122,7 +4864,7 @@
         <v/>
       </c>
       <c r="C85" t="str">
-        <f>IF(ISBLANK(Library!B93),"",CONCATENATE("barcode",Library!E93))</f>
+        <f>IF(OR(ISBLANK(Library!E93),ISBLANK(Library!B93)),"",CONCATENATE("barcode",TEXT(Library!E93,"00")))</f>
         <v/>
       </c>
       <c r="D85" t="str">
@@ -4140,7 +4882,7 @@
         <v/>
       </c>
       <c r="C86" t="str">
-        <f>IF(ISBLANK(Library!B94),"",CONCATENATE("barcode",Library!E94))</f>
+        <f>IF(OR(ISBLANK(Library!E94),ISBLANK(Library!B94)),"",CONCATENATE("barcode",TEXT(Library!E94,"00")))</f>
         <v/>
       </c>
       <c r="D86" t="str">
@@ -4158,7 +4900,7 @@
         <v/>
       </c>
       <c r="C87" t="str">
-        <f>IF(ISBLANK(Library!B95),"",CONCATENATE("barcode",Library!E95))</f>
+        <f>IF(OR(ISBLANK(Library!E95),ISBLANK(Library!B95)),"",CONCATENATE("barcode",TEXT(Library!E95,"00")))</f>
         <v/>
       </c>
       <c r="D87" t="str">
@@ -4176,7 +4918,7 @@
         <v/>
       </c>
       <c r="C88" t="str">
-        <f>IF(ISBLANK(Library!B96),"",CONCATENATE("barcode",Library!E96))</f>
+        <f>IF(OR(ISBLANK(Library!E96),ISBLANK(Library!B96)),"",CONCATENATE("barcode",TEXT(Library!E96,"00")))</f>
         <v/>
       </c>
       <c r="D88" t="str">
@@ -4194,7 +4936,7 @@
         <v/>
       </c>
       <c r="C89" t="str">
-        <f>IF(ISBLANK(Library!B97),"",CONCATENATE("barcode",Library!E97))</f>
+        <f>IF(OR(ISBLANK(Library!E97),ISBLANK(Library!B97)),"",CONCATENATE("barcode",TEXT(Library!E97,"00")))</f>
         <v/>
       </c>
       <c r="D89" t="str">
@@ -4212,7 +4954,7 @@
         <v/>
       </c>
       <c r="C90" t="str">
-        <f>IF(ISBLANK(Library!B98),"",CONCATENATE("barcode",Library!E98))</f>
+        <f>IF(OR(ISBLANK(Library!E98),ISBLANK(Library!B98)),"",CONCATENATE("barcode",TEXT(Library!E98,"00")))</f>
         <v/>
       </c>
       <c r="D90" t="str">
@@ -4230,7 +4972,7 @@
         <v/>
       </c>
       <c r="C91" t="str">
-        <f>IF(ISBLANK(Library!B99),"",CONCATENATE("barcode",Library!E99))</f>
+        <f>IF(OR(ISBLANK(Library!E99),ISBLANK(Library!B99)),"",CONCATENATE("barcode",TEXT(Library!E99,"00")))</f>
         <v/>
       </c>
       <c r="D91" t="str">
@@ -4248,7 +4990,7 @@
         <v/>
       </c>
       <c r="C92" t="str">
-        <f>IF(ISBLANK(Library!B100),"",CONCATENATE("barcode",Library!E100))</f>
+        <f>IF(OR(ISBLANK(Library!E100),ISBLANK(Library!B100)),"",CONCATENATE("barcode",TEXT(Library!E100,"00")))</f>
         <v/>
       </c>
       <c r="D92" t="str">
@@ -4266,7 +5008,7 @@
         <v/>
       </c>
       <c r="C93" t="str">
-        <f>IF(ISBLANK(Library!B101),"",CONCATENATE("barcode",Library!E101))</f>
+        <f>IF(OR(ISBLANK(Library!E101),ISBLANK(Library!B101)),"",CONCATENATE("barcode",TEXT(Library!E101,"00")))</f>
         <v/>
       </c>
       <c r="D93" t="str">
@@ -4284,7 +5026,7 @@
         <v/>
       </c>
       <c r="C94" t="str">
-        <f>IF(ISBLANK(Library!B102),"",CONCATENATE("barcode",Library!E102))</f>
+        <f>IF(OR(ISBLANK(Library!E102),ISBLANK(Library!B102)),"",CONCATENATE("barcode",TEXT(Library!E102,"00")))</f>
         <v/>
       </c>
       <c r="D94" t="str">
@@ -4302,7 +5044,7 @@
         <v/>
       </c>
       <c r="C95" t="str">
-        <f>IF(ISBLANK(Library!B103),"",CONCATENATE("barcode",Library!E103))</f>
+        <f>IF(OR(ISBLANK(Library!E103),ISBLANK(Library!B103)),"",CONCATENATE("barcode",TEXT(Library!E103,"00")))</f>
         <v/>
       </c>
       <c r="D95" t="str">
@@ -4320,7 +5062,7 @@
         <v/>
       </c>
       <c r="C96" t="str">
-        <f>IF(ISBLANK(Library!B104),"",CONCATENATE("barcode",Library!E104))</f>
+        <f>IF(OR(ISBLANK(Library!E104),ISBLANK(Library!B104)),"",CONCATENATE("barcode",TEXT(Library!E104,"00")))</f>
         <v/>
       </c>
       <c r="D96" t="str">
@@ -4338,7 +5080,7 @@
         <v/>
       </c>
       <c r="C97" t="str">
-        <f>IF(ISBLANK(Library!B105),"",CONCATENATE("barcode",Library!E105))</f>
+        <f>IF(OR(ISBLANK(Library!E105),ISBLANK(Library!B105)),"",CONCATENATE("barcode",TEXT(Library!E105,"00")))</f>
         <v/>
       </c>
       <c r="D97" t="str">
@@ -4347,7 +5089,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3xPQ0b/tzn2kRstiisI5HHKRKYVCEvOGymGQwNY2weE/jCwbruWXpkygkZK3e21pFAqn9yoB182oDFvW5Xo9ow==" saltValue="VKYPjxAFkfQaTkoj0oFaAg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="BpfvFrrqtm0e7cxfocp+zTlVzBFfRuOvKl+EL7COePiHLmFrI52KWVpK8pzpUPY55InciSWy/Tz3uw4ktCZaQw==" saltValue="yEn5Lf0eHnWThP25T0izmg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
@@ -4381,7 +5123,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="22" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4413,7 +5155,7 @@
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -4423,50 +5165,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="25" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="26" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="26" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="36"/>
+      <c r="A4" s="27"/>
     </row>
     <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="28" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="24" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="26" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="147" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="23" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="168.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4476,7 +5218,7 @@
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="26" t="s">
         <v>129</v>
       </c>
     </row>

--- a/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
+++ b/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\src\nomadic\start\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F101C0C-1770-4895-A4F6-CEE10C0C6F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A41AEDA-9056-432B-8D09-0AA6DE451BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27276" windowHeight="15456" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23244" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="2" r:id="rId1"/>
@@ -736,6 +736,20 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -752,20 +766,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -775,7 +775,7 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -804,158 +804,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1377,14 +1225,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A9:E105" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A9:E105" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A9:E105" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="32"/>
-    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="12"/>
+    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1395,13 +1243,13 @@
   <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="sample_id"/>
-    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="8">
       <calculatedColumnFormula>IF(LEN(Library!C10)=0,"",Library!C10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="26">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="7">
       <calculatedColumnFormula>IF(OR(ISBLANK(Library!E10),ISBLANK(Library!B10)),"",CONCATENATE("barcode",TEXT(Library!E10,"00")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="6">
       <calculatedColumnFormula>IF(LEN(Library!D10)=0,"",Library!D10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1592,7 +1440,7 @@
   <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1606,83 +1454,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
       <c r="F3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
       <c r="F5" s="7" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="36" t="str">
+      <c r="B7" s="37"/>
+      <c r="C7" s="40" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,TEXT(C5,"000"),"_",C4,"_Batch",C6))</f>
         <v/>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="6" t="s">
         <v>113</v>
       </c>
@@ -3228,7 +3076,14 @@
       <c r="F115" s="9"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:E3"/>
@@ -3236,38 +3091,32 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B10:E105">
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>COUNTIF(B10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10:D105">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
       <formula>0</formula>
       <formula>Post_PCR_DNA_threshold_ngul</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThanOrEqual">
       <formula>Post_PCR_DNA_threshold_ngul</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10:E105">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F105">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Duplicate">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Duplicate">
       <formula>NOT(ISERROR(SEARCH("Duplicate",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5156,7 +5005,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
+++ b/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\src\nomadic\start\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A41AEDA-9056-432B-8D09-0AA6DE451BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF95496-F69D-4D43-B9B0-81328E6CE62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23244" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,17 +43,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
-  <si>
-    <t>Date:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>(YYYY-MM-DD)</t>
   </si>
   <si>
-    <t>Exp Number:</t>
-  </si>
-  <si>
     <t>Exp Name:</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>Sample ID</t>
   </si>
   <si>
-    <t>(first last)</t>
-  </si>
-  <si>
     <t>Study / Project:</t>
   </si>
   <si>
@@ -384,9 +375,6 @@
     <t>post_pcr_dna_conc_ngul</t>
   </si>
   <si>
-    <t>(save this as the filename)</t>
-  </si>
-  <si>
     <t>Post PCR DNA threshold (ng / µl)</t>
   </si>
   <si>
@@ -402,21 +390,12 @@
     <t>Barcode</t>
   </si>
   <si>
-    <t>(user defined experiment number)</t>
-  </si>
-  <si>
-    <t>(e.g. A, B, C etc)</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
     <t xml:space="preserve">      - when copying from another worksheet, always right-click and paste VALUES:</t>
   </si>
   <si>
-    <t>2. Paste gel picture into the 'Gel' tab and label lanes</t>
-  </si>
-  <si>
     <t>1. Enter all details into the 'Library'  tab, ensuring all yellow highlighted cells are complete</t>
   </si>
   <si>
@@ -439,6 +418,63 @@
   </si>
   <si>
     <t>To prevent inadvertent loss of data, cells are protected from editing, you can only select unlocked cells (use tab to navigate)</t>
+  </si>
+  <si>
+    <t>(e.g. A, B, C or 1, 2, 3 etc)</t>
+  </si>
+  <si>
+    <t>Sequencing Date:</t>
+  </si>
+  <si>
+    <t>(first last, e.g. John Smith would be JS)</t>
+  </si>
+  <si>
+    <t>(short acronym with no spaces e.g. ATSB)</t>
+  </si>
+  <si>
+    <t>(sequence run integer e.g. third sequencing run = 3)</t>
+  </si>
+  <si>
+    <r>
+      <t>2. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) Paste gel picture into the 'Gel' tab and label lanes </t>
+    </r>
+  </si>
+  <si>
+    <t>Sequencing Experiment Number:</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Duplicate Barcode</t>
+  </si>
+  <si>
+    <t>Valid Entry</t>
+  </si>
+  <si>
+    <t>Data entered</t>
+  </si>
+  <si>
+    <t>(auto-generated name to save this file as)</t>
   </si>
 </sst>
 </file>
@@ -448,7 +484,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -525,8 +561,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,29 +585,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FFBFBFBF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -624,10 +655,167 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -639,7 +827,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -656,10 +844,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -670,30 +854,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -708,11 +868,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -735,24 +891,64 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -766,6 +962,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -775,14 +982,7 @@
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -810,6 +1010,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -831,13 +1038,19 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
@@ -846,7 +1059,62 @@
           <color indexed="64"/>
         </bottom>
       </border>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -877,7 +1145,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
@@ -892,7 +1160,29 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -905,12 +1195,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -921,12 +1205,12 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </right>
         <top style="thin">
           <color indexed="64"/>
@@ -934,12 +1218,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -947,6 +1225,18 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
@@ -1225,14 +1515,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A9:E105" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A9:E105" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tbl_SeqLib" displayName="tbl_SeqLib" ref="A9:I105" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19">
+  <tableColumns count="9">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Well" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sample ID" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Barcode" dataDxfId="15"/>
+    <tableColumn id="26" xr3:uid="{CDAB9BF6-0E65-46A9-85EA-6751A98F15D6}" name="Sample Type" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="PCR [DNA] (ng / µl)" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{AB50544D-BD3B-4916-A4E2-114385DE79D0}" name="Duplicate Barcode" dataDxfId="12">
+      <calculatedColumnFormula>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A39E7F3C-2D21-4BE2-8657-FF30B6EAE695}" name="Valid Entry" dataDxfId="11">
+      <calculatedColumnFormula>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{1729EBF8-66DF-4C30-A401-833B6EC9ECE7}" name="Data entered" dataDxfId="10">
+      <calculatedColumnFormula>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{CB344B8B-24D4-4560-B5B0-D807A540F109}" name="Errors" dataDxfId="9">
+      <calculatedColumnFormula>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1242,15 +1543,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tbl_nomadic" displayName="tbl_nomadic" ref="A1:D97" totalsRowShown="0">
   <autoFilter ref="A1:D97" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="sample_id"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="sample_id">
+      <calculatedColumnFormula>IF(Library!G10,Library!B10,"")</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="9" xr3:uid="{98E62512-61AC-41C9-8930-37E9E6964CA3}" name="sample_type" dataDxfId="8">
-      <calculatedColumnFormula>IF(LEN(Library!C10)=0,"",Library!C10)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Library!G10,Library!D10,"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="barcode" dataDxfId="7">
-      <calculatedColumnFormula>IF(OR(ISBLANK(Library!E10),ISBLANK(Library!B10)),"",CONCATENATE("barcode",TEXT(Library!E10,"00")))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(Library!G10,CONCATENATE("barcode",TEXT(Library!C10,"00")),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{1FDA51E1-A0B8-4EA2-9C5A-4746ACED2260}" name="post_pcr_dna_conc_ngul" dataDxfId="6">
-      <calculatedColumnFormula>IF(LEN(Library!D10)=0,"",Library!D10)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(AND(Library!G10,NOT(ISBLANK(Library!E10))),Library!E10,"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1437,10 +1740,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1450,1700 +1753,2917 @@
     <col min="3" max="3" width="24.3984375" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="11.8984375" customWidth="1"/>
+    <col min="6" max="8" width="24" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="6" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="43" t="str">
+        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,TEXT(C5,"000"),"_",C4,"_Batch",C6))</f>
+        <v/>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="B9" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="40" t="str">
-        <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,TEXT(C5,"000"),"_",C4,"_Batch",C6))</f>
-        <v/>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="F9" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="20">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="29">
-        <v>1</v>
-      </c>
-      <c r="F10" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="20">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="30">
-        <v>2</v>
-      </c>
-      <c r="F11" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="20">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="30">
-        <v>3</v>
-      </c>
-      <c r="F12" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="20">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="30">
-        <v>4</v>
-      </c>
-      <c r="F13" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="20">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="30">
-        <v>5</v>
-      </c>
-      <c r="F14" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="20">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="30">
-        <v>6</v>
-      </c>
-      <c r="F15" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="21">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="30">
-        <v>7</v>
-      </c>
-      <c r="F16" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="19">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="31">
-        <v>8</v>
-      </c>
-      <c r="F17" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="20">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="29">
-        <v>9</v>
-      </c>
-      <c r="F18" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="20">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="30">
-        <v>10</v>
-      </c>
-      <c r="F19" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="20">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="30">
-        <v>11</v>
-      </c>
-      <c r="F20" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="20">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="30">
-        <v>12</v>
-      </c>
-      <c r="F21" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="20">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="30">
-        <v>13</v>
-      </c>
-      <c r="F22" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="20">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="30">
-        <v>14</v>
-      </c>
-      <c r="F23" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="21">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="30">
-        <v>15</v>
-      </c>
-      <c r="F24" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="17" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="19">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="31">
-        <v>16</v>
-      </c>
-      <c r="F25" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="20">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="29">
-        <v>17</v>
-      </c>
-      <c r="F26" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="B28" s="23"/>
+      <c r="C28" s="20">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="30">
-        <v>18</v>
-      </c>
-      <c r="F27" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="20">
+        <v>20</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="30">
-        <v>19</v>
-      </c>
-      <c r="F28" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="20">
+        <v>21</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="30">
-        <v>20</v>
-      </c>
-      <c r="F29" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="20">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="30">
-        <v>21</v>
-      </c>
-      <c r="F30" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="20">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="30">
-        <v>22</v>
-      </c>
-      <c r="F31" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="21">
+        <v>24</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="30">
-        <v>23</v>
-      </c>
-      <c r="F32" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="16" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="19">
+        <v>25</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="31">
-        <v>24</v>
-      </c>
-      <c r="F33" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="20">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="29">
-        <v>25</v>
-      </c>
-      <c r="F34" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="20">
+        <v>27</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="30">
-        <v>26</v>
-      </c>
-      <c r="F35" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="20">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="30">
-        <v>27</v>
-      </c>
-      <c r="F36" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="20">
+        <v>29</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="30">
-        <v>28</v>
-      </c>
-      <c r="F37" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="20">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="30">
-        <v>29</v>
-      </c>
-      <c r="F38" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="B40" s="23"/>
+      <c r="C40" s="20">
+        <v>31</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="30">
-        <v>30</v>
-      </c>
-      <c r="F39" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="21">
+        <v>32</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="30">
-        <v>31</v>
-      </c>
-      <c r="F40" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="16" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="19">
+        <v>33</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="31">
-        <v>32</v>
-      </c>
-      <c r="F41" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="20">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="29">
-        <v>33</v>
-      </c>
-      <c r="F42" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="B44" s="23"/>
+      <c r="C44" s="20">
+        <v>35</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="30">
-        <v>34</v>
-      </c>
-      <c r="F43" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
+      <c r="B45" s="23"/>
+      <c r="C45" s="20">
+        <v>36</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="30">
-        <v>35</v>
-      </c>
-      <c r="F44" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="20">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="30">
-        <v>36</v>
-      </c>
-      <c r="F45" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="B47" s="23"/>
+      <c r="C47" s="20">
+        <v>38</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="30">
-        <v>37</v>
-      </c>
-      <c r="F46" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="B48" s="23"/>
+      <c r="C48" s="20">
+        <v>39</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="30">
-        <v>38</v>
-      </c>
-      <c r="F47" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="21">
+        <v>40</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="30">
-        <v>39</v>
-      </c>
-      <c r="F48" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="16" t="s">
+      <c r="B50" s="22"/>
+      <c r="C50" s="19">
+        <v>41</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="31">
-        <v>40</v>
-      </c>
-      <c r="F49" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="B51" s="23"/>
+      <c r="C51" s="20">
+        <v>42</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="29">
-        <v>41</v>
-      </c>
-      <c r="F50" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
+      <c r="B52" s="23"/>
+      <c r="C52" s="20">
+        <v>43</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="30">
-        <v>42</v>
-      </c>
-      <c r="F51" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="20">
+        <v>44</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="30">
-        <v>43</v>
-      </c>
-      <c r="F52" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="20">
+        <v>45</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="30">
-        <v>44</v>
-      </c>
-      <c r="F53" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="20">
+        <v>46</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="30">
-        <v>45</v>
-      </c>
-      <c r="F54" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
+      <c r="B56" s="23"/>
+      <c r="C56" s="20">
+        <v>47</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I56" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="30">
-        <v>46</v>
-      </c>
-      <c r="F55" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="21">
+        <v>48</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="30">
-        <v>47</v>
-      </c>
-      <c r="F56" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
+      <c r="B58" s="22"/>
+      <c r="C58" s="19">
+        <v>49</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="31">
-        <v>48</v>
-      </c>
-      <c r="F57" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="14" t="s">
+      <c r="B59" s="23"/>
+      <c r="C59" s="20">
+        <v>50</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H59" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="29">
-        <v>49</v>
-      </c>
-      <c r="F58" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
+      <c r="B60" s="23"/>
+      <c r="C60" s="20">
+        <v>51</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="30">
-        <v>50</v>
-      </c>
-      <c r="F59" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="20">
+        <v>52</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="30">
-        <v>51</v>
-      </c>
-      <c r="F60" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="20">
+        <v>53</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="30">
-        <v>52</v>
-      </c>
-      <c r="F61" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="20">
+        <v>54</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="30">
-        <v>53</v>
-      </c>
-      <c r="F62" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
+      <c r="B64" s="23"/>
+      <c r="C64" s="20">
+        <v>55</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="30">
-        <v>54</v>
-      </c>
-      <c r="F63" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
+      <c r="B65" s="24"/>
+      <c r="C65" s="21">
+        <v>56</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="30">
-        <v>55</v>
-      </c>
-      <c r="F64" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="16" t="s">
+      <c r="B66" s="22"/>
+      <c r="C66" s="19">
+        <v>57</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="31">
-        <v>56</v>
-      </c>
-      <c r="F65" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+      <c r="B67" s="23"/>
+      <c r="C67" s="20">
+        <v>58</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G67" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="29">
-        <v>57</v>
-      </c>
-      <c r="F66" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
+      <c r="B68" s="23"/>
+      <c r="C68" s="20">
+        <v>59</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="30">
-        <v>58</v>
-      </c>
-      <c r="F67" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
+      <c r="B69" s="23"/>
+      <c r="C69" s="20">
+        <v>60</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="30">
-        <v>59</v>
-      </c>
-      <c r="F68" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
+      <c r="B70" s="23"/>
+      <c r="C70" s="20">
+        <v>61</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="30">
-        <v>60</v>
-      </c>
-      <c r="F69" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="20">
+        <v>62</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G71" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="30">
-        <v>61</v>
-      </c>
-      <c r="F70" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
+      <c r="B72" s="23"/>
+      <c r="C72" s="20">
+        <v>63</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="30">
-        <v>62</v>
-      </c>
-      <c r="F71" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+      <c r="B73" s="24"/>
+      <c r="C73" s="21">
+        <v>64</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="30">
-        <v>63</v>
-      </c>
-      <c r="F72" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="16" t="s">
+      <c r="B74" s="22"/>
+      <c r="C74" s="19">
+        <v>65</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="31">
-        <v>64</v>
-      </c>
-      <c r="F73" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14" t="s">
+      <c r="B75" s="23"/>
+      <c r="C75" s="20">
+        <v>66</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="29">
-        <v>65</v>
-      </c>
-      <c r="F74" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
+      <c r="B76" s="23"/>
+      <c r="C76" s="20">
+        <v>67</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="30">
-        <v>66</v>
-      </c>
-      <c r="F75" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
+      <c r="B77" s="23"/>
+      <c r="C77" s="20">
+        <v>68</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I77" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="30">
-        <v>67</v>
-      </c>
-      <c r="F76" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
+      <c r="B78" s="23"/>
+      <c r="C78" s="20">
+        <v>69</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="30">
-        <v>68</v>
-      </c>
-      <c r="F77" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
+      <c r="B79" s="23"/>
+      <c r="C79" s="20">
+        <v>70</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G79" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H79" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I79" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="30">
-        <v>69</v>
-      </c>
-      <c r="F78" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
+      <c r="B80" s="23"/>
+      <c r="C80" s="20">
+        <v>71</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H80" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I80" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="30">
-        <v>70</v>
-      </c>
-      <c r="F79" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
+      <c r="B81" s="24"/>
+      <c r="C81" s="21">
+        <v>72</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I81" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="30">
-        <v>71</v>
-      </c>
-      <c r="F80" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="16" t="s">
+      <c r="B82" s="22"/>
+      <c r="C82" s="19">
+        <v>73</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="31">
-        <v>72</v>
-      </c>
-      <c r="F81" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+      <c r="B83" s="23"/>
+      <c r="C83" s="20">
+        <v>74</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="29">
-        <v>73</v>
-      </c>
-      <c r="F82" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="15" t="s">
+      <c r="B84" s="23"/>
+      <c r="C84" s="20">
+        <v>75</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="30">
-        <v>74</v>
-      </c>
-      <c r="F83" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
+      <c r="B85" s="23"/>
+      <c r="C85" s="20">
+        <v>76</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G85" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H85" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I85" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="30">
-        <v>75</v>
-      </c>
-      <c r="F84" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="15" t="s">
+      <c r="B86" s="23"/>
+      <c r="C86" s="20">
+        <v>77</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I86" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="30">
-        <v>76</v>
-      </c>
-      <c r="F85" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="15" t="s">
+      <c r="B87" s="23"/>
+      <c r="C87" s="20">
+        <v>78</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H87" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I87" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="30">
-        <v>77</v>
-      </c>
-      <c r="F86" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
+      <c r="B88" s="23"/>
+      <c r="C88" s="20">
+        <v>79</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="30">
-        <v>78</v>
-      </c>
-      <c r="F87" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="15" t="s">
+      <c r="B89" s="24"/>
+      <c r="C89" s="21">
+        <v>80</v>
+      </c>
+      <c r="D89" s="4"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I89" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="30">
-        <v>79</v>
-      </c>
-      <c r="F88" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="16" t="s">
+      <c r="B90" s="22"/>
+      <c r="C90" s="19">
+        <v>81</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G90" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="31">
-        <v>80</v>
-      </c>
-      <c r="F89" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
+      <c r="B91" s="23"/>
+      <c r="C91" s="20">
+        <v>82</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G91" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="29">
-        <v>81</v>
-      </c>
-      <c r="F90" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
+      <c r="B92" s="23"/>
+      <c r="C92" s="20">
+        <v>83</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H92" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="30">
-        <v>82</v>
-      </c>
-      <c r="F91" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15" t="s">
+      <c r="B93" s="23"/>
+      <c r="C93" s="20">
+        <v>84</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="30">
-        <v>83</v>
-      </c>
-      <c r="F92" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
+      <c r="B94" s="23"/>
+      <c r="C94" s="20">
+        <v>85</v>
+      </c>
+      <c r="D94" s="2"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="30">
-        <v>84</v>
-      </c>
-      <c r="F93" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="15" t="s">
+      <c r="B95" s="23"/>
+      <c r="C95" s="20">
+        <v>86</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="30">
-        <v>85</v>
-      </c>
-      <c r="F94" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="15" t="s">
+      <c r="B96" s="23"/>
+      <c r="C96" s="20">
+        <v>87</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="30">
-        <v>86</v>
-      </c>
-      <c r="F95" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
+      <c r="B97" s="24"/>
+      <c r="C97" s="21">
+        <v>88</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="30">
-        <v>87</v>
-      </c>
-      <c r="F96" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="16" t="s">
+      <c r="B98" s="22"/>
+      <c r="C98" s="19">
+        <v>89</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="31" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="31" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="31" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="32" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="31">
-        <v>88</v>
-      </c>
-      <c r="F97" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="14" t="s">
+      <c r="B99" s="23"/>
+      <c r="C99" s="20">
+        <v>90</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="29">
-        <v>89</v>
-      </c>
-      <c r="F98" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="15" t="s">
+      <c r="B100" s="23"/>
+      <c r="C100" s="20">
+        <v>91</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H100" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I100" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="30">
-        <v>90</v>
-      </c>
-      <c r="F99" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="15" t="s">
+      <c r="B101" s="23"/>
+      <c r="C101" s="20">
+        <v>92</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="30">
-        <v>91</v>
-      </c>
-      <c r="F100" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
+      <c r="B102" s="23"/>
+      <c r="C102" s="20">
+        <v>93</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="30">
-        <v>92</v>
-      </c>
-      <c r="F101" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
+      <c r="B103" s="23"/>
+      <c r="C103" s="20">
+        <v>94</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="30">
-        <v>93</v>
-      </c>
-      <c r="F102" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
+      <c r="B104" s="23"/>
+      <c r="C104" s="20">
+        <v>95</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="25" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="25" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H104" s="25" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I104" s="34" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="30">
-        <v>94</v>
-      </c>
-      <c r="F103" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="30">
-        <v>95</v>
-      </c>
-      <c r="F104" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="31">
+      <c r="B105" s="24"/>
+      <c r="C105" s="21">
         <v>96</v>
       </c>
-      <c r="F105" t="str">
-        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,"DUPLICATE","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="36" t="b">
+        <f>IF(COUNTIF(tbl_SeqLib[Barcode],tbl_SeqLib[[#This Row],[Barcode]])&gt;1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="36" t="b">
+        <f>IF(OR(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Barcode]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]])),FALSE, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="36" t="b">
+        <f>IF(AND(ISBLANK(tbl_SeqLib[[#This Row],[Sample ID]]),ISBLANK(tbl_SeqLib[[#This Row],[Sample Type]]),ISBLANK(tbl_SeqLib[[#This Row],[PCR '[DNA'] (ng / µl)]])),FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="I105" s="37" t="str">
+        <f>IF(tbl_SeqLib[[#This Row],[Duplicate Barcode]],"DUPLICATE BARCODE",IF(AND(tbl_SeqLib[[#This Row],[Data entered]],NOT(tbl_SeqLib[[#This Row],[Valid Entry]])),"Incomplete Entry",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B10:E105">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>COUNTIF(B10,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D105">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="between">
+  <conditionalFormatting sqref="C10:C105">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E105">
+    <cfRule type="cellIs" dxfId="2" priority="9" operator="between">
       <formula>0</formula>
       <formula>Post_PCR_DNA_threshold_ngul</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThanOrEqual">
       <formula>Post_PCR_DNA_threshold_ngul</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E105">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F105">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Duplicate">
-      <formula>NOT(ISERROR(SEARCH("Duplicate",F10)))</formula>
+  <conditionalFormatting sqref="I10:I105">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(COUNTIF(I10,""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="textLength" errorStyle="information" operator="greaterThan" allowBlank="1" showErrorMessage="1" error="The sample ID appears to be too short." prompt="Enter the Extraction ID" sqref="B10:B105" xr:uid="{00000000-0002-0000-0100-000000000000}">
+  <dataValidations count="11">
+    <dataValidation type="textLength" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" error="The sample ID appears to be too short." prompt="Enter the Extraction ID" sqref="B10:B105" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>3</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C6 F7:F8" xr:uid="{7F700A24-FACB-40FF-A73D-3494166CE29A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="C6 F7:F8" xr:uid="{9C75F18E-0FA2-45C4-8859-DF7209A58F83}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Number" error="Please enter a number (decimal or whole) for the post-PCR DNA concentration" sqref="D10:D105" xr:uid="{10D485B7-FF0F-4E67-AF1B-44C96547CAC9}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C6 E7:H7 I8" xr:uid="{7F700A24-FACB-40FF-A73D-3494166CE29A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="C6 E7:H7 I8" xr:uid="{9C75F18E-0FA2-45C4-8859-DF7209A58F83}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Number" error="Please enter a number (decimal or whole) for the post-PCR DNA concentration" sqref="E10:E105" xr:uid="{10D485B7-FF0F-4E67-AF1B-44C96547CAC9}">
       <formula1>0.0000000000000001</formula1>
       <formula2>9999999999</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Date" error="Please check your entry and ensure it is a date in the format YYYY-MM-DD e.g. 2024-10-28" sqref="C2:E2" xr:uid="{6948A87B-14F5-4864-A3CB-3A5971E46210}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Date" error="Please check your entry and ensure it is a date in the format YYYY-MM-DD e.g. 2024-10-28" sqref="C2" xr:uid="{6948A87B-14F5-4864-A3CB-3A5971E46210}">
       <formula1>10</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Number of initials" error="Please just enter the first and last name initials e.g. John Smith = JS" sqref="C3:E3" xr:uid="{6E22CD84-505D-440D-BC75-9483B6185E39}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Number of initials" error="Please just enter the first and last name initials e.g. John Smith = JS" sqref="C3" xr:uid="{6E22CD84-505D-440D-BC75-9483B6185E39}">
       <formula1>2</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C5:E5" xr:uid="{49447D3F-5D0C-48FC-AED3-44147C220519}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown Barcode" error="Barcode must be within the range of 1 to 96" sqref="E10:E105" xr:uid="{75260D73-B8AD-4061-93E2-00233DEB0C03}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be an integer greater than zero" sqref="C5" xr:uid="{49447D3F-5D0C-48FC-AED3-44147C220519}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown Barcode" error="Barcode must be within the range of 1 to 96" sqref="C10:C105" xr:uid="{75260D73-B8AD-4061-93E2-00233DEB0C03}">
       <formula1>1</formula1>
       <formula2>96</formula2>
     </dataValidation>
+    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Spaces identified" error="Please remove all spaces or replace them with an underscore / hyphen or other character" sqref="C4" xr:uid="{29DCDF67-D34F-4104-9020-0B6AB16317F0}">
+      <formula1>ISERROR(FIND(" ",C4))</formula1>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="information" allowBlank="1" showErrorMessage="1" error="The sample ID appears to be too short." prompt="Enter the Extraction ID" sqref="C10:C105" xr:uid="{055EB09D-4EE7-41EC-92B5-440E40BF6BC2}">
+      <formula1>1</formula1>
+      <formula2>96</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Number" error="Please enter a number (decimal or whole) for the post-PCR DNA concentration" sqref="F10:H105 I10:I105" xr:uid="{CA156D17-E9AE-4308-90F1-0ED090E64F46}"/>
   </dataValidations>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -3154,7 +4674,7 @@
           <x14:formula1>
             <xm:f>options!$A$5:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>C10:C105</xm:sqref>
+          <xm:sqref>D10:D105</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3185,7 +4705,7 @@
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3197,1748 +4717,1748 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
-        <f>IF(LEN(Library!B10)=0,"",Library!B10)</f>
+        <f>IF(Library!G10,Library!B10,"")</f>
         <v/>
       </c>
       <c r="B2" t="str">
-        <f>IF(LEN(Library!C10)=0,"",Library!C10)</f>
+        <f>IF(Library!G10,Library!D10,"")</f>
         <v/>
       </c>
       <c r="C2" t="str">
-        <f>IF(OR(ISBLANK(Library!E10),ISBLANK(Library!B10)),"",CONCATENATE("barcode",TEXT(Library!E10,"00")))</f>
+        <f>IF(Library!G10,CONCATENATE("barcode",TEXT(Library!C10,"00")),"")</f>
         <v/>
       </c>
       <c r="D2" t="str">
-        <f>IF(LEN(Library!D10)=0,"",Library!D10)</f>
+        <f>IF(AND(Library!G10,NOT(ISBLANK(Library!E10))),Library!E10,"")</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
-        <f>IF(LEN(Library!B11)=0,"",Library!B11)</f>
+        <f>IF(Library!G11,Library!B11,"")</f>
         <v/>
       </c>
       <c r="B3" t="str">
-        <f>IF(LEN(Library!C11)=0,"",Library!C11)</f>
+        <f>IF(Library!G11,Library!D11,"")</f>
         <v/>
       </c>
       <c r="C3" t="str">
-        <f>IF(OR(ISBLANK(Library!E11),ISBLANK(Library!B11)),"",CONCATENATE("barcode",TEXT(Library!E11,"00")))</f>
+        <f>IF(Library!G11,CONCATENATE("barcode",TEXT(Library!C11,"00")),"")</f>
         <v/>
       </c>
       <c r="D3" t="str">
-        <f>IF(LEN(Library!D11)=0,"",Library!D11)</f>
+        <f>IF(AND(Library!G11,NOT(ISBLANK(Library!E11))),Library!E11,"")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
-        <f>IF(LEN(Library!B12)=0,"",Library!B12)</f>
+        <f>IF(Library!G12,Library!B12,"")</f>
         <v/>
       </c>
       <c r="B4" t="str">
-        <f>IF(LEN(Library!C12)=0,"",Library!C12)</f>
+        <f>IF(Library!G12,Library!D12,"")</f>
         <v/>
       </c>
       <c r="C4" t="str">
-        <f>IF(OR(ISBLANK(Library!E12),ISBLANK(Library!B12)),"",CONCATENATE("barcode",TEXT(Library!E12,"00")))</f>
+        <f>IF(Library!G12,CONCATENATE("barcode",TEXT(Library!C12,"00")),"")</f>
         <v/>
       </c>
       <c r="D4" t="str">
-        <f>IF(LEN(Library!D12)=0,"",Library!D12)</f>
+        <f>IF(AND(Library!G12,NOT(ISBLANK(Library!E12))),Library!E12,"")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
-        <f>IF(LEN(Library!B13)=0,"",Library!B13)</f>
+        <f>IF(Library!G13,Library!B13,"")</f>
         <v/>
       </c>
       <c r="B5" t="str">
-        <f>IF(LEN(Library!C13)=0,"",Library!C13)</f>
+        <f>IF(Library!G13,Library!D13,"")</f>
         <v/>
       </c>
       <c r="C5" t="str">
-        <f>IF(OR(ISBLANK(Library!E13),ISBLANK(Library!B13)),"",CONCATENATE("barcode",TEXT(Library!E13,"00")))</f>
+        <f>IF(Library!G13,CONCATENATE("barcode",TEXT(Library!C13,"00")),"")</f>
         <v/>
       </c>
       <c r="D5" t="str">
-        <f>IF(LEN(Library!D13)=0,"",Library!D13)</f>
+        <f>IF(AND(Library!G13,NOT(ISBLANK(Library!E13))),Library!E13,"")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
-        <f>IF(LEN(Library!B14)=0,"",Library!B14)</f>
+        <f>IF(Library!G14,Library!B14,"")</f>
         <v/>
       </c>
       <c r="B6" t="str">
-        <f>IF(LEN(Library!C14)=0,"",Library!C14)</f>
+        <f>IF(Library!G14,Library!D14,"")</f>
         <v/>
       </c>
       <c r="C6" t="str">
-        <f>IF(OR(ISBLANK(Library!E14),ISBLANK(Library!B14)),"",CONCATENATE("barcode",TEXT(Library!E14,"00")))</f>
+        <f>IF(Library!G14,CONCATENATE("barcode",TEXT(Library!C14,"00")),"")</f>
         <v/>
       </c>
       <c r="D6" t="str">
-        <f>IF(LEN(Library!D14)=0,"",Library!D14)</f>
+        <f>IF(AND(Library!G14,NOT(ISBLANK(Library!E14))),Library!E14,"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
-        <f>IF(LEN(Library!B15)=0,"",Library!B15)</f>
+        <f>IF(Library!G15,Library!B15,"")</f>
         <v/>
       </c>
       <c r="B7" t="str">
-        <f>IF(LEN(Library!C15)=0,"",Library!C15)</f>
+        <f>IF(Library!G15,Library!D15,"")</f>
         <v/>
       </c>
       <c r="C7" t="str">
-        <f>IF(OR(ISBLANK(Library!E15),ISBLANK(Library!B15)),"",CONCATENATE("barcode",TEXT(Library!E15,"00")))</f>
+        <f>IF(Library!G15,CONCATENATE("barcode",TEXT(Library!C15,"00")),"")</f>
         <v/>
       </c>
       <c r="D7" t="str">
-        <f>IF(LEN(Library!D15)=0,"",Library!D15)</f>
+        <f>IF(AND(Library!G15,NOT(ISBLANK(Library!E15))),Library!E15,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
-        <f>IF(LEN(Library!B16)=0,"",Library!B16)</f>
+        <f>IF(Library!G16,Library!B16,"")</f>
         <v/>
       </c>
       <c r="B8" t="str">
-        <f>IF(LEN(Library!C16)=0,"",Library!C16)</f>
+        <f>IF(Library!G16,Library!D16,"")</f>
         <v/>
       </c>
       <c r="C8" t="str">
-        <f>IF(OR(ISBLANK(Library!E16),ISBLANK(Library!B16)),"",CONCATENATE("barcode",TEXT(Library!E16,"00")))</f>
+        <f>IF(Library!G16,CONCATENATE("barcode",TEXT(Library!C16,"00")),"")</f>
         <v/>
       </c>
       <c r="D8" t="str">
-        <f>IF(LEN(Library!D16)=0,"",Library!D16)</f>
+        <f>IF(AND(Library!G16,NOT(ISBLANK(Library!E16))),Library!E16,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
-        <f>IF(LEN(Library!B17)=0,"",Library!B17)</f>
+        <f>IF(Library!G17,Library!B17,"")</f>
         <v/>
       </c>
       <c r="B9" t="str">
-        <f>IF(LEN(Library!C17)=0,"",Library!C17)</f>
+        <f>IF(Library!G17,Library!D17,"")</f>
         <v/>
       </c>
       <c r="C9" t="str">
-        <f>IF(OR(ISBLANK(Library!E17),ISBLANK(Library!B17)),"",CONCATENATE("barcode",TEXT(Library!E17,"00")))</f>
+        <f>IF(Library!G17,CONCATENATE("barcode",TEXT(Library!C17,"00")),"")</f>
         <v/>
       </c>
       <c r="D9" t="str">
-        <f>IF(LEN(Library!D17)=0,"",Library!D17)</f>
+        <f>IF(AND(Library!G17,NOT(ISBLANK(Library!E17))),Library!E17,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
-        <f>IF(LEN(Library!B18)=0,"",Library!B18)</f>
+        <f>IF(Library!G18,Library!B18,"")</f>
         <v/>
       </c>
       <c r="B10" t="str">
-        <f>IF(LEN(Library!C18)=0,"",Library!C18)</f>
+        <f>IF(Library!G18,Library!D18,"")</f>
         <v/>
       </c>
       <c r="C10" t="str">
-        <f>IF(OR(ISBLANK(Library!E18),ISBLANK(Library!B18)),"",CONCATENATE("barcode",TEXT(Library!E18,"00")))</f>
+        <f>IF(Library!G18,CONCATENATE("barcode",TEXT(Library!C18,"00")),"")</f>
         <v/>
       </c>
       <c r="D10" t="str">
-        <f>IF(LEN(Library!D18)=0,"",Library!D18)</f>
+        <f>IF(AND(Library!G18,NOT(ISBLANK(Library!E18))),Library!E18,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
-        <f>IF(LEN(Library!B19)=0,"",Library!B19)</f>
+        <f>IF(Library!G19,Library!B19,"")</f>
         <v/>
       </c>
       <c r="B11" t="str">
-        <f>IF(LEN(Library!C19)=0,"",Library!C19)</f>
+        <f>IF(Library!G19,Library!D19,"")</f>
         <v/>
       </c>
       <c r="C11" t="str">
-        <f>IF(OR(ISBLANK(Library!E19),ISBLANK(Library!B19)),"",CONCATENATE("barcode",TEXT(Library!E19,"00")))</f>
+        <f>IF(Library!G19,CONCATENATE("barcode",TEXT(Library!C19,"00")),"")</f>
         <v/>
       </c>
       <c r="D11" t="str">
-        <f>IF(LEN(Library!D19)=0,"",Library!D19)</f>
+        <f>IF(AND(Library!G19,NOT(ISBLANK(Library!E19))),Library!E19,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
-        <f>IF(LEN(Library!B20)=0,"",Library!B20)</f>
+        <f>IF(Library!G20,Library!B20,"")</f>
         <v/>
       </c>
       <c r="B12" t="str">
-        <f>IF(LEN(Library!C20)=0,"",Library!C20)</f>
+        <f>IF(Library!G20,Library!D20,"")</f>
         <v/>
       </c>
       <c r="C12" t="str">
-        <f>IF(OR(ISBLANK(Library!E20),ISBLANK(Library!B20)),"",CONCATENATE("barcode",TEXT(Library!E20,"00")))</f>
+        <f>IF(Library!G20,CONCATENATE("barcode",TEXT(Library!C20,"00")),"")</f>
         <v/>
       </c>
       <c r="D12" t="str">
-        <f>IF(LEN(Library!D20)=0,"",Library!D20)</f>
+        <f>IF(AND(Library!G20,NOT(ISBLANK(Library!E20))),Library!E20,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="str">
-        <f>IF(LEN(Library!B21)=0,"",Library!B21)</f>
+        <f>IF(Library!G21,Library!B21,"")</f>
         <v/>
       </c>
       <c r="B13" t="str">
-        <f>IF(LEN(Library!C21)=0,"",Library!C21)</f>
+        <f>IF(Library!G21,Library!D21,"")</f>
         <v/>
       </c>
       <c r="C13" t="str">
-        <f>IF(OR(ISBLANK(Library!E21),ISBLANK(Library!B21)),"",CONCATENATE("barcode",TEXT(Library!E21,"00")))</f>
+        <f>IF(Library!G21,CONCATENATE("barcode",TEXT(Library!C21,"00")),"")</f>
         <v/>
       </c>
       <c r="D13" t="str">
-        <f>IF(LEN(Library!D21)=0,"",Library!D21)</f>
+        <f>IF(AND(Library!G21,NOT(ISBLANK(Library!E21))),Library!E21,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="str">
-        <f>IF(LEN(Library!B22)=0,"",Library!B22)</f>
+        <f>IF(Library!G22,Library!B22,"")</f>
         <v/>
       </c>
       <c r="B14" t="str">
-        <f>IF(LEN(Library!C22)=0,"",Library!C22)</f>
+        <f>IF(Library!G22,Library!D22,"")</f>
         <v/>
       </c>
       <c r="C14" t="str">
-        <f>IF(OR(ISBLANK(Library!E22),ISBLANK(Library!B22)),"",CONCATENATE("barcode",TEXT(Library!E22,"00")))</f>
+        <f>IF(Library!G22,CONCATENATE("barcode",TEXT(Library!C22,"00")),"")</f>
         <v/>
       </c>
       <c r="D14" t="str">
-        <f>IF(LEN(Library!D22)=0,"",Library!D22)</f>
+        <f>IF(AND(Library!G22,NOT(ISBLANK(Library!E22))),Library!E22,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="str">
-        <f>IF(LEN(Library!B23)=0,"",Library!B23)</f>
+        <f>IF(Library!G23,Library!B23,"")</f>
         <v/>
       </c>
       <c r="B15" t="str">
-        <f>IF(LEN(Library!C23)=0,"",Library!C23)</f>
+        <f>IF(Library!G23,Library!D23,"")</f>
         <v/>
       </c>
       <c r="C15" t="str">
-        <f>IF(OR(ISBLANK(Library!E23),ISBLANK(Library!B23)),"",CONCATENATE("barcode",TEXT(Library!E23,"00")))</f>
+        <f>IF(Library!G23,CONCATENATE("barcode",TEXT(Library!C23,"00")),"")</f>
         <v/>
       </c>
       <c r="D15" t="str">
-        <f>IF(LEN(Library!D23)=0,"",Library!D23)</f>
+        <f>IF(AND(Library!G23,NOT(ISBLANK(Library!E23))),Library!E23,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="str">
-        <f>IF(LEN(Library!B24)=0,"",Library!B24)</f>
+        <f>IF(Library!G24,Library!B24,"")</f>
         <v/>
       </c>
       <c r="B16" t="str">
-        <f>IF(LEN(Library!C24)=0,"",Library!C24)</f>
+        <f>IF(Library!G24,Library!D24,"")</f>
         <v/>
       </c>
       <c r="C16" t="str">
-        <f>IF(OR(ISBLANK(Library!E24),ISBLANK(Library!B24)),"",CONCATENATE("barcode",TEXT(Library!E24,"00")))</f>
+        <f>IF(Library!G24,CONCATENATE("barcode",TEXT(Library!C24,"00")),"")</f>
         <v/>
       </c>
       <c r="D16" t="str">
-        <f>IF(LEN(Library!D24)=0,"",Library!D24)</f>
+        <f>IF(AND(Library!G24,NOT(ISBLANK(Library!E24))),Library!E24,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str">
-        <f>IF(LEN(Library!B25)=0,"",Library!B25)</f>
+        <f>IF(Library!G25,Library!B25,"")</f>
         <v/>
       </c>
       <c r="B17" t="str">
-        <f>IF(LEN(Library!C25)=0,"",Library!C25)</f>
+        <f>IF(Library!G25,Library!D25,"")</f>
         <v/>
       </c>
       <c r="C17" t="str">
-        <f>IF(OR(ISBLANK(Library!E25),ISBLANK(Library!B25)),"",CONCATENATE("barcode",TEXT(Library!E25,"00")))</f>
+        <f>IF(Library!G25,CONCATENATE("barcode",TEXT(Library!C25,"00")),"")</f>
         <v/>
       </c>
       <c r="D17" t="str">
-        <f>IF(LEN(Library!D25)=0,"",Library!D25)</f>
+        <f>IF(AND(Library!G25,NOT(ISBLANK(Library!E25))),Library!E25,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str">
-        <f>IF(LEN(Library!B26)=0,"",Library!B26)</f>
+        <f>IF(Library!G26,Library!B26,"")</f>
         <v/>
       </c>
       <c r="B18" t="str">
-        <f>IF(LEN(Library!C26)=0,"",Library!C26)</f>
+        <f>IF(Library!G26,Library!D26,"")</f>
         <v/>
       </c>
       <c r="C18" t="str">
-        <f>IF(OR(ISBLANK(Library!E26),ISBLANK(Library!B26)),"",CONCATENATE("barcode",TEXT(Library!E26,"00")))</f>
+        <f>IF(Library!G26,CONCATENATE("barcode",TEXT(Library!C26,"00")),"")</f>
         <v/>
       </c>
       <c r="D18" t="str">
-        <f>IF(LEN(Library!D26)=0,"",Library!D26)</f>
+        <f>IF(AND(Library!G26,NOT(ISBLANK(Library!E26))),Library!E26,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
-        <f>IF(LEN(Library!B27)=0,"",Library!B27)</f>
+        <f>IF(Library!G27,Library!B27,"")</f>
         <v/>
       </c>
       <c r="B19" t="str">
-        <f>IF(LEN(Library!C27)=0,"",Library!C27)</f>
+        <f>IF(Library!G27,Library!D27,"")</f>
         <v/>
       </c>
       <c r="C19" t="str">
-        <f>IF(OR(ISBLANK(Library!E27),ISBLANK(Library!B27)),"",CONCATENATE("barcode",TEXT(Library!E27,"00")))</f>
+        <f>IF(Library!G27,CONCATENATE("barcode",TEXT(Library!C27,"00")),"")</f>
         <v/>
       </c>
       <c r="D19" t="str">
-        <f>IF(LEN(Library!D27)=0,"",Library!D27)</f>
+        <f>IF(AND(Library!G27,NOT(ISBLANK(Library!E27))),Library!E27,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
-        <f>IF(LEN(Library!B28)=0,"",Library!B28)</f>
+        <f>IF(Library!G28,Library!B28,"")</f>
         <v/>
       </c>
       <c r="B20" t="str">
-        <f>IF(LEN(Library!C28)=0,"",Library!C28)</f>
+        <f>IF(Library!G28,Library!D28,"")</f>
         <v/>
       </c>
       <c r="C20" t="str">
-        <f>IF(OR(ISBLANK(Library!E28),ISBLANK(Library!B28)),"",CONCATENATE("barcode",TEXT(Library!E28,"00")))</f>
+        <f>IF(Library!G28,CONCATENATE("barcode",TEXT(Library!C28,"00")),"")</f>
         <v/>
       </c>
       <c r="D20" t="str">
-        <f>IF(LEN(Library!D28)=0,"",Library!D28)</f>
+        <f>IF(AND(Library!G28,NOT(ISBLANK(Library!E28))),Library!E28,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
-        <f>IF(LEN(Library!B29)=0,"",Library!B29)</f>
+        <f>IF(Library!G29,Library!B29,"")</f>
         <v/>
       </c>
       <c r="B21" t="str">
-        <f>IF(LEN(Library!C29)=0,"",Library!C29)</f>
+        <f>IF(Library!G29,Library!D29,"")</f>
         <v/>
       </c>
       <c r="C21" t="str">
-        <f>IF(OR(ISBLANK(Library!E29),ISBLANK(Library!B29)),"",CONCATENATE("barcode",TEXT(Library!E29,"00")))</f>
+        <f>IF(Library!G29,CONCATENATE("barcode",TEXT(Library!C29,"00")),"")</f>
         <v/>
       </c>
       <c r="D21" t="str">
-        <f>IF(LEN(Library!D29)=0,"",Library!D29)</f>
+        <f>IF(AND(Library!G29,NOT(ISBLANK(Library!E29))),Library!E29,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
-        <f>IF(LEN(Library!B30)=0,"",Library!B30)</f>
+        <f>IF(Library!G30,Library!B30,"")</f>
         <v/>
       </c>
       <c r="B22" t="str">
-        <f>IF(LEN(Library!C30)=0,"",Library!C30)</f>
+        <f>IF(Library!G30,Library!D30,"")</f>
         <v/>
       </c>
       <c r="C22" t="str">
-        <f>IF(OR(ISBLANK(Library!E30),ISBLANK(Library!B30)),"",CONCATENATE("barcode",TEXT(Library!E30,"00")))</f>
+        <f>IF(Library!G30,CONCATENATE("barcode",TEXT(Library!C30,"00")),"")</f>
         <v/>
       </c>
       <c r="D22" t="str">
-        <f>IF(LEN(Library!D30)=0,"",Library!D30)</f>
+        <f>IF(AND(Library!G30,NOT(ISBLANK(Library!E30))),Library!E30,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
-        <f>IF(LEN(Library!B31)=0,"",Library!B31)</f>
+        <f>IF(Library!G31,Library!B31,"")</f>
         <v/>
       </c>
       <c r="B23" t="str">
-        <f>IF(LEN(Library!C31)=0,"",Library!C31)</f>
+        <f>IF(Library!G31,Library!D31,"")</f>
         <v/>
       </c>
       <c r="C23" t="str">
-        <f>IF(OR(ISBLANK(Library!E31),ISBLANK(Library!B31)),"",CONCATENATE("barcode",TEXT(Library!E31,"00")))</f>
+        <f>IF(Library!G31,CONCATENATE("barcode",TEXT(Library!C31,"00")),"")</f>
         <v/>
       </c>
       <c r="D23" t="str">
-        <f>IF(LEN(Library!D31)=0,"",Library!D31)</f>
+        <f>IF(AND(Library!G31,NOT(ISBLANK(Library!E31))),Library!E31,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
-        <f>IF(LEN(Library!B32)=0,"",Library!B32)</f>
+        <f>IF(Library!G32,Library!B32,"")</f>
         <v/>
       </c>
       <c r="B24" t="str">
-        <f>IF(LEN(Library!C32)=0,"",Library!C32)</f>
+        <f>IF(Library!G32,Library!D32,"")</f>
         <v/>
       </c>
       <c r="C24" t="str">
-        <f>IF(OR(ISBLANK(Library!E32),ISBLANK(Library!B32)),"",CONCATENATE("barcode",TEXT(Library!E32,"00")))</f>
+        <f>IF(Library!G32,CONCATENATE("barcode",TEXT(Library!C32,"00")),"")</f>
         <v/>
       </c>
       <c r="D24" t="str">
-        <f>IF(LEN(Library!D32)=0,"",Library!D32)</f>
+        <f>IF(AND(Library!G32,NOT(ISBLANK(Library!E32))),Library!E32,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
-        <f>IF(LEN(Library!B33)=0,"",Library!B33)</f>
+        <f>IF(Library!G33,Library!B33,"")</f>
         <v/>
       </c>
       <c r="B25" t="str">
-        <f>IF(LEN(Library!C33)=0,"",Library!C33)</f>
+        <f>IF(Library!G33,Library!D33,"")</f>
         <v/>
       </c>
       <c r="C25" t="str">
-        <f>IF(OR(ISBLANK(Library!E33),ISBLANK(Library!B33)),"",CONCATENATE("barcode",TEXT(Library!E33,"00")))</f>
+        <f>IF(Library!G33,CONCATENATE("barcode",TEXT(Library!C33,"00")),"")</f>
         <v/>
       </c>
       <c r="D25" t="str">
-        <f>IF(LEN(Library!D33)=0,"",Library!D33)</f>
+        <f>IF(AND(Library!G33,NOT(ISBLANK(Library!E33))),Library!E33,"")</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="str">
-        <f>IF(LEN(Library!B34)=0,"",Library!B34)</f>
+        <f>IF(Library!G34,Library!B34,"")</f>
         <v/>
       </c>
       <c r="B26" t="str">
-        <f>IF(LEN(Library!C34)=0,"",Library!C34)</f>
+        <f>IF(Library!G34,Library!D34,"")</f>
         <v/>
       </c>
       <c r="C26" t="str">
-        <f>IF(OR(ISBLANK(Library!E34),ISBLANK(Library!B34)),"",CONCATENATE("barcode",TEXT(Library!E34,"00")))</f>
+        <f>IF(Library!G34,CONCATENATE("barcode",TEXT(Library!C34,"00")),"")</f>
         <v/>
       </c>
       <c r="D26" t="str">
-        <f>IF(LEN(Library!D34)=0,"",Library!D34)</f>
+        <f>IF(AND(Library!G34,NOT(ISBLANK(Library!E34))),Library!E34,"")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="str">
-        <f>IF(LEN(Library!B35)=0,"",Library!B35)</f>
+        <f>IF(Library!G35,Library!B35,"")</f>
         <v/>
       </c>
       <c r="B27" t="str">
-        <f>IF(LEN(Library!C35)=0,"",Library!C35)</f>
+        <f>IF(Library!G35,Library!D35,"")</f>
         <v/>
       </c>
       <c r="C27" t="str">
-        <f>IF(OR(ISBLANK(Library!E35),ISBLANK(Library!B35)),"",CONCATENATE("barcode",TEXT(Library!E35,"00")))</f>
+        <f>IF(Library!G35,CONCATENATE("barcode",TEXT(Library!C35,"00")),"")</f>
         <v/>
       </c>
       <c r="D27" t="str">
-        <f>IF(LEN(Library!D35)=0,"",Library!D35)</f>
+        <f>IF(AND(Library!G35,NOT(ISBLANK(Library!E35))),Library!E35,"")</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="str">
-        <f>IF(LEN(Library!B36)=0,"",Library!B36)</f>
+        <f>IF(Library!G36,Library!B36,"")</f>
         <v/>
       </c>
       <c r="B28" t="str">
-        <f>IF(LEN(Library!C36)=0,"",Library!C36)</f>
+        <f>IF(Library!G36,Library!D36,"")</f>
         <v/>
       </c>
       <c r="C28" t="str">
-        <f>IF(OR(ISBLANK(Library!E36),ISBLANK(Library!B36)),"",CONCATENATE("barcode",TEXT(Library!E36,"00")))</f>
+        <f>IF(Library!G36,CONCATENATE("barcode",TEXT(Library!C36,"00")),"")</f>
         <v/>
       </c>
       <c r="D28" t="str">
-        <f>IF(LEN(Library!D36)=0,"",Library!D36)</f>
+        <f>IF(AND(Library!G36,NOT(ISBLANK(Library!E36))),Library!E36,"")</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="str">
-        <f>IF(LEN(Library!B37)=0,"",Library!B37)</f>
+        <f>IF(Library!G37,Library!B37,"")</f>
         <v/>
       </c>
       <c r="B29" t="str">
-        <f>IF(LEN(Library!C37)=0,"",Library!C37)</f>
+        <f>IF(Library!G37,Library!D37,"")</f>
         <v/>
       </c>
       <c r="C29" t="str">
-        <f>IF(OR(ISBLANK(Library!E37),ISBLANK(Library!B37)),"",CONCATENATE("barcode",TEXT(Library!E37,"00")))</f>
+        <f>IF(Library!G37,CONCATENATE("barcode",TEXT(Library!C37,"00")),"")</f>
         <v/>
       </c>
       <c r="D29" t="str">
-        <f>IF(LEN(Library!D37)=0,"",Library!D37)</f>
+        <f>IF(AND(Library!G37,NOT(ISBLANK(Library!E37))),Library!E37,"")</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
-        <f>IF(LEN(Library!B38)=0,"",Library!B38)</f>
+        <f>IF(Library!G38,Library!B38,"")</f>
         <v/>
       </c>
       <c r="B30" t="str">
-        <f>IF(LEN(Library!C38)=0,"",Library!C38)</f>
+        <f>IF(Library!G38,Library!D38,"")</f>
         <v/>
       </c>
       <c r="C30" t="str">
-        <f>IF(OR(ISBLANK(Library!E38),ISBLANK(Library!B38)),"",CONCATENATE("barcode",TEXT(Library!E38,"00")))</f>
+        <f>IF(Library!G38,CONCATENATE("barcode",TEXT(Library!C38,"00")),"")</f>
         <v/>
       </c>
       <c r="D30" t="str">
-        <f>IF(LEN(Library!D38)=0,"",Library!D38)</f>
+        <f>IF(AND(Library!G38,NOT(ISBLANK(Library!E38))),Library!E38,"")</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="str">
-        <f>IF(LEN(Library!B39)=0,"",Library!B39)</f>
+        <f>IF(Library!G39,Library!B39,"")</f>
         <v/>
       </c>
       <c r="B31" t="str">
-        <f>IF(LEN(Library!C39)=0,"",Library!C39)</f>
+        <f>IF(Library!G39,Library!D39,"")</f>
         <v/>
       </c>
       <c r="C31" t="str">
-        <f>IF(OR(ISBLANK(Library!E39),ISBLANK(Library!B39)),"",CONCATENATE("barcode",TEXT(Library!E39,"00")))</f>
+        <f>IF(Library!G39,CONCATENATE("barcode",TEXT(Library!C39,"00")),"")</f>
         <v/>
       </c>
       <c r="D31" t="str">
-        <f>IF(LEN(Library!D39)=0,"",Library!D39)</f>
+        <f>IF(AND(Library!G39,NOT(ISBLANK(Library!E39))),Library!E39,"")</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="str">
-        <f>IF(LEN(Library!B40)=0,"",Library!B40)</f>
+        <f>IF(Library!G40,Library!B40,"")</f>
         <v/>
       </c>
       <c r="B32" t="str">
-        <f>IF(LEN(Library!C40)=0,"",Library!C40)</f>
+        <f>IF(Library!G40,Library!D40,"")</f>
         <v/>
       </c>
       <c r="C32" t="str">
-        <f>IF(OR(ISBLANK(Library!E40),ISBLANK(Library!B40)),"",CONCATENATE("barcode",TEXT(Library!E40,"00")))</f>
+        <f>IF(Library!G40,CONCATENATE("barcode",TEXT(Library!C40,"00")),"")</f>
         <v/>
       </c>
       <c r="D32" t="str">
-        <f>IF(LEN(Library!D40)=0,"",Library!D40)</f>
+        <f>IF(AND(Library!G40,NOT(ISBLANK(Library!E40))),Library!E40,"")</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="str">
-        <f>IF(LEN(Library!B41)=0,"",Library!B41)</f>
+        <f>IF(Library!G41,Library!B41,"")</f>
         <v/>
       </c>
       <c r="B33" t="str">
-        <f>IF(LEN(Library!C41)=0,"",Library!C41)</f>
+        <f>IF(Library!G41,Library!D41,"")</f>
         <v/>
       </c>
       <c r="C33" t="str">
-        <f>IF(OR(ISBLANK(Library!E41),ISBLANK(Library!B41)),"",CONCATENATE("barcode",TEXT(Library!E41,"00")))</f>
+        <f>IF(Library!G41,CONCATENATE("barcode",TEXT(Library!C41,"00")),"")</f>
         <v/>
       </c>
       <c r="D33" t="str">
-        <f>IF(LEN(Library!D41)=0,"",Library!D41)</f>
+        <f>IF(AND(Library!G41,NOT(ISBLANK(Library!E41))),Library!E41,"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
-        <f>IF(LEN(Library!B42)=0,"",Library!B42)</f>
+        <f>IF(Library!G42,Library!B42,"")</f>
         <v/>
       </c>
       <c r="B34" t="str">
-        <f>IF(LEN(Library!C42)=0,"",Library!C42)</f>
+        <f>IF(Library!G42,Library!D42,"")</f>
         <v/>
       </c>
       <c r="C34" t="str">
-        <f>IF(OR(ISBLANK(Library!E42),ISBLANK(Library!B42)),"",CONCATENATE("barcode",TEXT(Library!E42,"00")))</f>
+        <f>IF(Library!G42,CONCATENATE("barcode",TEXT(Library!C42,"00")),"")</f>
         <v/>
       </c>
       <c r="D34" t="str">
-        <f>IF(LEN(Library!D42)=0,"",Library!D42)</f>
+        <f>IF(AND(Library!G42,NOT(ISBLANK(Library!E42))),Library!E42,"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="str">
-        <f>IF(LEN(Library!B43)=0,"",Library!B43)</f>
+        <f>IF(Library!G43,Library!B43,"")</f>
         <v/>
       </c>
       <c r="B35" t="str">
-        <f>IF(LEN(Library!C43)=0,"",Library!C43)</f>
+        <f>IF(Library!G43,Library!D43,"")</f>
         <v/>
       </c>
       <c r="C35" t="str">
-        <f>IF(OR(ISBLANK(Library!E43),ISBLANK(Library!B43)),"",CONCATENATE("barcode",TEXT(Library!E43,"00")))</f>
+        <f>IF(Library!G43,CONCATENATE("barcode",TEXT(Library!C43,"00")),"")</f>
         <v/>
       </c>
       <c r="D35" t="str">
-        <f>IF(LEN(Library!D43)=0,"",Library!D43)</f>
+        <f>IF(AND(Library!G43,NOT(ISBLANK(Library!E43))),Library!E43,"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="str">
-        <f>IF(LEN(Library!B44)=0,"",Library!B44)</f>
+        <f>IF(Library!G44,Library!B44,"")</f>
         <v/>
       </c>
       <c r="B36" t="str">
-        <f>IF(LEN(Library!C44)=0,"",Library!C44)</f>
+        <f>IF(Library!G44,Library!D44,"")</f>
         <v/>
       </c>
       <c r="C36" t="str">
-        <f>IF(OR(ISBLANK(Library!E44),ISBLANK(Library!B44)),"",CONCATENATE("barcode",TEXT(Library!E44,"00")))</f>
+        <f>IF(Library!G44,CONCATENATE("barcode",TEXT(Library!C44,"00")),"")</f>
         <v/>
       </c>
       <c r="D36" t="str">
-        <f>IF(LEN(Library!D44)=0,"",Library!D44)</f>
+        <f>IF(AND(Library!G44,NOT(ISBLANK(Library!E44))),Library!E44,"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="str">
-        <f>IF(LEN(Library!B45)=0,"",Library!B45)</f>
+        <f>IF(Library!G45,Library!B45,"")</f>
         <v/>
       </c>
       <c r="B37" t="str">
-        <f>IF(LEN(Library!C45)=0,"",Library!C45)</f>
+        <f>IF(Library!G45,Library!D45,"")</f>
         <v/>
       </c>
       <c r="C37" t="str">
-        <f>IF(OR(ISBLANK(Library!E45),ISBLANK(Library!B45)),"",CONCATENATE("barcode",TEXT(Library!E45,"00")))</f>
+        <f>IF(Library!G45,CONCATENATE("barcode",TEXT(Library!C45,"00")),"")</f>
         <v/>
       </c>
       <c r="D37" t="str">
-        <f>IF(LEN(Library!D45)=0,"",Library!D45)</f>
+        <f>IF(AND(Library!G45,NOT(ISBLANK(Library!E45))),Library!E45,"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="str">
-        <f>IF(LEN(Library!B46)=0,"",Library!B46)</f>
+        <f>IF(Library!G46,Library!B46,"")</f>
         <v/>
       </c>
       <c r="B38" t="str">
-        <f>IF(LEN(Library!C46)=0,"",Library!C46)</f>
+        <f>IF(Library!G46,Library!D46,"")</f>
         <v/>
       </c>
       <c r="C38" t="str">
-        <f>IF(OR(ISBLANK(Library!E46),ISBLANK(Library!B46)),"",CONCATENATE("barcode",TEXT(Library!E46,"00")))</f>
+        <f>IF(Library!G46,CONCATENATE("barcode",TEXT(Library!C46,"00")),"")</f>
         <v/>
       </c>
       <c r="D38" t="str">
-        <f>IF(LEN(Library!D46)=0,"",Library!D46)</f>
+        <f>IF(AND(Library!G46,NOT(ISBLANK(Library!E46))),Library!E46,"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="str">
-        <f>IF(LEN(Library!B47)=0,"",Library!B47)</f>
+        <f>IF(Library!G47,Library!B47,"")</f>
         <v/>
       </c>
       <c r="B39" t="str">
-        <f>IF(LEN(Library!C47)=0,"",Library!C47)</f>
+        <f>IF(Library!G47,Library!D47,"")</f>
         <v/>
       </c>
       <c r="C39" t="str">
-        <f>IF(OR(ISBLANK(Library!E47),ISBLANK(Library!B47)),"",CONCATENATE("barcode",TEXT(Library!E47,"00")))</f>
+        <f>IF(Library!G47,CONCATENATE("barcode",TEXT(Library!C47,"00")),"")</f>
         <v/>
       </c>
       <c r="D39" t="str">
-        <f>IF(LEN(Library!D47)=0,"",Library!D47)</f>
+        <f>IF(AND(Library!G47,NOT(ISBLANK(Library!E47))),Library!E47,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="str">
-        <f>IF(LEN(Library!B48)=0,"",Library!B48)</f>
+        <f>IF(Library!G48,Library!B48,"")</f>
         <v/>
       </c>
       <c r="B40" t="str">
-        <f>IF(LEN(Library!C48)=0,"",Library!C48)</f>
+        <f>IF(Library!G48,Library!D48,"")</f>
         <v/>
       </c>
       <c r="C40" t="str">
-        <f>IF(OR(ISBLANK(Library!E48),ISBLANK(Library!B48)),"",CONCATENATE("barcode",TEXT(Library!E48,"00")))</f>
+        <f>IF(Library!G48,CONCATENATE("barcode",TEXT(Library!C48,"00")),"")</f>
         <v/>
       </c>
       <c r="D40" t="str">
-        <f>IF(LEN(Library!D48)=0,"",Library!D48)</f>
+        <f>IF(AND(Library!G48,NOT(ISBLANK(Library!E48))),Library!E48,"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="str">
-        <f>IF(LEN(Library!B49)=0,"",Library!B49)</f>
+        <f>IF(Library!G49,Library!B49,"")</f>
         <v/>
       </c>
       <c r="B41" t="str">
-        <f>IF(LEN(Library!C49)=0,"",Library!C49)</f>
+        <f>IF(Library!G49,Library!D49,"")</f>
         <v/>
       </c>
       <c r="C41" t="str">
-        <f>IF(OR(ISBLANK(Library!E49),ISBLANK(Library!B49)),"",CONCATENATE("barcode",TEXT(Library!E49,"00")))</f>
+        <f>IF(Library!G49,CONCATENATE("barcode",TEXT(Library!C49,"00")),"")</f>
         <v/>
       </c>
       <c r="D41" t="str">
-        <f>IF(LEN(Library!D49)=0,"",Library!D49)</f>
+        <f>IF(AND(Library!G49,NOT(ISBLANK(Library!E49))),Library!E49,"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="str">
-        <f>IF(LEN(Library!B50)=0,"",Library!B50)</f>
+        <f>IF(Library!G50,Library!B50,"")</f>
         <v/>
       </c>
       <c r="B42" t="str">
-        <f>IF(LEN(Library!C50)=0,"",Library!C50)</f>
+        <f>IF(Library!G50,Library!D50,"")</f>
         <v/>
       </c>
       <c r="C42" t="str">
-        <f>IF(OR(ISBLANK(Library!E50),ISBLANK(Library!B50)),"",CONCATENATE("barcode",TEXT(Library!E50,"00")))</f>
+        <f>IF(Library!G50,CONCATENATE("barcode",TEXT(Library!C50,"00")),"")</f>
         <v/>
       </c>
       <c r="D42" t="str">
-        <f>IF(LEN(Library!D50)=0,"",Library!D50)</f>
+        <f>IF(AND(Library!G50,NOT(ISBLANK(Library!E50))),Library!E50,"")</f>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="str">
-        <f>IF(LEN(Library!B51)=0,"",Library!B51)</f>
+        <f>IF(Library!G51,Library!B51,"")</f>
         <v/>
       </c>
       <c r="B43" t="str">
-        <f>IF(LEN(Library!C51)=0,"",Library!C51)</f>
+        <f>IF(Library!G51,Library!D51,"")</f>
         <v/>
       </c>
       <c r="C43" t="str">
-        <f>IF(OR(ISBLANK(Library!E51),ISBLANK(Library!B51)),"",CONCATENATE("barcode",TEXT(Library!E51,"00")))</f>
+        <f>IF(Library!G51,CONCATENATE("barcode",TEXT(Library!C51,"00")),"")</f>
         <v/>
       </c>
       <c r="D43" t="str">
-        <f>IF(LEN(Library!D51)=0,"",Library!D51)</f>
+        <f>IF(AND(Library!G51,NOT(ISBLANK(Library!E51))),Library!E51,"")</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="str">
-        <f>IF(LEN(Library!B52)=0,"",Library!B52)</f>
+        <f>IF(Library!G52,Library!B52,"")</f>
         <v/>
       </c>
       <c r="B44" t="str">
-        <f>IF(LEN(Library!C52)=0,"",Library!C52)</f>
+        <f>IF(Library!G52,Library!D52,"")</f>
         <v/>
       </c>
       <c r="C44" t="str">
-        <f>IF(OR(ISBLANK(Library!E52),ISBLANK(Library!B52)),"",CONCATENATE("barcode",TEXT(Library!E52,"00")))</f>
+        <f>IF(Library!G52,CONCATENATE("barcode",TEXT(Library!C52,"00")),"")</f>
         <v/>
       </c>
       <c r="D44" t="str">
-        <f>IF(LEN(Library!D52)=0,"",Library!D52)</f>
+        <f>IF(AND(Library!G52,NOT(ISBLANK(Library!E52))),Library!E52,"")</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="str">
-        <f>IF(LEN(Library!B53)=0,"",Library!B53)</f>
+        <f>IF(Library!G53,Library!B53,"")</f>
         <v/>
       </c>
       <c r="B45" t="str">
-        <f>IF(LEN(Library!C53)=0,"",Library!C53)</f>
+        <f>IF(Library!G53,Library!D53,"")</f>
         <v/>
       </c>
       <c r="C45" t="str">
-        <f>IF(OR(ISBLANK(Library!E53),ISBLANK(Library!B53)),"",CONCATENATE("barcode",TEXT(Library!E53,"00")))</f>
+        <f>IF(Library!G53,CONCATENATE("barcode",TEXT(Library!C53,"00")),"")</f>
         <v/>
       </c>
       <c r="D45" t="str">
-        <f>IF(LEN(Library!D53)=0,"",Library!D53)</f>
+        <f>IF(AND(Library!G53,NOT(ISBLANK(Library!E53))),Library!E53,"")</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="str">
-        <f>IF(LEN(Library!B54)=0,"",Library!B54)</f>
+        <f>IF(Library!G54,Library!B54,"")</f>
         <v/>
       </c>
       <c r="B46" t="str">
-        <f>IF(LEN(Library!C54)=0,"",Library!C54)</f>
+        <f>IF(Library!G54,Library!D54,"")</f>
         <v/>
       </c>
       <c r="C46" t="str">
-        <f>IF(OR(ISBLANK(Library!E54),ISBLANK(Library!B54)),"",CONCATENATE("barcode",TEXT(Library!E54,"00")))</f>
+        <f>IF(Library!G54,CONCATENATE("barcode",TEXT(Library!C54,"00")),"")</f>
         <v/>
       </c>
       <c r="D46" t="str">
-        <f>IF(LEN(Library!D54)=0,"",Library!D54)</f>
+        <f>IF(AND(Library!G54,NOT(ISBLANK(Library!E54))),Library!E54,"")</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="str">
-        <f>IF(LEN(Library!B55)=0,"",Library!B55)</f>
+        <f>IF(Library!G55,Library!B55,"")</f>
         <v/>
       </c>
       <c r="B47" t="str">
-        <f>IF(LEN(Library!C55)=0,"",Library!C55)</f>
+        <f>IF(Library!G55,Library!D55,"")</f>
         <v/>
       </c>
       <c r="C47" t="str">
-        <f>IF(OR(ISBLANK(Library!E55),ISBLANK(Library!B55)),"",CONCATENATE("barcode",TEXT(Library!E55,"00")))</f>
+        <f>IF(Library!G55,CONCATENATE("barcode",TEXT(Library!C55,"00")),"")</f>
         <v/>
       </c>
       <c r="D47" t="str">
-        <f>IF(LEN(Library!D55)=0,"",Library!D55)</f>
+        <f>IF(AND(Library!G55,NOT(ISBLANK(Library!E55))),Library!E55,"")</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="str">
-        <f>IF(LEN(Library!B56)=0,"",Library!B56)</f>
+        <f>IF(Library!G56,Library!B56,"")</f>
         <v/>
       </c>
       <c r="B48" t="str">
-        <f>IF(LEN(Library!C56)=0,"",Library!C56)</f>
+        <f>IF(Library!G56,Library!D56,"")</f>
         <v/>
       </c>
       <c r="C48" t="str">
-        <f>IF(OR(ISBLANK(Library!E56),ISBLANK(Library!B56)),"",CONCATENATE("barcode",TEXT(Library!E56,"00")))</f>
+        <f>IF(Library!G56,CONCATENATE("barcode",TEXT(Library!C56,"00")),"")</f>
         <v/>
       </c>
       <c r="D48" t="str">
-        <f>IF(LEN(Library!D56)=0,"",Library!D56)</f>
+        <f>IF(AND(Library!G56,NOT(ISBLANK(Library!E56))),Library!E56,"")</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
-        <f>IF(LEN(Library!B57)=0,"",Library!B57)</f>
+        <f>IF(Library!G57,Library!B57,"")</f>
         <v/>
       </c>
       <c r="B49" t="str">
-        <f>IF(LEN(Library!C57)=0,"",Library!C57)</f>
+        <f>IF(Library!G57,Library!D57,"")</f>
         <v/>
       </c>
       <c r="C49" t="str">
-        <f>IF(OR(ISBLANK(Library!E57),ISBLANK(Library!B57)),"",CONCATENATE("barcode",TEXT(Library!E57,"00")))</f>
+        <f>IF(Library!G57,CONCATENATE("barcode",TEXT(Library!C57,"00")),"")</f>
         <v/>
       </c>
       <c r="D49" t="str">
-        <f>IF(LEN(Library!D57)=0,"",Library!D57)</f>
+        <f>IF(AND(Library!G57,NOT(ISBLANK(Library!E57))),Library!E57,"")</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="str">
-        <f>IF(LEN(Library!B58)=0,"",Library!B58)</f>
+        <f>IF(Library!G58,Library!B58,"")</f>
         <v/>
       </c>
       <c r="B50" t="str">
-        <f>IF(LEN(Library!C58)=0,"",Library!C58)</f>
+        <f>IF(Library!G58,Library!D58,"")</f>
         <v/>
       </c>
       <c r="C50" t="str">
-        <f>IF(OR(ISBLANK(Library!E58),ISBLANK(Library!B58)),"",CONCATENATE("barcode",TEXT(Library!E58,"00")))</f>
+        <f>IF(Library!G58,CONCATENATE("barcode",TEXT(Library!C58,"00")),"")</f>
         <v/>
       </c>
       <c r="D50" t="str">
-        <f>IF(LEN(Library!D58)=0,"",Library!D58)</f>
+        <f>IF(AND(Library!G58,NOT(ISBLANK(Library!E58))),Library!E58,"")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="str">
-        <f>IF(LEN(Library!B59)=0,"",Library!B59)</f>
+        <f>IF(Library!G59,Library!B59,"")</f>
         <v/>
       </c>
       <c r="B51" t="str">
-        <f>IF(LEN(Library!C59)=0,"",Library!C59)</f>
+        <f>IF(Library!G59,Library!D59,"")</f>
         <v/>
       </c>
       <c r="C51" t="str">
-        <f>IF(OR(ISBLANK(Library!E59),ISBLANK(Library!B59)),"",CONCATENATE("barcode",TEXT(Library!E59,"00")))</f>
+        <f>IF(Library!G59,CONCATENATE("barcode",TEXT(Library!C59,"00")),"")</f>
         <v/>
       </c>
       <c r="D51" t="str">
-        <f>IF(LEN(Library!D59)=0,"",Library!D59)</f>
+        <f>IF(AND(Library!G59,NOT(ISBLANK(Library!E59))),Library!E59,"")</f>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="str">
-        <f>IF(LEN(Library!B60)=0,"",Library!B60)</f>
+        <f>IF(Library!G60,Library!B60,"")</f>
         <v/>
       </c>
       <c r="B52" t="str">
-        <f>IF(LEN(Library!C60)=0,"",Library!C60)</f>
+        <f>IF(Library!G60,Library!D60,"")</f>
         <v/>
       </c>
       <c r="C52" t="str">
-        <f>IF(OR(ISBLANK(Library!E60),ISBLANK(Library!B60)),"",CONCATENATE("barcode",TEXT(Library!E60,"00")))</f>
+        <f>IF(Library!G60,CONCATENATE("barcode",TEXT(Library!C60,"00")),"")</f>
         <v/>
       </c>
       <c r="D52" t="str">
-        <f>IF(LEN(Library!D60)=0,"",Library!D60)</f>
+        <f>IF(AND(Library!G60,NOT(ISBLANK(Library!E60))),Library!E60,"")</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="str">
-        <f>IF(LEN(Library!B61)=0,"",Library!B61)</f>
+        <f>IF(Library!G61,Library!B61,"")</f>
         <v/>
       </c>
       <c r="B53" t="str">
-        <f>IF(LEN(Library!C61)=0,"",Library!C61)</f>
+        <f>IF(Library!G61,Library!D61,"")</f>
         <v/>
       </c>
       <c r="C53" t="str">
-        <f>IF(OR(ISBLANK(Library!E61),ISBLANK(Library!B61)),"",CONCATENATE("barcode",TEXT(Library!E61,"00")))</f>
+        <f>IF(Library!G61,CONCATENATE("barcode",TEXT(Library!C61,"00")),"")</f>
         <v/>
       </c>
       <c r="D53" t="str">
-        <f>IF(LEN(Library!D61)=0,"",Library!D61)</f>
+        <f>IF(AND(Library!G61,NOT(ISBLANK(Library!E61))),Library!E61,"")</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="str">
-        <f>IF(LEN(Library!B62)=0,"",Library!B62)</f>
+        <f>IF(Library!G62,Library!B62,"")</f>
         <v/>
       </c>
       <c r="B54" t="str">
-        <f>IF(LEN(Library!C62)=0,"",Library!C62)</f>
+        <f>IF(Library!G62,Library!D62,"")</f>
         <v/>
       </c>
       <c r="C54" t="str">
-        <f>IF(OR(ISBLANK(Library!E62),ISBLANK(Library!B62)),"",CONCATENATE("barcode",TEXT(Library!E62,"00")))</f>
+        <f>IF(Library!G62,CONCATENATE("barcode",TEXT(Library!C62,"00")),"")</f>
         <v/>
       </c>
       <c r="D54" t="str">
-        <f>IF(LEN(Library!D62)=0,"",Library!D62)</f>
+        <f>IF(AND(Library!G62,NOT(ISBLANK(Library!E62))),Library!E62,"")</f>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="str">
-        <f>IF(LEN(Library!B63)=0,"",Library!B63)</f>
+        <f>IF(Library!G63,Library!B63,"")</f>
         <v/>
       </c>
       <c r="B55" t="str">
-        <f>IF(LEN(Library!C63)=0,"",Library!C63)</f>
+        <f>IF(Library!G63,Library!D63,"")</f>
         <v/>
       </c>
       <c r="C55" t="str">
-        <f>IF(OR(ISBLANK(Library!E63),ISBLANK(Library!B63)),"",CONCATENATE("barcode",TEXT(Library!E63,"00")))</f>
+        <f>IF(Library!G63,CONCATENATE("barcode",TEXT(Library!C63,"00")),"")</f>
         <v/>
       </c>
       <c r="D55" t="str">
-        <f>IF(LEN(Library!D63)=0,"",Library!D63)</f>
+        <f>IF(AND(Library!G63,NOT(ISBLANK(Library!E63))),Library!E63,"")</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="str">
-        <f>IF(LEN(Library!B64)=0,"",Library!B64)</f>
+        <f>IF(Library!G64,Library!B64,"")</f>
         <v/>
       </c>
       <c r="B56" t="str">
-        <f>IF(LEN(Library!C64)=0,"",Library!C64)</f>
+        <f>IF(Library!G64,Library!D64,"")</f>
         <v/>
       </c>
       <c r="C56" t="str">
-        <f>IF(OR(ISBLANK(Library!E64),ISBLANK(Library!B64)),"",CONCATENATE("barcode",TEXT(Library!E64,"00")))</f>
+        <f>IF(Library!G64,CONCATENATE("barcode",TEXT(Library!C64,"00")),"")</f>
         <v/>
       </c>
       <c r="D56" t="str">
-        <f>IF(LEN(Library!D64)=0,"",Library!D64)</f>
+        <f>IF(AND(Library!G64,NOT(ISBLANK(Library!E64))),Library!E64,"")</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="str">
-        <f>IF(LEN(Library!B65)=0,"",Library!B65)</f>
+        <f>IF(Library!G65,Library!B65,"")</f>
         <v/>
       </c>
       <c r="B57" t="str">
-        <f>IF(LEN(Library!C65)=0,"",Library!C65)</f>
+        <f>IF(Library!G65,Library!D65,"")</f>
         <v/>
       </c>
       <c r="C57" t="str">
-        <f>IF(OR(ISBLANK(Library!E65),ISBLANK(Library!B65)),"",CONCATENATE("barcode",TEXT(Library!E65,"00")))</f>
+        <f>IF(Library!G65,CONCATENATE("barcode",TEXT(Library!C65,"00")),"")</f>
         <v/>
       </c>
       <c r="D57" t="str">
-        <f>IF(LEN(Library!D65)=0,"",Library!D65)</f>
+        <f>IF(AND(Library!G65,NOT(ISBLANK(Library!E65))),Library!E65,"")</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
-        <f>IF(LEN(Library!B66)=0,"",Library!B66)</f>
+        <f>IF(Library!G66,Library!B66,"")</f>
         <v/>
       </c>
       <c r="B58" t="str">
-        <f>IF(LEN(Library!C66)=0,"",Library!C66)</f>
+        <f>IF(Library!G66,Library!D66,"")</f>
         <v/>
       </c>
       <c r="C58" t="str">
-        <f>IF(OR(ISBLANK(Library!E66),ISBLANK(Library!B66)),"",CONCATENATE("barcode",TEXT(Library!E66,"00")))</f>
+        <f>IF(Library!G66,CONCATENATE("barcode",TEXT(Library!C66,"00")),"")</f>
         <v/>
       </c>
       <c r="D58" t="str">
-        <f>IF(LEN(Library!D66)=0,"",Library!D66)</f>
+        <f>IF(AND(Library!G66,NOT(ISBLANK(Library!E66))),Library!E66,"")</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="str">
-        <f>IF(LEN(Library!B67)=0,"",Library!B67)</f>
+        <f>IF(Library!G67,Library!B67,"")</f>
         <v/>
       </c>
       <c r="B59" t="str">
-        <f>IF(LEN(Library!C67)=0,"",Library!C67)</f>
+        <f>IF(Library!G67,Library!D67,"")</f>
         <v/>
       </c>
       <c r="C59" t="str">
-        <f>IF(OR(ISBLANK(Library!E67),ISBLANK(Library!B67)),"",CONCATENATE("barcode",TEXT(Library!E67,"00")))</f>
+        <f>IF(Library!G67,CONCATENATE("barcode",TEXT(Library!C67,"00")),"")</f>
         <v/>
       </c>
       <c r="D59" t="str">
-        <f>IF(LEN(Library!D67)=0,"",Library!D67)</f>
+        <f>IF(AND(Library!G67,NOT(ISBLANK(Library!E67))),Library!E67,"")</f>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="str">
-        <f>IF(LEN(Library!B68)=0,"",Library!B68)</f>
+        <f>IF(Library!G68,Library!B68,"")</f>
         <v/>
       </c>
       <c r="B60" t="str">
-        <f>IF(LEN(Library!C68)=0,"",Library!C68)</f>
+        <f>IF(Library!G68,Library!D68,"")</f>
         <v/>
       </c>
       <c r="C60" t="str">
-        <f>IF(OR(ISBLANK(Library!E68),ISBLANK(Library!B68)),"",CONCATENATE("barcode",TEXT(Library!E68,"00")))</f>
+        <f>IF(Library!G68,CONCATENATE("barcode",TEXT(Library!C68,"00")),"")</f>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f>IF(LEN(Library!D68)=0,"",Library!D68)</f>
+        <f>IF(AND(Library!G68,NOT(ISBLANK(Library!E68))),Library!E68,"")</f>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="str">
-        <f>IF(LEN(Library!B69)=0,"",Library!B69)</f>
+        <f>IF(Library!G69,Library!B69,"")</f>
         <v/>
       </c>
       <c r="B61" t="str">
-        <f>IF(LEN(Library!C69)=0,"",Library!C69)</f>
+        <f>IF(Library!G69,Library!D69,"")</f>
         <v/>
       </c>
       <c r="C61" t="str">
-        <f>IF(OR(ISBLANK(Library!E69),ISBLANK(Library!B69)),"",CONCATENATE("barcode",TEXT(Library!E69,"00")))</f>
+        <f>IF(Library!G69,CONCATENATE("barcode",TEXT(Library!C69,"00")),"")</f>
         <v/>
       </c>
       <c r="D61" t="str">
-        <f>IF(LEN(Library!D69)=0,"",Library!D69)</f>
+        <f>IF(AND(Library!G69,NOT(ISBLANK(Library!E69))),Library!E69,"")</f>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="str">
-        <f>IF(LEN(Library!B70)=0,"",Library!B70)</f>
+        <f>IF(Library!G70,Library!B70,"")</f>
         <v/>
       </c>
       <c r="B62" t="str">
-        <f>IF(LEN(Library!C70)=0,"",Library!C70)</f>
+        <f>IF(Library!G70,Library!D70,"")</f>
         <v/>
       </c>
       <c r="C62" t="str">
-        <f>IF(OR(ISBLANK(Library!E70),ISBLANK(Library!B70)),"",CONCATENATE("barcode",TEXT(Library!E70,"00")))</f>
+        <f>IF(Library!G70,CONCATENATE("barcode",TEXT(Library!C70,"00")),"")</f>
         <v/>
       </c>
       <c r="D62" t="str">
-        <f>IF(LEN(Library!D70)=0,"",Library!D70)</f>
+        <f>IF(AND(Library!G70,NOT(ISBLANK(Library!E70))),Library!E70,"")</f>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="str">
-        <f>IF(LEN(Library!B71)=0,"",Library!B71)</f>
+        <f>IF(Library!G71,Library!B71,"")</f>
         <v/>
       </c>
       <c r="B63" t="str">
-        <f>IF(LEN(Library!C71)=0,"",Library!C71)</f>
+        <f>IF(Library!G71,Library!D71,"")</f>
         <v/>
       </c>
       <c r="C63" t="str">
-        <f>IF(OR(ISBLANK(Library!E71),ISBLANK(Library!B71)),"",CONCATENATE("barcode",TEXT(Library!E71,"00")))</f>
+        <f>IF(Library!G71,CONCATENATE("barcode",TEXT(Library!C71,"00")),"")</f>
         <v/>
       </c>
       <c r="D63" t="str">
-        <f>IF(LEN(Library!D71)=0,"",Library!D71)</f>
+        <f>IF(AND(Library!G71,NOT(ISBLANK(Library!E71))),Library!E71,"")</f>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="str">
-        <f>IF(LEN(Library!B72)=0,"",Library!B72)</f>
+        <f>IF(Library!G72,Library!B72,"")</f>
         <v/>
       </c>
       <c r="B64" t="str">
-        <f>IF(LEN(Library!C72)=0,"",Library!C72)</f>
+        <f>IF(Library!G72,Library!D72,"")</f>
         <v/>
       </c>
       <c r="C64" t="str">
-        <f>IF(OR(ISBLANK(Library!E72),ISBLANK(Library!B72)),"",CONCATENATE("barcode",TEXT(Library!E72,"00")))</f>
+        <f>IF(Library!G72,CONCATENATE("barcode",TEXT(Library!C72,"00")),"")</f>
         <v/>
       </c>
       <c r="D64" t="str">
-        <f>IF(LEN(Library!D72)=0,"",Library!D72)</f>
+        <f>IF(AND(Library!G72,NOT(ISBLANK(Library!E72))),Library!E72,"")</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
-        <f>IF(LEN(Library!B73)=0,"",Library!B73)</f>
+        <f>IF(Library!G73,Library!B73,"")</f>
         <v/>
       </c>
       <c r="B65" t="str">
-        <f>IF(LEN(Library!C73)=0,"",Library!C73)</f>
+        <f>IF(Library!G73,Library!D73,"")</f>
         <v/>
       </c>
       <c r="C65" t="str">
-        <f>IF(OR(ISBLANK(Library!E73),ISBLANK(Library!B73)),"",CONCATENATE("barcode",TEXT(Library!E73,"00")))</f>
+        <f>IF(Library!G73,CONCATENATE("barcode",TEXT(Library!C73,"00")),"")</f>
         <v/>
       </c>
       <c r="D65" t="str">
-        <f>IF(LEN(Library!D73)=0,"",Library!D73)</f>
+        <f>IF(AND(Library!G73,NOT(ISBLANK(Library!E73))),Library!E73,"")</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="str">
-        <f>IF(LEN(Library!B74)=0,"",Library!B74)</f>
+        <f>IF(Library!G74,Library!B74,"")</f>
         <v/>
       </c>
       <c r="B66" t="str">
-        <f>IF(LEN(Library!C74)=0,"",Library!C74)</f>
+        <f>IF(Library!G74,Library!D74,"")</f>
         <v/>
       </c>
       <c r="C66" t="str">
-        <f>IF(OR(ISBLANK(Library!E74),ISBLANK(Library!B74)),"",CONCATENATE("barcode",TEXT(Library!E74,"00")))</f>
+        <f>IF(Library!G74,CONCATENATE("barcode",TEXT(Library!C74,"00")),"")</f>
         <v/>
       </c>
       <c r="D66" t="str">
-        <f>IF(LEN(Library!D74)=0,"",Library!D74)</f>
+        <f>IF(AND(Library!G74,NOT(ISBLANK(Library!E74))),Library!E74,"")</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="str">
-        <f>IF(LEN(Library!B75)=0,"",Library!B75)</f>
+        <f>IF(Library!G75,Library!B75,"")</f>
         <v/>
       </c>
       <c r="B67" t="str">
-        <f>IF(LEN(Library!C75)=0,"",Library!C75)</f>
+        <f>IF(Library!G75,Library!D75,"")</f>
         <v/>
       </c>
       <c r="C67" t="str">
-        <f>IF(OR(ISBLANK(Library!E75),ISBLANK(Library!B75)),"",CONCATENATE("barcode",TEXT(Library!E75,"00")))</f>
+        <f>IF(Library!G75,CONCATENATE("barcode",TEXT(Library!C75,"00")),"")</f>
         <v/>
       </c>
       <c r="D67" t="str">
-        <f>IF(LEN(Library!D75)=0,"",Library!D75)</f>
+        <f>IF(AND(Library!G75,NOT(ISBLANK(Library!E75))),Library!E75,"")</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="str">
-        <f>IF(LEN(Library!B76)=0,"",Library!B76)</f>
+        <f>IF(Library!G76,Library!B76,"")</f>
         <v/>
       </c>
       <c r="B68" t="str">
-        <f>IF(LEN(Library!C76)=0,"",Library!C76)</f>
+        <f>IF(Library!G76,Library!D76,"")</f>
         <v/>
       </c>
       <c r="C68" t="str">
-        <f>IF(OR(ISBLANK(Library!E76),ISBLANK(Library!B76)),"",CONCATENATE("barcode",TEXT(Library!E76,"00")))</f>
+        <f>IF(Library!G76,CONCATENATE("barcode",TEXT(Library!C76,"00")),"")</f>
         <v/>
       </c>
       <c r="D68" t="str">
-        <f>IF(LEN(Library!D76)=0,"",Library!D76)</f>
+        <f>IF(AND(Library!G76,NOT(ISBLANK(Library!E76))),Library!E76,"")</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="str">
-        <f>IF(LEN(Library!B77)=0,"",Library!B77)</f>
+        <f>IF(Library!G77,Library!B77,"")</f>
         <v/>
       </c>
       <c r="B69" t="str">
-        <f>IF(LEN(Library!C77)=0,"",Library!C77)</f>
+        <f>IF(Library!G77,Library!D77,"")</f>
         <v/>
       </c>
       <c r="C69" t="str">
-        <f>IF(OR(ISBLANK(Library!E77),ISBLANK(Library!B77)),"",CONCATENATE("barcode",TEXT(Library!E77,"00")))</f>
+        <f>IF(Library!G77,CONCATENATE("barcode",TEXT(Library!C77,"00")),"")</f>
         <v/>
       </c>
       <c r="D69" t="str">
-        <f>IF(LEN(Library!D77)=0,"",Library!D77)</f>
+        <f>IF(AND(Library!G77,NOT(ISBLANK(Library!E77))),Library!E77,"")</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="str">
-        <f>IF(LEN(Library!B78)=0,"",Library!B78)</f>
+        <f>IF(Library!G78,Library!B78,"")</f>
         <v/>
       </c>
       <c r="B70" t="str">
-        <f>IF(LEN(Library!C78)=0,"",Library!C78)</f>
+        <f>IF(Library!G78,Library!D78,"")</f>
         <v/>
       </c>
       <c r="C70" t="str">
-        <f>IF(OR(ISBLANK(Library!E78),ISBLANK(Library!B78)),"",CONCATENATE("barcode",TEXT(Library!E78,"00")))</f>
+        <f>IF(Library!G78,CONCATENATE("barcode",TEXT(Library!C78,"00")),"")</f>
         <v/>
       </c>
       <c r="D70" t="str">
-        <f>IF(LEN(Library!D78)=0,"",Library!D78)</f>
+        <f>IF(AND(Library!G78,NOT(ISBLANK(Library!E78))),Library!E78,"")</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="str">
-        <f>IF(LEN(Library!B79)=0,"",Library!B79)</f>
+        <f>IF(Library!G79,Library!B79,"")</f>
         <v/>
       </c>
       <c r="B71" t="str">
-        <f>IF(LEN(Library!C79)=0,"",Library!C79)</f>
+        <f>IF(Library!G79,Library!D79,"")</f>
         <v/>
       </c>
       <c r="C71" t="str">
-        <f>IF(OR(ISBLANK(Library!E79),ISBLANK(Library!B79)),"",CONCATENATE("barcode",TEXT(Library!E79,"00")))</f>
+        <f>IF(Library!G79,CONCATENATE("barcode",TEXT(Library!C79,"00")),"")</f>
         <v/>
       </c>
       <c r="D71" t="str">
-        <f>IF(LEN(Library!D79)=0,"",Library!D79)</f>
+        <f>IF(AND(Library!G79,NOT(ISBLANK(Library!E79))),Library!E79,"")</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="str">
-        <f>IF(LEN(Library!B80)=0,"",Library!B80)</f>
+        <f>IF(Library!G80,Library!B80,"")</f>
         <v/>
       </c>
       <c r="B72" t="str">
-        <f>IF(LEN(Library!C80)=0,"",Library!C80)</f>
+        <f>IF(Library!G80,Library!D80,"")</f>
         <v/>
       </c>
       <c r="C72" t="str">
-        <f>IF(OR(ISBLANK(Library!E80),ISBLANK(Library!B80)),"",CONCATENATE("barcode",TEXT(Library!E80,"00")))</f>
+        <f>IF(Library!G80,CONCATENATE("barcode",TEXT(Library!C80,"00")),"")</f>
         <v/>
       </c>
       <c r="D72" t="str">
-        <f>IF(LEN(Library!D80)=0,"",Library!D80)</f>
+        <f>IF(AND(Library!G80,NOT(ISBLANK(Library!E80))),Library!E80,"")</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="str">
-        <f>IF(LEN(Library!B81)=0,"",Library!B81)</f>
+        <f>IF(Library!G81,Library!B81,"")</f>
         <v/>
       </c>
       <c r="B73" t="str">
-        <f>IF(LEN(Library!C81)=0,"",Library!C81)</f>
+        <f>IF(Library!G81,Library!D81,"")</f>
         <v/>
       </c>
       <c r="C73" t="str">
-        <f>IF(OR(ISBLANK(Library!E81),ISBLANK(Library!B81)),"",CONCATENATE("barcode",TEXT(Library!E81,"00")))</f>
+        <f>IF(Library!G81,CONCATENATE("barcode",TEXT(Library!C81,"00")),"")</f>
         <v/>
       </c>
       <c r="D73" t="str">
-        <f>IF(LEN(Library!D81)=0,"",Library!D81)</f>
+        <f>IF(AND(Library!G81,NOT(ISBLANK(Library!E81))),Library!E81,"")</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="str">
-        <f>IF(LEN(Library!B82)=0,"",Library!B82)</f>
+        <f>IF(Library!G82,Library!B82,"")</f>
         <v/>
       </c>
       <c r="B74" t="str">
-        <f>IF(LEN(Library!C82)=0,"",Library!C82)</f>
+        <f>IF(Library!G82,Library!D82,"")</f>
         <v/>
       </c>
       <c r="C74" t="str">
-        <f>IF(OR(ISBLANK(Library!E82),ISBLANK(Library!B82)),"",CONCATENATE("barcode",TEXT(Library!E82,"00")))</f>
+        <f>IF(Library!G82,CONCATENATE("barcode",TEXT(Library!C82,"00")),"")</f>
         <v/>
       </c>
       <c r="D74" t="str">
-        <f>IF(LEN(Library!D82)=0,"",Library!D82)</f>
+        <f>IF(AND(Library!G82,NOT(ISBLANK(Library!E82))),Library!E82,"")</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="str">
-        <f>IF(LEN(Library!B83)=0,"",Library!B83)</f>
+        <f>IF(Library!G83,Library!B83,"")</f>
         <v/>
       </c>
       <c r="B75" t="str">
-        <f>IF(LEN(Library!C83)=0,"",Library!C83)</f>
+        <f>IF(Library!G83,Library!D83,"")</f>
         <v/>
       </c>
       <c r="C75" t="str">
-        <f>IF(OR(ISBLANK(Library!E83),ISBLANK(Library!B83)),"",CONCATENATE("barcode",TEXT(Library!E83,"00")))</f>
+        <f>IF(Library!G83,CONCATENATE("barcode",TEXT(Library!C83,"00")),"")</f>
         <v/>
       </c>
       <c r="D75" t="str">
-        <f>IF(LEN(Library!D83)=0,"",Library!D83)</f>
+        <f>IF(AND(Library!G83,NOT(ISBLANK(Library!E83))),Library!E83,"")</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
-        <f>IF(LEN(Library!B84)=0,"",Library!B84)</f>
+        <f>IF(Library!G84,Library!B84,"")</f>
         <v/>
       </c>
       <c r="B76" t="str">
-        <f>IF(LEN(Library!C84)=0,"",Library!C84)</f>
+        <f>IF(Library!G84,Library!D84,"")</f>
         <v/>
       </c>
       <c r="C76" t="str">
-        <f>IF(OR(ISBLANK(Library!E84),ISBLANK(Library!B84)),"",CONCATENATE("barcode",TEXT(Library!E84,"00")))</f>
+        <f>IF(Library!G84,CONCATENATE("barcode",TEXT(Library!C84,"00")),"")</f>
         <v/>
       </c>
       <c r="D76" t="str">
-        <f>IF(LEN(Library!D84)=0,"",Library!D84)</f>
+        <f>IF(AND(Library!G84,NOT(ISBLANK(Library!E84))),Library!E84,"")</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="str">
-        <f>IF(LEN(Library!B85)=0,"",Library!B85)</f>
+        <f>IF(Library!G85,Library!B85,"")</f>
         <v/>
       </c>
       <c r="B77" t="str">
-        <f>IF(LEN(Library!C85)=0,"",Library!C85)</f>
+        <f>IF(Library!G85,Library!D85,"")</f>
         <v/>
       </c>
       <c r="C77" t="str">
-        <f>IF(OR(ISBLANK(Library!E85),ISBLANK(Library!B85)),"",CONCATENATE("barcode",TEXT(Library!E85,"00")))</f>
+        <f>IF(Library!G85,CONCATENATE("barcode",TEXT(Library!C85,"00")),"")</f>
         <v/>
       </c>
       <c r="D77" t="str">
-        <f>IF(LEN(Library!D85)=0,"",Library!D85)</f>
+        <f>IF(AND(Library!G85,NOT(ISBLANK(Library!E85))),Library!E85,"")</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="str">
-        <f>IF(LEN(Library!B86)=0,"",Library!B86)</f>
+        <f>IF(Library!G86,Library!B86,"")</f>
         <v/>
       </c>
       <c r="B78" t="str">
-        <f>IF(LEN(Library!C86)=0,"",Library!C86)</f>
+        <f>IF(Library!G86,Library!D86,"")</f>
         <v/>
       </c>
       <c r="C78" t="str">
-        <f>IF(OR(ISBLANK(Library!E86),ISBLANK(Library!B86)),"",CONCATENATE("barcode",TEXT(Library!E86,"00")))</f>
+        <f>IF(Library!G86,CONCATENATE("barcode",TEXT(Library!C86,"00")),"")</f>
         <v/>
       </c>
       <c r="D78" t="str">
-        <f>IF(LEN(Library!D86)=0,"",Library!D86)</f>
+        <f>IF(AND(Library!G86,NOT(ISBLANK(Library!E86))),Library!E86,"")</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="str">
-        <f>IF(LEN(Library!B87)=0,"",Library!B87)</f>
+        <f>IF(Library!G87,Library!B87,"")</f>
         <v/>
       </c>
       <c r="B79" t="str">
-        <f>IF(LEN(Library!C87)=0,"",Library!C87)</f>
+        <f>IF(Library!G87,Library!D87,"")</f>
         <v/>
       </c>
       <c r="C79" t="str">
-        <f>IF(OR(ISBLANK(Library!E87),ISBLANK(Library!B87)),"",CONCATENATE("barcode",TEXT(Library!E87,"00")))</f>
+        <f>IF(Library!G87,CONCATENATE("barcode",TEXT(Library!C87,"00")),"")</f>
         <v/>
       </c>
       <c r="D79" t="str">
-        <f>IF(LEN(Library!D87)=0,"",Library!D87)</f>
+        <f>IF(AND(Library!G87,NOT(ISBLANK(Library!E87))),Library!E87,"")</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="str">
-        <f>IF(LEN(Library!B88)=0,"",Library!B88)</f>
+        <f>IF(Library!G88,Library!B88,"")</f>
         <v/>
       </c>
       <c r="B80" t="str">
-        <f>IF(LEN(Library!C88)=0,"",Library!C88)</f>
+        <f>IF(Library!G88,Library!D88,"")</f>
         <v/>
       </c>
       <c r="C80" t="str">
-        <f>IF(OR(ISBLANK(Library!E88),ISBLANK(Library!B88)),"",CONCATENATE("barcode",TEXT(Library!E88,"00")))</f>
+        <f>IF(Library!G88,CONCATENATE("barcode",TEXT(Library!C88,"00")),"")</f>
         <v/>
       </c>
       <c r="D80" t="str">
-        <f>IF(LEN(Library!D88)=0,"",Library!D88)</f>
+        <f>IF(AND(Library!G88,NOT(ISBLANK(Library!E88))),Library!E88,"")</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="str">
-        <f>IF(LEN(Library!B89)=0,"",Library!B89)</f>
+        <f>IF(Library!G89,Library!B89,"")</f>
         <v/>
       </c>
       <c r="B81" t="str">
-        <f>IF(LEN(Library!C89)=0,"",Library!C89)</f>
+        <f>IF(Library!G89,Library!D89,"")</f>
         <v/>
       </c>
       <c r="C81" t="str">
-        <f>IF(OR(ISBLANK(Library!E89),ISBLANK(Library!B89)),"",CONCATENATE("barcode",TEXT(Library!E89,"00")))</f>
+        <f>IF(Library!G89,CONCATENATE("barcode",TEXT(Library!C89,"00")),"")</f>
         <v/>
       </c>
       <c r="D81" t="str">
-        <f>IF(LEN(Library!D89)=0,"",Library!D89)</f>
+        <f>IF(AND(Library!G89,NOT(ISBLANK(Library!E89))),Library!E89,"")</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="str">
-        <f>IF(LEN(Library!B90)=0,"",Library!B90)</f>
+        <f>IF(Library!G90,Library!B90,"")</f>
         <v/>
       </c>
       <c r="B82" t="str">
-        <f>IF(LEN(Library!C90)=0,"",Library!C90)</f>
+        <f>IF(Library!G90,Library!D90,"")</f>
         <v/>
       </c>
       <c r="C82" t="str">
-        <f>IF(OR(ISBLANK(Library!E90),ISBLANK(Library!B90)),"",CONCATENATE("barcode",TEXT(Library!E90,"00")))</f>
+        <f>IF(Library!G90,CONCATENATE("barcode",TEXT(Library!C90,"00")),"")</f>
         <v/>
       </c>
       <c r="D82" t="str">
-        <f>IF(LEN(Library!D90)=0,"",Library!D90)</f>
+        <f>IF(AND(Library!G90,NOT(ISBLANK(Library!E90))),Library!E90,"")</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="str">
-        <f>IF(LEN(Library!B91)=0,"",Library!B91)</f>
+        <f>IF(Library!G91,Library!B91,"")</f>
         <v/>
       </c>
       <c r="B83" t="str">
-        <f>IF(LEN(Library!C91)=0,"",Library!C91)</f>
+        <f>IF(Library!G91,Library!D91,"")</f>
         <v/>
       </c>
       <c r="C83" t="str">
-        <f>IF(OR(ISBLANK(Library!E91),ISBLANK(Library!B91)),"",CONCATENATE("barcode",TEXT(Library!E91,"00")))</f>
+        <f>IF(Library!G91,CONCATENATE("barcode",TEXT(Library!C91,"00")),"")</f>
         <v/>
       </c>
       <c r="D83" t="str">
-        <f>IF(LEN(Library!D91)=0,"",Library!D91)</f>
+        <f>IF(AND(Library!G91,NOT(ISBLANK(Library!E91))),Library!E91,"")</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="str">
-        <f>IF(LEN(Library!B92)=0,"",Library!B92)</f>
+        <f>IF(Library!G92,Library!B92,"")</f>
         <v/>
       </c>
       <c r="B84" t="str">
-        <f>IF(LEN(Library!C92)=0,"",Library!C92)</f>
+        <f>IF(Library!G92,Library!D92,"")</f>
         <v/>
       </c>
       <c r="C84" t="str">
-        <f>IF(OR(ISBLANK(Library!E92),ISBLANK(Library!B92)),"",CONCATENATE("barcode",TEXT(Library!E92,"00")))</f>
+        <f>IF(Library!G92,CONCATENATE("barcode",TEXT(Library!C92,"00")),"")</f>
         <v/>
       </c>
       <c r="D84" t="str">
-        <f>IF(LEN(Library!D92)=0,"",Library!D92)</f>
+        <f>IF(AND(Library!G92,NOT(ISBLANK(Library!E92))),Library!E92,"")</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="str">
-        <f>IF(LEN(Library!B93)=0,"",Library!B93)</f>
+        <f>IF(Library!G93,Library!B93,"")</f>
         <v/>
       </c>
       <c r="B85" t="str">
-        <f>IF(LEN(Library!C93)=0,"",Library!C93)</f>
+        <f>IF(Library!G93,Library!D93,"")</f>
         <v/>
       </c>
       <c r="C85" t="str">
-        <f>IF(OR(ISBLANK(Library!E93),ISBLANK(Library!B93)),"",CONCATENATE("barcode",TEXT(Library!E93,"00")))</f>
+        <f>IF(Library!G93,CONCATENATE("barcode",TEXT(Library!C93,"00")),"")</f>
         <v/>
       </c>
       <c r="D85" t="str">
-        <f>IF(LEN(Library!D93)=0,"",Library!D93)</f>
+        <f>IF(AND(Library!G93,NOT(ISBLANK(Library!E93))),Library!E93,"")</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="str">
-        <f>IF(LEN(Library!B94)=0,"",Library!B94)</f>
+        <f>IF(Library!G94,Library!B94,"")</f>
         <v/>
       </c>
       <c r="B86" t="str">
-        <f>IF(LEN(Library!C94)=0,"",Library!C94)</f>
+        <f>IF(Library!G94,Library!D94,"")</f>
         <v/>
       </c>
       <c r="C86" t="str">
-        <f>IF(OR(ISBLANK(Library!E94),ISBLANK(Library!B94)),"",CONCATENATE("barcode",TEXT(Library!E94,"00")))</f>
+        <f>IF(Library!G94,CONCATENATE("barcode",TEXT(Library!C94,"00")),"")</f>
         <v/>
       </c>
       <c r="D86" t="str">
-        <f>IF(LEN(Library!D94)=0,"",Library!D94)</f>
+        <f>IF(AND(Library!G94,NOT(ISBLANK(Library!E94))),Library!E94,"")</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="str">
-        <f>IF(LEN(Library!B95)=0,"",Library!B95)</f>
+        <f>IF(Library!G95,Library!B95,"")</f>
         <v/>
       </c>
       <c r="B87" t="str">
-        <f>IF(LEN(Library!C95)=0,"",Library!C95)</f>
+        <f>IF(Library!G95,Library!D95,"")</f>
         <v/>
       </c>
       <c r="C87" t="str">
-        <f>IF(OR(ISBLANK(Library!E95),ISBLANK(Library!B95)),"",CONCATENATE("barcode",TEXT(Library!E95,"00")))</f>
+        <f>IF(Library!G95,CONCATENATE("barcode",TEXT(Library!C95,"00")),"")</f>
         <v/>
       </c>
       <c r="D87" t="str">
-        <f>IF(LEN(Library!D95)=0,"",Library!D95)</f>
+        <f>IF(AND(Library!G95,NOT(ISBLANK(Library!E95))),Library!E95,"")</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="str">
-        <f>IF(LEN(Library!B96)=0,"",Library!B96)</f>
+        <f>IF(Library!G96,Library!B96,"")</f>
         <v/>
       </c>
       <c r="B88" t="str">
-        <f>IF(LEN(Library!C96)=0,"",Library!C96)</f>
+        <f>IF(Library!G96,Library!D96,"")</f>
         <v/>
       </c>
       <c r="C88" t="str">
-        <f>IF(OR(ISBLANK(Library!E96),ISBLANK(Library!B96)),"",CONCATENATE("barcode",TEXT(Library!E96,"00")))</f>
+        <f>IF(Library!G96,CONCATENATE("barcode",TEXT(Library!C96,"00")),"")</f>
         <v/>
       </c>
       <c r="D88" t="str">
-        <f>IF(LEN(Library!D96)=0,"",Library!D96)</f>
+        <f>IF(AND(Library!G96,NOT(ISBLANK(Library!E96))),Library!E96,"")</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="str">
-        <f>IF(LEN(Library!B97)=0,"",Library!B97)</f>
+        <f>IF(Library!G97,Library!B97,"")</f>
         <v/>
       </c>
       <c r="B89" t="str">
-        <f>IF(LEN(Library!C97)=0,"",Library!C97)</f>
+        <f>IF(Library!G97,Library!D97,"")</f>
         <v/>
       </c>
       <c r="C89" t="str">
-        <f>IF(OR(ISBLANK(Library!E97),ISBLANK(Library!B97)),"",CONCATENATE("barcode",TEXT(Library!E97,"00")))</f>
+        <f>IF(Library!G97,CONCATENATE("barcode",TEXT(Library!C97,"00")),"")</f>
         <v/>
       </c>
       <c r="D89" t="str">
-        <f>IF(LEN(Library!D97)=0,"",Library!D97)</f>
+        <f>IF(AND(Library!G97,NOT(ISBLANK(Library!E97))),Library!E97,"")</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="str">
-        <f>IF(LEN(Library!B98)=0,"",Library!B98)</f>
+        <f>IF(Library!G98,Library!B98,"")</f>
         <v/>
       </c>
       <c r="B90" t="str">
-        <f>IF(LEN(Library!C98)=0,"",Library!C98)</f>
+        <f>IF(Library!G98,Library!D98,"")</f>
         <v/>
       </c>
       <c r="C90" t="str">
-        <f>IF(OR(ISBLANK(Library!E98),ISBLANK(Library!B98)),"",CONCATENATE("barcode",TEXT(Library!E98,"00")))</f>
+        <f>IF(Library!G98,CONCATENATE("barcode",TEXT(Library!C98,"00")),"")</f>
         <v/>
       </c>
       <c r="D90" t="str">
-        <f>IF(LEN(Library!D98)=0,"",Library!D98)</f>
+        <f>IF(AND(Library!G98,NOT(ISBLANK(Library!E98))),Library!E98,"")</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="str">
-        <f>IF(LEN(Library!B99)=0,"",Library!B99)</f>
+        <f>IF(Library!G99,Library!B99,"")</f>
         <v/>
       </c>
       <c r="B91" t="str">
-        <f>IF(LEN(Library!C99)=0,"",Library!C99)</f>
+        <f>IF(Library!G99,Library!D99,"")</f>
         <v/>
       </c>
       <c r="C91" t="str">
-        <f>IF(OR(ISBLANK(Library!E99),ISBLANK(Library!B99)),"",CONCATENATE("barcode",TEXT(Library!E99,"00")))</f>
+        <f>IF(Library!G99,CONCATENATE("barcode",TEXT(Library!C99,"00")),"")</f>
         <v/>
       </c>
       <c r="D91" t="str">
-        <f>IF(LEN(Library!D99)=0,"",Library!D99)</f>
+        <f>IF(AND(Library!G99,NOT(ISBLANK(Library!E99))),Library!E99,"")</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="str">
-        <f>IF(LEN(Library!B100)=0,"",Library!B100)</f>
+        <f>IF(Library!G100,Library!B100,"")</f>
         <v/>
       </c>
       <c r="B92" t="str">
-        <f>IF(LEN(Library!C100)=0,"",Library!C100)</f>
+        <f>IF(Library!G100,Library!D100,"")</f>
         <v/>
       </c>
       <c r="C92" t="str">
-        <f>IF(OR(ISBLANK(Library!E100),ISBLANK(Library!B100)),"",CONCATENATE("barcode",TEXT(Library!E100,"00")))</f>
+        <f>IF(Library!G100,CONCATENATE("barcode",TEXT(Library!C100,"00")),"")</f>
         <v/>
       </c>
       <c r="D92" t="str">
-        <f>IF(LEN(Library!D100)=0,"",Library!D100)</f>
+        <f>IF(AND(Library!G100,NOT(ISBLANK(Library!E100))),Library!E100,"")</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="str">
-        <f>IF(LEN(Library!B101)=0,"",Library!B101)</f>
+        <f>IF(Library!G101,Library!B101,"")</f>
         <v/>
       </c>
       <c r="B93" t="str">
-        <f>IF(LEN(Library!C101)=0,"",Library!C101)</f>
+        <f>IF(Library!G101,Library!D101,"")</f>
         <v/>
       </c>
       <c r="C93" t="str">
-        <f>IF(OR(ISBLANK(Library!E101),ISBLANK(Library!B101)),"",CONCATENATE("barcode",TEXT(Library!E101,"00")))</f>
+        <f>IF(Library!G101,CONCATENATE("barcode",TEXT(Library!C101,"00")),"")</f>
         <v/>
       </c>
       <c r="D93" t="str">
-        <f>IF(LEN(Library!D101)=0,"",Library!D101)</f>
+        <f>IF(AND(Library!G101,NOT(ISBLANK(Library!E101))),Library!E101,"")</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="str">
-        <f>IF(LEN(Library!B102)=0,"",Library!B102)</f>
+        <f>IF(Library!G102,Library!B102,"")</f>
         <v/>
       </c>
       <c r="B94" t="str">
-        <f>IF(LEN(Library!C102)=0,"",Library!C102)</f>
+        <f>IF(Library!G102,Library!D102,"")</f>
         <v/>
       </c>
       <c r="C94" t="str">
-        <f>IF(OR(ISBLANK(Library!E102),ISBLANK(Library!B102)),"",CONCATENATE("barcode",TEXT(Library!E102,"00")))</f>
+        <f>IF(Library!G102,CONCATENATE("barcode",TEXT(Library!C102,"00")),"")</f>
         <v/>
       </c>
       <c r="D94" t="str">
-        <f>IF(LEN(Library!D102)=0,"",Library!D102)</f>
+        <f>IF(AND(Library!G102,NOT(ISBLANK(Library!E102))),Library!E102,"")</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="str">
-        <f>IF(LEN(Library!B103)=0,"",Library!B103)</f>
+        <f>IF(Library!G103,Library!B103,"")</f>
         <v/>
       </c>
       <c r="B95" t="str">
-        <f>IF(LEN(Library!C103)=0,"",Library!C103)</f>
+        <f>IF(Library!G103,Library!D103,"")</f>
         <v/>
       </c>
       <c r="C95" t="str">
-        <f>IF(OR(ISBLANK(Library!E103),ISBLANK(Library!B103)),"",CONCATENATE("barcode",TEXT(Library!E103,"00")))</f>
+        <f>IF(Library!G103,CONCATENATE("barcode",TEXT(Library!C103,"00")),"")</f>
         <v/>
       </c>
       <c r="D95" t="str">
-        <f>IF(LEN(Library!D103)=0,"",Library!D103)</f>
+        <f>IF(AND(Library!G103,NOT(ISBLANK(Library!E103))),Library!E103,"")</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="str">
-        <f>IF(LEN(Library!B104)=0,"",Library!B104)</f>
+        <f>IF(Library!G104,Library!B104,"")</f>
         <v/>
       </c>
       <c r="B96" t="str">
-        <f>IF(LEN(Library!C104)=0,"",Library!C104)</f>
+        <f>IF(Library!G104,Library!D104,"")</f>
         <v/>
       </c>
       <c r="C96" t="str">
-        <f>IF(OR(ISBLANK(Library!E104),ISBLANK(Library!B104)),"",CONCATENATE("barcode",TEXT(Library!E104,"00")))</f>
+        <f>IF(Library!G104,CONCATENATE("barcode",TEXT(Library!C104,"00")),"")</f>
         <v/>
       </c>
       <c r="D96" t="str">
-        <f>IF(LEN(Library!D104)=0,"",Library!D104)</f>
+        <f>IF(AND(Library!G104,NOT(ISBLANK(Library!E104))),Library!E104,"")</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="str">
-        <f>IF(LEN(Library!B105)=0,"",Library!B105)</f>
+        <f>IF(Library!G105,Library!B105,"")</f>
         <v/>
       </c>
       <c r="B97" t="str">
-        <f>IF(LEN(Library!C105)=0,"",Library!C105)</f>
+        <f>IF(Library!G105,Library!D105,"")</f>
         <v/>
       </c>
       <c r="C97" t="str">
-        <f>IF(OR(ISBLANK(Library!E105),ISBLANK(Library!B105)),"",CONCATENATE("barcode",TEXT(Library!E105,"00")))</f>
+        <f>IF(Library!G105,CONCATENATE("barcode",TEXT(Library!C105,"00")),"")</f>
         <v/>
       </c>
       <c r="D97" t="str">
-        <f>IF(LEN(Library!D105)=0,"",Library!D105)</f>
+        <f>IF(AND(Library!G105,NOT(ISBLANK(Library!E105))),Library!E105,"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BpfvFrrqtm0e7cxfocp+zTlVzBFfRuOvKl+EL7COePiHLmFrI52KWVpK8pzpUPY55InciSWy/Tz3uw4ktCZaQw==" saltValue="yEn5Lf0eHnWThP25T0izmg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="1Q6N0maAQNsOI43ZphZysMjsUMzPkWBybftcWP13tFYa3VpBIfjcO8oiJJC9/lEFsqnXug4WFdsAEbNVHfb6MQ==" saltValue="Li18yf8ME53aby/AQ6q8Qw==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
@@ -4965,30 +6485,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>105</v>
+      <c r="A4" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -5004,9 +6524,7 @@
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5014,65 +6532,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
-        <v>121</v>
+      <c r="A1" s="15" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A3" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="17"/>
+    </row>
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A5" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A7" s="16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
-    </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="109.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="26" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="8" spans="1:1" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>127</v>
+      <c r="A8" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="147" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>126</v>
+      <c r="A9" s="13" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="168.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>125</v>
+      <c r="A10" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="26" t="s">
-        <v>129</v>
+      <c r="A12" s="16" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
+++ b/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\src\nomadic\start\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF95496-F69D-4D43-B9B0-81328E6CE62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AE93DA-A7C3-4D03-B2EC-44744C34098F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23244" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -943,12 +943,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
@@ -961,17 +972,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1758,25 +1758,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1785,34 +1785,34 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
       <c r="E3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
       <c r="E4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="6" t="s">
         <v>129</v>
       </c>
@@ -1821,12 +1821,12 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
       <c r="E6" s="5" t="s">
         <v>125</v>
       </c>
@@ -1835,15 +1835,15 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="43" t="str">
+      <c r="B7" s="43"/>
+      <c r="C7" s="46" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,TEXT(C5,"000"),"_",C4,"_Batch",C6))</f>
         <v/>
       </c>
-      <c r="D7" s="43"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="5" t="s">
         <v>136</v>
       </c>
@@ -4586,8 +4586,13 @@
       <c r="I115" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:I1"/>
@@ -4595,12 +4600,6 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B10:E105">
@@ -4631,9 +4630,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
-    <dataValidation type="textLength" errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" error="The sample ID appears to be too short." prompt="Enter the Extraction ID" sqref="B10:B105" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>3</formula1>
-    </dataValidation>
+    <dataValidation errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" error="The sample ID appears to be too short." prompt="Enter the Extraction ID" sqref="B10:B105" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C6 E7:H7 I8" xr:uid="{7F700A24-FACB-40FF-A73D-3494166CE29A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="C6 E7:H7 I8" xr:uid="{9C75F18E-0FA2-45C4-8859-DF7209A58F83}"/>
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Number" error="Please enter a number (decimal or whole) for the post-PCR DNA concentration" sqref="E10:E105" xr:uid="{10D485B7-FF0F-4E67-AF1B-44C96547CAC9}">

--- a/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
+++ b/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\src\nomadic\start\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9AE93DA-A7C3-4D03-B2EC-44744C34098F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B39BD8C-D338-4A8A-8BDC-E2D7F8445C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23244" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4629,11 +4629,10 @@
       <formula>NOT(COUNTIF(I10,""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="11">
-    <dataValidation errorStyle="information" operator="greaterThanOrEqual" allowBlank="1" showErrorMessage="1" error="The sample ID appears to be too short." prompt="Enter the Extraction ID" sqref="B10:B105" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+  <dataValidations count="10">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C6 E7:H7 I8" xr:uid="{7F700A24-FACB-40FF-A73D-3494166CE29A}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="C6 E7:H7 I8" xr:uid="{9C75F18E-0FA2-45C4-8859-DF7209A58F83}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Number" error="Please enter a number (decimal or whole) for the post-PCR DNA concentration" sqref="E10:E105" xr:uid="{10D485B7-FF0F-4E67-AF1B-44C96547CAC9}">
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Not a Number" error="Please enter a number (decimal or whole) for the post-PCR DNA concentration" sqref="E10:E105" xr:uid="{10D485B7-FF0F-4E67-AF1B-44C96547CAC9}">
       <formula1>0.0000000000000001</formula1>
       <formula2>9999999999</formula2>
     </dataValidation>
@@ -4646,10 +4645,6 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be an integer greater than zero" sqref="C5" xr:uid="{49447D3F-5D0C-48FC-AED3-44147C220519}">
       <formula1>1</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unknown Barcode" error="Barcode must be within the range of 1 to 96" sqref="C10:C105" xr:uid="{75260D73-B8AD-4061-93E2-00233DEB0C03}">
-      <formula1>1</formula1>
-      <formula2>96</formula2>
-    </dataValidation>
     <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Spaces identified" error="Please remove all spaces or replace them with an underscore / hyphen or other character" sqref="C4" xr:uid="{29DCDF67-D34F-4104-9020-0B6AB16317F0}">
       <formula1>ISERROR(FIND(" ",C4))</formula1>
     </dataValidation>
@@ -4658,6 +4653,10 @@
       <formula2>96</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Number" error="Please enter a number (decimal or whole) for the post-PCR DNA concentration" sqref="F10:H105 I10:I105" xr:uid="{CA156D17-E9AE-4308-90F1-0ED090E64F46}"/>
+    <dataValidation type="whole" allowBlank="1" showErrorMessage="1" errorTitle="Unknown Barcode" error="Barcode must be within the range of 1 to 96" sqref="C10:C105" xr:uid="{439A98FD-8F9E-494D-B78A-76BF43667ED4}">
+      <formula1>1</formula1>
+      <formula2>96</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.23611111111111099" right="0.23611111111111099" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
+++ b/src/nomadic/start/data/NOMADS_Library_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\src\nomadic\start\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B39BD8C-D338-4A8A-8BDC-E2D7F8445C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4A8232-E2E3-4D4E-9B71-C4B2CF93D9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46284" windowHeight="23244" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="46260" windowHeight="23220" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="2" r:id="rId1"/>
@@ -943,7 +943,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -956,22 +969,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1758,25 +1758,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1785,34 +1785,34 @@
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="6" t="s">
         <v>129</v>
       </c>
@@ -1821,12 +1821,12 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="5" t="s">
         <v>125</v>
       </c>
@@ -1835,15 +1835,15 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="46" t="str">
+      <c r="B7" s="39"/>
+      <c r="C7" s="42" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C4), ISBLANK(C5), ISBLANK(C6)),"",CONCATENATE(C2,"_",C3,TEXT(C5,"000"),"_",C4,"_Batch",C6))</f>
         <v/>
       </c>
-      <c r="D7" s="46"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="5" t="s">
         <v>136</v>
       </c>
@@ -4586,13 +4586,8 @@
       <c r="I115" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A1:I1"/>
@@ -4600,6 +4595,12 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B10:E105">
@@ -4630,20 +4631,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="C6 E7:H7 I8" xr:uid="{7F700A24-FACB-40FF-A73D-3494166CE29A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="C6 E7:H7 I8" xr:uid="{9C75F18E-0FA2-45C4-8859-DF7209A58F83}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be three digits long" sqref="I8 E7:H7" xr:uid="{7F700A24-FACB-40FF-A73D-3494166CE29A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Experimental Aim" error="The aim must be 5-20 characters long as it is used to name folders downstream so can not be too verbose." sqref="I8 E7:H7" xr:uid="{9C75F18E-0FA2-45C4-8859-DF7209A58F83}"/>
     <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" errorTitle="Not a Number" error="Please enter a number (decimal or whole) for the post-PCR DNA concentration" sqref="E10:E105" xr:uid="{10D485B7-FF0F-4E67-AF1B-44C96547CAC9}">
       <formula1>0.0000000000000001</formula1>
       <formula2>9999999999</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Date" error="Please check your entry and ensure it is a date in the format YYYY-MM-DD e.g. 2024-10-28" sqref="C2" xr:uid="{6948A87B-14F5-4864-A3CB-3A5971E46210}">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a Date" error="Please check your entry and ensure it is a date in the format YYYY-MM-DD e.g. 2024-10-28" sqref="C2:D2" xr:uid="{6948A87B-14F5-4864-A3CB-3A5971E46210}">
       <formula1>10</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Number of initials" error="Please just enter the first and last name initials e.g. John Smith = JS" sqref="C3" xr:uid="{6E22CD84-505D-440D-BC75-9483B6185E39}">
       <formula1>2</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be an integer greater than zero" sqref="C5" xr:uid="{49447D3F-5D0C-48FC-AED3-44147C220519}">
-      <formula1>1</formula1>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Format" error="Exp Number should be an integer greater than zero" sqref="C5:D5" xr:uid="{49447D3F-5D0C-48FC-AED3-44147C220519}">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Spaces identified" error="Please remove all spaces or replace them with an underscore / hyphen or other character" sqref="C4" xr:uid="{29DCDF67-D34F-4104-9020-0B6AB16317F0}">
       <formula1>ISERROR(FIND(" ",C4))</formula1>
